--- a/2024-03-02/outputs/analysis/timing-mode-analysis.xlsx
+++ b/2024-03-02/outputs/analysis/timing-mode-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoardo/repos/equipment-examinations/2024-03-02/outputs/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA363278-8B07-F84E-8F90-3ACC508727D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C5FFBB-8C57-994C-B88C-3FEEF49D575D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="30260" windowHeight="17780" xr2:uid="{D5AB5245-E2D5-0A4D-9F39-36F53832340C}"/>
+    <workbookView xWindow="200" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{D5AB5245-E2D5-0A4D-9F39-36F53832340C}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,6 @@
     <sheet name="Photocell" sheetId="7" r:id="rId3"/>
     <sheet name="Photofinish" sheetId="14" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Comparison!$K$2:$K$104</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Comparison!$K$2:$K$104</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Comparison!$K$2:$K$104</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Comparison!$J$2:$J$104</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Comparison!$K$2:$K$104</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Comparison!$J$2:$J$104</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Comparison!$K$2:$K$104</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1799,27 +1790,12 @@
     <t>15:40:13.7642</t>
   </si>
   <si>
-    <t>Photocell-PFcard</t>
-  </si>
-  <si>
-    <t>Photocell-PFchest</t>
-  </si>
-  <si>
-    <t>Sportident-PFchest</t>
-  </si>
-  <si>
-    <t>Sportident-PFcard</t>
-  </si>
-  <si>
     <t>Photofinish card (s)</t>
   </si>
   <si>
     <t>Photofinish chest (s)</t>
   </si>
   <si>
-    <t>PFchest-PFcard</t>
-  </si>
-  <si>
     <t>LAP1 = photocell 1 at 120cm</t>
   </si>
   <si>
@@ -1868,12 +1844,6 @@
     <t>By Card</t>
   </si>
   <si>
-    <t>Photocell-Pfchest normal distribution</t>
-  </si>
-  <si>
-    <t>Sportident-Pfcard normal distribution</t>
-  </si>
-  <si>
     <t>*** excluded: the card was out off the frame</t>
   </si>
   <si>
@@ -1881,6 +1851,27 @@
   </si>
   <si>
     <t>Card number</t>
+  </si>
+  <si>
+    <t>PF card - Sportident</t>
+  </si>
+  <si>
+    <t>PF card - Sportident ND</t>
+  </si>
+  <si>
+    <t>PF chest - Sportident</t>
+  </si>
+  <si>
+    <t>PF card - Photocell</t>
+  </si>
+  <si>
+    <t>PF chest - Photocell</t>
+  </si>
+  <si>
+    <t>PF chest - Photocell ND</t>
+  </si>
+  <si>
+    <t>PF card-PF chest</t>
   </si>
 </sst>
 </file>
@@ -1888,10 +1879,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="175" formatCode="hh:mm:ss.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="hh:mm:ss.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1965,20 +1956,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -1994,22 +1985,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2057,7 +2047,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Photocell-PFchest</c:v>
+                  <c:v>PF chest - Photocell</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2091,313 +2081,313 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>-2.4499999999534339E-2</c:v>
+                  <c:v>2.4499999999534339E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.1999999996041879E-3</c:v>
+                  <c:v>5.1999999996041879E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.1299999998300336E-2</c:v>
+                  <c:v>1.1299999998300336E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.4000000026426278E-3</c:v>
+                  <c:v>9.4000000026426278E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1999999961699359E-3</c:v>
+                  <c:v>-6.1999999961699359E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.7000000015250407E-3</c:v>
+                  <c:v>5.7000000015250407E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.0300000001734588E-2</c:v>
+                  <c:v>1.0300000001734588E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.9999999909196049E-4</c:v>
+                  <c:v>-8.9999999909196049E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7.5999999971827492E-3</c:v>
+                  <c:v>7.5999999971827492E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9.3999999953666702E-3</c:v>
+                  <c:v>9.3999999953666702E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3999999979860149E-3</c:v>
+                  <c:v>-4.3999999979860149E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5.9999999939464033E-4</c:v>
+                  <c:v>5.9999999939464033E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.5200000001641456E-2</c:v>
+                  <c:v>1.5200000001641456E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.6000000006170012E-3</c:v>
+                  <c:v>-6.6000000006170012E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1999999987892807E-3</c:v>
+                  <c:v>-1.1999999987892807E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.2999999966705218E-3</c:v>
+                  <c:v>3.2999999966705218E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.3800000002665911E-2</c:v>
+                  <c:v>2.3800000002665911E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.1000000017229468E-3</c:v>
+                  <c:v>-3.1000000017229468E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9999999494757503E-4</c:v>
+                  <c:v>-1.9999999494757503E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3.1999999991967343E-3</c:v>
+                  <c:v>3.1999999991967343E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.4999999999417923E-2</c:v>
+                  <c:v>1.4999999999417923E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.1999999957624823E-3</c:v>
+                  <c:v>-4.1999999957624823E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.599999999802094E-3</c:v>
+                  <c:v>-2.599999999802094E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-3.7000000011175871E-3</c:v>
+                  <c:v>3.7000000011175871E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-3.2099999996717088E-2</c:v>
+                  <c:v>3.2099999996717088E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-8.4999999962747097E-3</c:v>
+                  <c:v>8.4999999962747097E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.4999999984866008E-3</c:v>
+                  <c:v>1.4999999984866008E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.6799999997601844E-2</c:v>
+                  <c:v>-1.6799999997601844E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.0500000003958121E-2</c:v>
+                  <c:v>1.0500000003958121E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.4600000002246816E-2</c:v>
+                  <c:v>1.4600000002246816E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.1800000000221189E-2</c:v>
+                  <c:v>1.1800000000221189E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-2.8399999995599501E-2</c:v>
+                  <c:v>2.8399999995599501E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.299999999901047E-2</c:v>
+                  <c:v>1.299999999901047E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.329999999870779E-2</c:v>
+                  <c:v>1.329999999870779E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-7.9999999943538569E-3</c:v>
+                  <c:v>7.9999999943538569E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.9999997473787516E-5</c:v>
+                  <c:v>-9.9999997473787516E-5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.2000000002444722E-2</c:v>
+                  <c:v>-1.2000000002444722E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.1999999991967343E-3</c:v>
+                  <c:v>-3.1999999991967343E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.9599999999627471E-2</c:v>
+                  <c:v>1.9599999999627471E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-6.6999999980907887E-3</c:v>
+                  <c:v>6.6999999980907887E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-2.1999999953550287E-3</c:v>
+                  <c:v>2.1999999953550287E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.1899999997694977E-2</c:v>
+                  <c:v>-1.1899999997694977E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.0999999948544428E-3</c:v>
+                  <c:v>-5.0999999948544428E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.4999999950523488E-3</c:v>
+                  <c:v>-2.4999999950523488E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1.8999999956577085E-3</c:v>
+                  <c:v>1.8999999956577085E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-4.999999946448952E-4</c:v>
+                  <c:v>4.999999946448952E-4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-1.1999999987892807E-3</c:v>
+                  <c:v>1.1999999987892807E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>-5.0000000192085281E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.3100000003760215E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-3.5199999998440035E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.2000000030384399E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.4999999950523488E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.0999999978812411E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.2000000000116415E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.0000000016298145E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.9999999969732016E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-4.0999999982886948E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.6100000000733417E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-4.2999999932362698E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.7999999994062819E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.3700000003154855E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.8000000020256266E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.2700000006589107E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.9000000000232831E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.9999999656574801E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>5.0000000192085281E-4</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>-1.3100000003760215E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.5199999998440035E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-4.2000000030384399E-3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.4999999950523488E-3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-2.0999999978812411E-3</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-7.2000000000116415E-3</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-8.0000000016298145E-3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-2.9999999969732016E-4</c:v>
-                </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="67">
+                  <c:v>1.1999999987892807E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-2.4000000048545189E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-8.900000000721775E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.3999999975785613E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.2000000000116415E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-2.9999999969732016E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-5.5999999967752956E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-1.3000000035390258E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.1999999987892807E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-4.7000000049592927E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.0000000012223609E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.7000000045518391E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.799999998183921E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-5.7999999989988282E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.7000000011175871E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.599999999802094E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6400000000430737E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.4000000018277206E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.3999999983934686E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-7.0999999952618964E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-8.900000000721775E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.4899999996705446E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.6400000000430737E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.9999999969732016E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.3999999988009222E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.4999999997089617E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-3.6000000036437996E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-8.8000000032479875E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-6.3999999983934686E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>4.0999999982886948E-3</c:v>
                 </c:pt>
-                <c:pt idx="58">
-                  <c:v>-1.6100000000733417E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4.2999999932362698E-3</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-7.7999999994062819E-3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-1.3700000003154855E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-2.8000000020256266E-3</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.2700000006589107E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-1.9000000000232831E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-9.9999999656574801E-4</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-5.0000000192085281E-4</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-1.1999999987892807E-3</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.4000000048545189E-3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>8.900000000721775E-3</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-2.3999999975785613E-3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-7.2000000000116415E-3</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.9999999969732016E-3</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>5.5999999967752956E-3</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.3000000035390258E-3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-1.1999999987892807E-3</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>4.7000000049592927E-3</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-6.0000000012223609E-3</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-2.7000000045518391E-3</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.799999998183921E-3</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>5.7999999989988282E-3</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-3.7000000011175871E-3</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-2.599999999802094E-3</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-1.6400000000430737E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-5.4000000018277206E-3</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-6.3999999983934686E-3</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>7.0999999952618964E-3</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8.900000000721775E-3</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-2.4899999996705446E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-1.6400000000430737E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.9999999969732016E-3</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-8.3999999988009222E-3</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-7.4999999997089617E-3</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>3.6000000036437996E-3</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>8.8000000032479875E-3</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>6.3999999983934686E-3</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-4.0999999982886948E-3</c:v>
-                </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.4999999984866008E-3</c:v>
+                  <c:v>-1.4999999984866008E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-8.3000000013271347E-3</c:v>
+                  <c:v>8.3000000013271347E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.7999999951571226E-3</c:v>
+                  <c:v>-4.7999999951571226E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.7000000007101335E-3</c:v>
+                  <c:v>-1.7000000007101335E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-3.0999999944469891E-3</c:v>
+                  <c:v>3.0999999944469891E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5.9999999939464033E-4</c:v>
+                  <c:v>-5.9999999939464033E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2409,7 +2399,7 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>3.8173136199295854</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>39.795958074049814</c:v>
@@ -2750,7 +2740,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sportident-PFcard</c:v>
+                  <c:v>PF card - Sportident</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2784,313 +2774,313 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
+                  <c:v>-3.3300000002782326E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.300000000919681E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.5200000003678724E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.6199999998207204E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30380000000150176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.0200000001932494E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3003000000026077</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7999999998137355E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13430000000516884</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.1199999998498242E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9300000001967419E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2799999993585516E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.12269999999989523</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.1999999991967343E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.2000000068801455E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3000000035390258E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.2000000000116415E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1299999998300336E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.9799999999522697E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3799999993352685E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.9199999994016252E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.7700000000768341E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.11319999999977881</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.7300000000395812E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.14370000000053551</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0299999997369014E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.2999999936437234E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.16320000000268919</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.39979999999923166</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2799999998824205E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.3200000000069849E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7999999985913746E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-8.3699999995587859E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6800000004877802E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-5.1200000001699664E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.0800000004528556E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.37999999942258E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-8.1999999965773895E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.3800000004703179E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.31330000000161817</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.7699999996693805E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.3300000000745058E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.719999999681022E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.6200000005483162E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2299999996903352E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.830000000220025E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.32280000000173459</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.7999999998137355E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.9800000004761387E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-4.6999999976833351E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.12969999999768334</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.329999999870779E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.4300000002549496E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.7299999993119854E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.300000000919681E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.3700000003154855E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0799999996379483E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.3800000001501758E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.16820000000006985</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-8.6999999984982423E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.1999999987892807E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.3800000000628643E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.0800000005692709E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-4.4199999996635597E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.6799999996437691E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.16679999999905704</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.15769999999611173</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.2299999995739199E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.2300000002142042E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.9300000000803266E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.6300000002956949E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>3.3300000002782326E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>-6.300000000919681E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5200000003678724E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6199999998207204E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.30380000000150176</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0200000001932494E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.3003000000026077</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-9.7999999998137355E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.13430000000516884</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.1199999998498242E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2.9300000001967419E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-3.2799999993585516E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.12269999999989523</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.1999999991967343E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.2000000068801455E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1.3000000035390258E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.2000000000116415E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1.1299999998300336E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-7.9799999999522697E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1.3799999993352685E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.9199999994016252E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.7700000000768341E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.11319999999977881</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-5.7300000000395812E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.14370000000053551</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-6.0299999997369014E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-6.2999999936437234E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.16320000000268919</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.39979999999923166</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-2.2799999998824205E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.3200000000069849E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-3.7999999985913746E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.3699999995587859E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1.6800000004877802E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.1200000001699664E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-5.0800000004528556E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-5.37999999942258E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8.1999999965773895E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-3.3800000004703179E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.31330000000161817</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.7699999996693805E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-2.3300000000745058E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.719999999681022E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.6200000005483162E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-2.2299999996903352E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-4.830000000220025E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.32280000000173459</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-9.7999999998137355E-3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-6.9800000004761387E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4.6999999976833351E-3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.12969999999768334</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-1.329999999870779E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-1.4300000002549496E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-5.7299999993119854E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-6.300000000919681E-3</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.3700000003154855E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-1.0799999996379483E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-5.3800000001501758E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.16820000000006985</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>8.6999999984982423E-3</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.1999999987892807E-3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-1.3800000000628643E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-2.0800000005692709E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>4.4199999996635597E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-4.6799999996437691E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-0.16679999999905704</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.15769999999611173</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-5.2299999995739199E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-1.2300000002142042E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-5.9300000000803266E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-1.6300000002956949E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-3.3300000002782326E-2</c:v>
-                </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.2699999998148996E-2</c:v>
+                  <c:v>-4.2699999998148996E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.14130000000295695</c:v>
+                  <c:v>0.14130000000295695</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.2000000026309863E-3</c:v>
+                  <c:v>-2.2000000026309863E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.0200000003969762E-2</c:v>
+                  <c:v>-8.0200000003969762E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.50979999999981374</c:v>
+                  <c:v>0.50979999999981374</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-3.080000000045402E-2</c:v>
+                  <c:v>3.080000000045402E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7.9200000000128057E-2</c:v>
+                  <c:v>-7.9200000000128057E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.6700000001001172E-2</c:v>
+                  <c:v>-5.6700000001001172E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-2.7799999996204861E-2</c:v>
+                  <c:v>2.7799999996204861E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.20930000000225846</c:v>
+                  <c:v>0.20930000000225846</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6.9200000005366746E-2</c:v>
+                  <c:v>-6.9200000005366746E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.11570000000210712</c:v>
+                  <c:v>-0.11570000000210712</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.5842999999949825</c:v>
+                  <c:v>0.5842999999949825</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-3.1799999997019768E-2</c:v>
+                  <c:v>3.1799999997019768E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.5700000003271271E-2</c:v>
+                  <c:v>-8.5700000003271271E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7.9699999994772952E-2</c:v>
+                  <c:v>-7.9699999994772952E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.6999999942490831E-3</c:v>
+                  <c:v>-5.6999999942490831E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.7699999998440035E-2</c:v>
+                  <c:v>-9.7699999998440035E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-7.2299999999813735E-2</c:v>
+                  <c:v>7.2299999999813735E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.4700000003795139E-2</c:v>
+                  <c:v>-3.4700000003795139E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.31530000000202563</c:v>
+                  <c:v>0.31530000000202563</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-3.1799999997019768E-2</c:v>
+                  <c:v>3.1799999997019768E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.4200000001874287E-2</c:v>
+                  <c:v>-3.4200000001874287E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.59829999999783468</c:v>
+                  <c:v>0.59829999999783468</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-3.7299999996321276E-2</c:v>
+                  <c:v>3.7299999996321276E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.4699999999720603E-2</c:v>
+                  <c:v>-1.4699999999720603E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.30080000000452856</c:v>
+                  <c:v>0.30080000000452856</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-5.0799999997252598E-2</c:v>
+                  <c:v>5.0799999997252598E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.4200000002747402E-2</c:v>
+                  <c:v>-7.4200000002747402E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7.069999999657739E-2</c:v>
+                  <c:v>-7.069999999657739E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-8.5800000000745058E-2</c:v>
+                  <c:v>8.5800000000745058E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3102,7 +3092,7 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>2.539299040954329</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.7922027099122415</c:v>
@@ -3733,7 +3723,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sportident-PFcard</c:v>
+                  <c:v>PF card - Sportident</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3767,313 +3757,313 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
+                  <c:v>-3.3300000002782326E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.300000000919681E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.5200000003678724E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.6199999998207204E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30380000000150176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.0200000001932494E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3003000000026077</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7999999998137355E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13430000000516884</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.1199999998498242E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9300000001967419E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2799999993585516E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.12269999999989523</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.1999999991967343E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.2000000068801455E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3000000035390258E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.2000000000116415E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1299999998300336E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.9799999999522697E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3799999993352685E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.9199999994016252E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.7700000000768341E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.11319999999977881</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.7300000000395812E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.14370000000053551</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0299999997369014E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.2999999936437234E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.16320000000268919</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.39979999999923166</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2799999998824205E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.3200000000069849E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7999999985913746E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-8.3699999995587859E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6800000004877802E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-5.1200000001699664E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.0800000004528556E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.37999999942258E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-8.1999999965773895E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.3800000004703179E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.31330000000161817</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.7699999996693805E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.3300000000745058E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.719999999681022E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.6200000005483162E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2299999996903352E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.830000000220025E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.32280000000173459</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.7999999998137355E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.9800000004761387E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-4.6999999976833351E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.12969999999768334</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.329999999870779E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.4300000002549496E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.7299999993119854E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.300000000919681E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.3700000003154855E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0799999996379483E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.3800000001501758E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.16820000000006985</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-8.6999999984982423E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.1999999987892807E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.3800000000628643E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.0800000005692709E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-4.4199999996635597E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.6799999996437691E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.16679999999905704</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.15769999999611173</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.2299999995739199E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.2300000002142042E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.9300000000803266E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.6300000002956949E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>3.3300000002782326E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>-6.300000000919681E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5200000003678724E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6199999998207204E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.30380000000150176</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0200000001932494E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.3003000000026077</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-9.7999999998137355E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.13430000000516884</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.1199999998498242E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2.9300000001967419E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-3.2799999993585516E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.12269999999989523</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.1999999991967343E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.2000000068801455E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1.3000000035390258E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.2000000000116415E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1.1299999998300336E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-7.9799999999522697E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1.3799999993352685E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.9199999994016252E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.7700000000768341E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.11319999999977881</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-5.7300000000395812E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.14370000000053551</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-6.0299999997369014E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-6.2999999936437234E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.16320000000268919</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.39979999999923166</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-2.2799999998824205E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.3200000000069849E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-3.7999999985913746E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.3699999995587859E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1.6800000004877802E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.1200000001699664E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-5.0800000004528556E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-5.37999999942258E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8.1999999965773895E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-3.3800000004703179E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.31330000000161817</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.7699999996693805E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-2.3300000000745058E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.719999999681022E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.6200000005483162E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-2.2299999996903352E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-4.830000000220025E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.32280000000173459</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-9.7999999998137355E-3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-6.9800000004761387E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4.6999999976833351E-3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.12969999999768334</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-1.329999999870779E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-1.4300000002549496E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-5.7299999993119854E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-6.300000000919681E-3</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.3700000003154855E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-1.0799999996379483E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-5.3800000001501758E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.16820000000006985</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>8.6999999984982423E-3</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.1999999987892807E-3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-1.3800000000628643E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-2.0800000005692709E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>4.4199999996635597E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-4.6799999996437691E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-0.16679999999905704</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.15769999999611173</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-5.2299999995739199E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-1.2300000002142042E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-5.9300000000803266E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-1.6300000002956949E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-3.3300000002782326E-2</c:v>
-                </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.2699999998148996E-2</c:v>
+                  <c:v>-4.2699999998148996E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.14130000000295695</c:v>
+                  <c:v>0.14130000000295695</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.2000000026309863E-3</c:v>
+                  <c:v>-2.2000000026309863E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.0200000003969762E-2</c:v>
+                  <c:v>-8.0200000003969762E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.50979999999981374</c:v>
+                  <c:v>0.50979999999981374</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-3.080000000045402E-2</c:v>
+                  <c:v>3.080000000045402E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7.9200000000128057E-2</c:v>
+                  <c:v>-7.9200000000128057E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.6700000001001172E-2</c:v>
+                  <c:v>-5.6700000001001172E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-2.7799999996204861E-2</c:v>
+                  <c:v>2.7799999996204861E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.20930000000225846</c:v>
+                  <c:v>0.20930000000225846</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6.9200000005366746E-2</c:v>
+                  <c:v>-6.9200000005366746E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.11570000000210712</c:v>
+                  <c:v>-0.11570000000210712</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.5842999999949825</c:v>
+                  <c:v>0.5842999999949825</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-3.1799999997019768E-2</c:v>
+                  <c:v>3.1799999997019768E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.5700000003271271E-2</c:v>
+                  <c:v>-8.5700000003271271E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7.9699999994772952E-2</c:v>
+                  <c:v>-7.9699999994772952E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.6999999942490831E-3</c:v>
+                  <c:v>-5.6999999942490831E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.7699999998440035E-2</c:v>
+                  <c:v>-9.7699999998440035E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-7.2299999999813735E-2</c:v>
+                  <c:v>7.2299999999813735E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.4700000003795139E-2</c:v>
+                  <c:v>-3.4700000003795139E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.31530000000202563</c:v>
+                  <c:v>0.31530000000202563</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-3.1799999997019768E-2</c:v>
+                  <c:v>3.1799999997019768E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.4200000001874287E-2</c:v>
+                  <c:v>-3.4200000001874287E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.59829999999783468</c:v>
+                  <c:v>0.59829999999783468</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-3.7299999996321276E-2</c:v>
+                  <c:v>3.7299999996321276E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.4699999999720603E-2</c:v>
+                  <c:v>-1.4699999999720603E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.30080000000452856</c:v>
+                  <c:v>0.30080000000452856</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-5.0799999997252598E-2</c:v>
+                  <c:v>5.0799999997252598E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.4200000002747402E-2</c:v>
+                  <c:v>-7.4200000002747402E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7.069999999657739E-2</c:v>
+                  <c:v>-7.069999999657739E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-8.5800000000745058E-2</c:v>
+                  <c:v>8.5800000000745058E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4412,7 +4402,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Photocell-PFchest</c:v>
+                  <c:v>PF chest - Photocell</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4446,313 +4436,313 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>-2.4499999999534339E-2</c:v>
+                  <c:v>2.4499999999534339E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.1999999996041879E-3</c:v>
+                  <c:v>5.1999999996041879E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.1299999998300336E-2</c:v>
+                  <c:v>1.1299999998300336E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.4000000026426278E-3</c:v>
+                  <c:v>9.4000000026426278E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1999999961699359E-3</c:v>
+                  <c:v>-6.1999999961699359E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.7000000015250407E-3</c:v>
+                  <c:v>5.7000000015250407E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.0300000001734588E-2</c:v>
+                  <c:v>1.0300000001734588E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.9999999909196049E-4</c:v>
+                  <c:v>-8.9999999909196049E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7.5999999971827492E-3</c:v>
+                  <c:v>7.5999999971827492E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9.3999999953666702E-3</c:v>
+                  <c:v>9.3999999953666702E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3999999979860149E-3</c:v>
+                  <c:v>-4.3999999979860149E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5.9999999939464033E-4</c:v>
+                  <c:v>5.9999999939464033E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.5200000001641456E-2</c:v>
+                  <c:v>1.5200000001641456E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.6000000006170012E-3</c:v>
+                  <c:v>-6.6000000006170012E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1999999987892807E-3</c:v>
+                  <c:v>-1.1999999987892807E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.2999999966705218E-3</c:v>
+                  <c:v>3.2999999966705218E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.3800000002665911E-2</c:v>
+                  <c:v>2.3800000002665911E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.1000000017229468E-3</c:v>
+                  <c:v>-3.1000000017229468E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9999999494757503E-4</c:v>
+                  <c:v>-1.9999999494757503E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3.1999999991967343E-3</c:v>
+                  <c:v>3.1999999991967343E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.4999999999417923E-2</c:v>
+                  <c:v>1.4999999999417923E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.1999999957624823E-3</c:v>
+                  <c:v>-4.1999999957624823E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.599999999802094E-3</c:v>
+                  <c:v>-2.599999999802094E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-3.7000000011175871E-3</c:v>
+                  <c:v>3.7000000011175871E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-3.2099999996717088E-2</c:v>
+                  <c:v>3.2099999996717088E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-8.4999999962747097E-3</c:v>
+                  <c:v>8.4999999962747097E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.4999999984866008E-3</c:v>
+                  <c:v>1.4999999984866008E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.6799999997601844E-2</c:v>
+                  <c:v>-1.6799999997601844E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.0500000003958121E-2</c:v>
+                  <c:v>1.0500000003958121E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.4600000002246816E-2</c:v>
+                  <c:v>1.4600000002246816E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.1800000000221189E-2</c:v>
+                  <c:v>1.1800000000221189E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-2.8399999995599501E-2</c:v>
+                  <c:v>2.8399999995599501E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.299999999901047E-2</c:v>
+                  <c:v>1.299999999901047E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.329999999870779E-2</c:v>
+                  <c:v>1.329999999870779E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-7.9999999943538569E-3</c:v>
+                  <c:v>7.9999999943538569E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.9999997473787516E-5</c:v>
+                  <c:v>-9.9999997473787516E-5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.2000000002444722E-2</c:v>
+                  <c:v>-1.2000000002444722E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.1999999991967343E-3</c:v>
+                  <c:v>-3.1999999991967343E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.9599999999627471E-2</c:v>
+                  <c:v>1.9599999999627471E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-6.6999999980907887E-3</c:v>
+                  <c:v>6.6999999980907887E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-2.1999999953550287E-3</c:v>
+                  <c:v>2.1999999953550287E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.1899999997694977E-2</c:v>
+                  <c:v>-1.1899999997694977E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.0999999948544428E-3</c:v>
+                  <c:v>-5.0999999948544428E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.4999999950523488E-3</c:v>
+                  <c:v>-2.4999999950523488E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1.8999999956577085E-3</c:v>
+                  <c:v>1.8999999956577085E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-4.999999946448952E-4</c:v>
+                  <c:v>4.999999946448952E-4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-1.1999999987892807E-3</c:v>
+                  <c:v>1.1999999987892807E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>-5.0000000192085281E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.3100000003760215E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-3.5199999998440035E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.2000000030384399E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.4999999950523488E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.0999999978812411E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.2000000000116415E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.0000000016298145E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.9999999969732016E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-4.0999999982886948E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.6100000000733417E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-4.2999999932362698E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.7999999994062819E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.3700000003154855E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.8000000020256266E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.2700000006589107E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.9000000000232831E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.9999999656574801E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>5.0000000192085281E-4</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>-1.3100000003760215E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.5199999998440035E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-4.2000000030384399E-3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.4999999950523488E-3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-2.0999999978812411E-3</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-7.2000000000116415E-3</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-8.0000000016298145E-3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-2.9999999969732016E-4</c:v>
-                </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="67">
+                  <c:v>1.1999999987892807E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-2.4000000048545189E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-8.900000000721775E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.3999999975785613E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.2000000000116415E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-2.9999999969732016E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-5.5999999967752956E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-1.3000000035390258E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.1999999987892807E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-4.7000000049592927E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.0000000012223609E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.7000000045518391E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.799999998183921E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-5.7999999989988282E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.7000000011175871E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.599999999802094E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6400000000430737E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.4000000018277206E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.3999999983934686E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-7.0999999952618964E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-8.900000000721775E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.4899999996705446E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.6400000000430737E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.9999999969732016E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.3999999988009222E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.4999999997089617E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-3.6000000036437996E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-8.8000000032479875E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-6.3999999983934686E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>4.0999999982886948E-3</c:v>
                 </c:pt>
-                <c:pt idx="58">
-                  <c:v>-1.6100000000733417E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4.2999999932362698E-3</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-7.7999999994062819E-3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-1.3700000003154855E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-2.8000000020256266E-3</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.2700000006589107E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-1.9000000000232831E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-9.9999999656574801E-4</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-5.0000000192085281E-4</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-1.1999999987892807E-3</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.4000000048545189E-3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>8.900000000721775E-3</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-2.3999999975785613E-3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-7.2000000000116415E-3</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.9999999969732016E-3</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>5.5999999967752956E-3</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.3000000035390258E-3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-1.1999999987892807E-3</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>4.7000000049592927E-3</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-6.0000000012223609E-3</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-2.7000000045518391E-3</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.799999998183921E-3</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>5.7999999989988282E-3</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-3.7000000011175871E-3</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-2.599999999802094E-3</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-1.6400000000430737E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-5.4000000018277206E-3</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-6.3999999983934686E-3</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>7.0999999952618964E-3</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8.900000000721775E-3</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-2.4899999996705446E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-1.6400000000430737E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.9999999969732016E-3</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-8.3999999988009222E-3</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-7.4999999997089617E-3</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>3.6000000036437996E-3</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>8.8000000032479875E-3</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>6.3999999983934686E-3</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-4.0999999982886948E-3</c:v>
-                </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.4999999984866008E-3</c:v>
+                  <c:v>-1.4999999984866008E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-8.3000000013271347E-3</c:v>
+                  <c:v>8.3000000013271347E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.7999999951571226E-3</c:v>
+                  <c:v>-4.7999999951571226E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.7000000007101335E-3</c:v>
+                  <c:v>-1.7000000007101335E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-3.0999999944469891E-3</c:v>
+                  <c:v>3.0999999944469891E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5.9999999939464033E-4</c:v>
+                  <c:v>-5.9999999939464033E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6766,10 +6756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC33F2B-0907-8247-BC13-0B3BE1C82C97}">
-  <dimension ref="A1:S152"/>
+  <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="254" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="254" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6780,17 +6770,17 @@
     <col min="6" max="7" width="9.6640625" style="7" customWidth="1"/>
     <col min="8" max="9" width="9.6640625" style="11" customWidth="1"/>
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="22" customWidth="1"/>
-    <col min="12" max="12" width="9" style="27" customWidth="1"/>
+    <col min="11" max="11" width="9" style="21" customWidth="1"/>
+    <col min="12" max="12" width="9" style="26" customWidth="1"/>
     <col min="13" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="9" style="22" customWidth="1"/>
-    <col min="16" max="16" width="9" style="27" customWidth="1"/>
+    <col min="15" max="15" width="9" style="21" customWidth="1"/>
+    <col min="16" max="16" width="9" style="26" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="13" customFormat="1" ht="191" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="13" customFormat="1" ht="133" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>113</v>
@@ -6811,31 +6801,31 @@
         <v>359</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>578</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="L1" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>575</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>574</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>596</v>
+      <c r="O1" s="19" t="s">
+        <v>598</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>599</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -6873,33 +6863,32 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" s="21">
-        <f>H2-F2</f>
-        <v>3.3300000002782326E-2</v>
-      </c>
-      <c r="L2" s="25">
-        <f>NORMDIST(K2,K$106,K$110,FALSE)</f>
-        <v>2.539299040954329</v>
+      <c r="K2" s="20">
+        <f>F2-H2</f>
+        <v>-3.3300000002782326E-2</v>
+      </c>
+      <c r="L2" s="24">
+        <v>0</v>
       </c>
       <c r="M2" s="2">
-        <f>I2-F2</f>
-        <v>0.19170000000303844</v>
+        <f>F2-I2</f>
+        <v>-0.19170000000303844</v>
       </c>
       <c r="N2" s="2">
-        <f>H2-G2</f>
-        <v>-0.18289999999979045</v>
-      </c>
-      <c r="O2" s="21">
-        <f>I2-G2</f>
-        <v>-2.4499999999534339E-2</v>
-      </c>
-      <c r="P2" s="25">
-        <f>NORMDIST(O2,O$106,O$110,FALSE)</f>
-        <v>3.8173136199295854</v>
+        <f>G2-H2</f>
+        <v>0.18289999999979045</v>
+      </c>
+      <c r="O2" s="20">
+        <f>G2-I2</f>
+        <v>2.4499999999534339E-2</v>
+      </c>
+      <c r="P2" s="24">
+        <f>NORMDIST(O2,O$64,O$68,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <f>I2-H2</f>
-        <v>0.15840000000025611</v>
+        <f>H2-I2</f>
+        <v>-0.15840000000025611</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -6937,27 +6926,27 @@
       <c r="J3">
         <v>2</v>
       </c>
-      <c r="K3" s="21">
-        <f t="shared" ref="K3:K65" si="4">H3-F3</f>
-        <v>-6.300000000919681E-3</v>
-      </c>
-      <c r="L3" s="25">
+      <c r="K3" s="20">
+        <f t="shared" ref="K3:K66" si="4">F3-H3</f>
+        <v>6.300000000919681E-3</v>
+      </c>
+      <c r="L3" s="24">
         <f t="shared" ref="L3:L66" si="5">NORMDIST(K3,K$106,K$110,FALSE)</f>
         <v>2.7922027099122415</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3:M65" si="6">I3-F3</f>
-        <v>0.13769999999931315</v>
+        <f t="shared" ref="M3:M66" si="6">F3-I3</f>
+        <v>-0.13769999999931315</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" ref="N3:N65" si="7">H3-G3</f>
-        <v>-0.14919999999983702</v>
-      </c>
-      <c r="O3" s="21">
-        <f t="shared" ref="O3:O65" si="8">I3-G3</f>
-        <v>-5.1999999996041879E-3</v>
-      </c>
-      <c r="P3" s="25">
+        <f t="shared" ref="N3:N66" si="7">G3-H3</f>
+        <v>0.14919999999983702</v>
+      </c>
+      <c r="O3" s="20">
+        <f t="shared" ref="O3:O66" si="8">G3-I3</f>
+        <v>5.1999999996041879E-3</v>
+      </c>
+      <c r="P3" s="24">
         <f t="shared" ref="P3:P66" si="9">NORMDIST(O3,O$106,O$110,FALSE)</f>
         <v>39.795958074049814</v>
       </c>
@@ -7001,27 +6990,27 @@
       <c r="J4">
         <v>3</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="20">
         <f t="shared" si="4"/>
-        <v>2.5200000003678724E-2</v>
-      </c>
-      <c r="L4" s="25">
+        <v>-2.5200000003678724E-2</v>
+      </c>
+      <c r="L4" s="24">
         <f t="shared" si="5"/>
         <v>2.6059557049708442</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="6"/>
-        <v>0.17920000000594882</v>
+        <v>-0.17920000000594882</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="7"/>
-        <v>-0.16530000000057044</v>
-      </c>
-      <c r="O4" s="21">
+        <v>0.16530000000057044</v>
+      </c>
+      <c r="O4" s="20">
         <f t="shared" si="8"/>
-        <v>-1.1299999998300336E-2</v>
-      </c>
-      <c r="P4" s="25">
+        <v>1.1299999998300336E-2</v>
+      </c>
+      <c r="P4" s="24">
         <f t="shared" si="9"/>
         <v>28.822756668297632</v>
       </c>
@@ -7065,27 +7054,27 @@
       <c r="J5">
         <v>4</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="20">
         <f t="shared" si="4"/>
-        <v>1.6199999998207204E-2</v>
-      </c>
-      <c r="L5" s="25">
+        <v>-1.6199999998207204E-2</v>
+      </c>
+      <c r="L5" s="24">
         <f t="shared" si="5"/>
         <v>2.6715919793415077</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="6"/>
-        <v>0.17619999999442371</v>
+        <v>-0.17619999999442371</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="7"/>
-        <v>-0.16939999999885913</v>
-      </c>
-      <c r="O5" s="21">
+        <v>0.16939999999885913</v>
+      </c>
+      <c r="O5" s="20">
         <f t="shared" si="8"/>
-        <v>-9.4000000026426278E-3</v>
-      </c>
-      <c r="P5" s="25">
+        <v>9.4000000026426278E-3</v>
+      </c>
+      <c r="P5" s="24">
         <f t="shared" si="9"/>
         <v>33.21843690489986</v>
       </c>
@@ -7129,27 +7118,27 @@
       <c r="J6">
         <v>5</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="20">
         <f t="shared" si="4"/>
-        <v>-0.30380000000150176</v>
-      </c>
-      <c r="L6" s="25">
+        <v>0.30380000000150176</v>
+      </c>
+      <c r="L6" s="24">
         <f t="shared" si="5"/>
         <v>0.44427040383746169</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="6"/>
-        <v>-0.10480000000097789</v>
+        <v>0.10480000000097789</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="7"/>
-        <v>-0.19280000000435393</v>
-      </c>
-      <c r="O6" s="21">
+        <v>0.19280000000435393</v>
+      </c>
+      <c r="O6" s="20">
         <f t="shared" si="8"/>
-        <v>6.1999999961699359E-3</v>
-      </c>
-      <c r="P6" s="25">
+        <v>-6.1999999961699359E-3</v>
+      </c>
+      <c r="P6" s="24">
         <f t="shared" si="9"/>
         <v>25.79581072141178</v>
       </c>
@@ -7193,27 +7182,27 @@
       <c r="J7">
         <v>6</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="20">
         <f t="shared" si="4"/>
-        <v>7.0200000001932494E-2</v>
-      </c>
-      <c r="L7" s="25">
+        <v>-7.0200000001932494E-2</v>
+      </c>
+      <c r="L7" s="24">
         <f t="shared" si="5"/>
         <v>2.1632294341653564</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="6"/>
-        <v>0.21220000000175787</v>
+        <v>-0.21220000000175787</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="7"/>
-        <v>-0.14770000000135042</v>
-      </c>
-      <c r="O7" s="21">
+        <v>0.14770000000135042</v>
+      </c>
+      <c r="O7" s="20">
         <f t="shared" si="8"/>
-        <v>-5.7000000015250407E-3</v>
-      </c>
-      <c r="P7" s="25">
+        <v>5.7000000015250407E-3</v>
+      </c>
+      <c r="P7" s="24">
         <f t="shared" si="9"/>
         <v>39.325348818653694</v>
       </c>
@@ -7257,27 +7246,27 @@
       <c r="J8">
         <v>7</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="20">
         <f t="shared" si="4"/>
-        <v>-0.3003000000026077</v>
-      </c>
-      <c r="L8" s="25">
+        <v>0.3003000000026077</v>
+      </c>
+      <c r="L8" s="24">
         <f t="shared" si="5"/>
         <v>0.4660242406466672</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="6"/>
-        <v>-0.10130000000208383</v>
+        <v>0.10130000000208383</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="7"/>
-        <v>-0.20930000000225846</v>
-      </c>
-      <c r="O8" s="21">
+        <v>0.20930000000225846</v>
+      </c>
+      <c r="O8" s="20">
         <f t="shared" si="8"/>
-        <v>-1.0300000001734588E-2</v>
-      </c>
-      <c r="P8" s="25">
+        <v>1.0300000001734588E-2</v>
+      </c>
+      <c r="P8" s="24">
         <f t="shared" si="9"/>
         <v>31.20399385471886</v>
       </c>
@@ -7321,27 +7310,27 @@
       <c r="J9">
         <v>8</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="20">
         <f t="shared" si="4"/>
-        <v>-9.7999999998137355E-3</v>
-      </c>
-      <c r="L9" s="25">
+        <v>9.7999999998137355E-3</v>
+      </c>
+      <c r="L9" s="24">
         <f t="shared" si="5"/>
         <v>2.8049462923164361</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="6"/>
-        <v>0.16120000000228174</v>
+        <v>-0.16120000000228174</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="7"/>
-        <v>-0.17010000000300352</v>
-      </c>
-      <c r="O9" s="21">
+        <v>0.17010000000300352</v>
+      </c>
+      <c r="O9" s="20">
         <f t="shared" si="8"/>
-        <v>8.9999999909196049E-4</v>
-      </c>
-      <c r="P9" s="25">
+        <v>-8.9999999909196049E-4</v>
+      </c>
+      <c r="P9" s="24">
         <f t="shared" si="9"/>
         <v>37.327772207212234</v>
       </c>
@@ -7385,27 +7374,27 @@
       <c r="J10">
         <v>9</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="20">
         <f t="shared" si="4"/>
-        <v>-0.13430000000516884</v>
-      </c>
-      <c r="L10" s="25">
+        <v>0.13430000000516884</v>
+      </c>
+      <c r="L10" s="24">
         <f t="shared" si="5"/>
         <v>2.1988459842394183</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="6"/>
-        <v>5.6700000001001172E-2</v>
+        <v>-5.6700000001001172E-2</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="7"/>
-        <v>-0.19860000000335276</v>
-      </c>
-      <c r="O10" s="21">
+        <v>0.19860000000335276</v>
+      </c>
+      <c r="O10" s="20">
         <f t="shared" si="8"/>
-        <v>-7.5999999971827492E-3</v>
-      </c>
-      <c r="P10" s="25">
+        <v>7.5999999971827492E-3</v>
+      </c>
+      <c r="P10" s="24">
         <f t="shared" si="9"/>
         <v>36.707247670270021</v>
       </c>
@@ -7449,27 +7438,27 @@
       <c r="J11">
         <v>10</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="20">
         <f t="shared" si="4"/>
-        <v>7.1199999998498242E-2</v>
-      </c>
-      <c r="L11" s="25">
+        <v>-7.1199999998498242E-2</v>
+      </c>
+      <c r="L11" s="24">
         <f t="shared" si="5"/>
         <v>2.1517774126148224</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="6"/>
-        <v>0.23920000000362052</v>
+        <v>-0.23920000000362052</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="7"/>
-        <v>-0.17740000000048894</v>
-      </c>
-      <c r="O11" s="21">
+        <v>0.17740000000048894</v>
+      </c>
+      <c r="O11" s="20">
         <f t="shared" si="8"/>
-        <v>-9.3999999953666702E-3</v>
-      </c>
-      <c r="P11" s="25">
+        <v>9.3999999953666702E-3</v>
+      </c>
+      <c r="P11" s="24">
         <f t="shared" si="9"/>
         <v>33.218436920570042</v>
       </c>
@@ -7513,27 +7502,27 @@
       <c r="J12">
         <v>11</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="20">
         <f t="shared" si="4"/>
-        <v>-2.9300000001967419E-2</v>
-      </c>
-      <c r="L12" s="25">
+        <v>2.9300000001967419E-2</v>
+      </c>
+      <c r="L12" s="24">
         <f t="shared" si="5"/>
         <v>2.8443771890409613</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="6"/>
-        <v>0.18570000000181608</v>
+        <v>-0.18570000000181608</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="7"/>
-        <v>-0.21060000000579748</v>
-      </c>
-      <c r="O12" s="21">
+        <v>0.21060000000579748</v>
+      </c>
+      <c r="O12" s="20">
         <f t="shared" si="8"/>
-        <v>4.3999999979860149E-3</v>
-      </c>
-      <c r="P12" s="25">
+        <v>-4.3999999979860149E-3</v>
+      </c>
+      <c r="P12" s="24">
         <f t="shared" si="9"/>
         <v>30.21810304902484</v>
       </c>
@@ -7577,27 +7566,27 @@
       <c r="J13">
         <v>12</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="20">
         <f t="shared" si="4"/>
-        <v>-3.2799999993585516E-2</v>
-      </c>
-      <c r="L13" s="25">
+        <v>3.2799999993585516E-2</v>
+      </c>
+      <c r="L13" s="24">
         <f t="shared" si="5"/>
         <v>2.8456790236168015</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="6"/>
-        <v>0.11620000000402797</v>
+        <v>-0.11620000000402797</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="7"/>
-        <v>-0.14959999999700813</v>
-      </c>
-      <c r="O13" s="21">
+        <v>0.14959999999700813</v>
+      </c>
+      <c r="O13" s="20">
         <f t="shared" si="8"/>
-        <v>-5.9999999939464033E-4</v>
-      </c>
-      <c r="P13" s="25">
+        <v>5.9999999939464033E-4</v>
+      </c>
+      <c r="P13" s="24">
         <f t="shared" si="9"/>
         <v>39.304110947265983</v>
       </c>
@@ -7641,27 +7630,27 @@
       <c r="J14">
         <v>13</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="20">
         <f t="shared" si="4"/>
-        <v>0.12269999999989523</v>
-      </c>
-      <c r="L14" s="25">
+        <v>-0.12269999999989523</v>
+      </c>
+      <c r="L14" s="24">
         <f t="shared" si="5"/>
         <v>1.5282835490646594</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="6"/>
-        <v>0.31569999999919673</v>
+        <v>-0.31569999999919673</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="7"/>
-        <v>-0.20820000000094296</v>
-      </c>
-      <c r="O14" s="21">
+        <v>0.20820000000094296</v>
+      </c>
+      <c r="O14" s="20">
         <f t="shared" si="8"/>
-        <v>-1.5200000001641456E-2</v>
-      </c>
-      <c r="P14" s="25">
+        <v>1.5200000001641456E-2</v>
+      </c>
+      <c r="P14" s="24">
         <f t="shared" si="9"/>
         <v>19.149935450986529</v>
       </c>
@@ -7705,27 +7694,27 @@
       <c r="J15">
         <v>14</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="20">
         <f t="shared" si="4"/>
-        <v>3.1999999991967343E-3</v>
-      </c>
-      <c r="L15" s="25">
+        <v>-3.1999999991967343E-3</v>
+      </c>
+      <c r="L15" s="24">
         <f t="shared" si="5"/>
         <v>2.749252396792214</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="6"/>
-        <v>0.13620000000082655</v>
+        <v>-0.13620000000082655</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="7"/>
-        <v>-0.12640000000101281</v>
-      </c>
-      <c r="O15" s="21">
+        <v>0.12640000000101281</v>
+      </c>
+      <c r="O15" s="20">
         <f t="shared" si="8"/>
-        <v>6.6000000006170012E-3</v>
-      </c>
-      <c r="P15" s="25">
+        <v>-6.6000000006170012E-3</v>
+      </c>
+      <c r="P15" s="24">
         <f t="shared" si="9"/>
         <v>24.79094081532515</v>
       </c>
@@ -7769,27 +7758,27 @@
       <c r="J16">
         <v>15</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="20">
         <f t="shared" si="4"/>
-        <v>5.2000000068801455E-3</v>
-      </c>
-      <c r="L16" s="25">
+        <v>-5.2000000068801455E-3</v>
+      </c>
+      <c r="L16" s="24">
         <f t="shared" si="5"/>
         <v>2.7386917500734733</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="6"/>
-        <v>0.20620000000053551</v>
+        <v>-0.20620000000053551</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="7"/>
-        <v>-0.19979999999486608</v>
-      </c>
-      <c r="O16" s="21">
+        <v>0.19979999999486608</v>
+      </c>
+      <c r="O16" s="20">
         <f t="shared" si="8"/>
-        <v>1.1999999987892807E-3</v>
-      </c>
-      <c r="P16" s="25">
+        <v>-1.1999999987892807E-3</v>
+      </c>
+      <c r="P16" s="24">
         <f t="shared" si="9"/>
         <v>36.841093600145385</v>
       </c>
@@ -7833,27 +7822,27 @@
       <c r="J17">
         <v>16</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="20">
         <f t="shared" si="4"/>
-        <v>-1.3000000035390258E-3</v>
-      </c>
-      <c r="L17" s="25">
+        <v>1.3000000035390258E-3</v>
+      </c>
+      <c r="L17" s="24">
         <f t="shared" si="5"/>
         <v>2.7711000932252072</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="6"/>
-        <v>0.16270000000076834</v>
+        <v>-0.16270000000076834</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="7"/>
-        <v>-0.16730000000097789</v>
-      </c>
-      <c r="O17" s="21">
+        <v>0.16730000000097789</v>
+      </c>
+      <c r="O17" s="20">
         <f t="shared" si="8"/>
-        <v>-3.2999999966705218E-3</v>
-      </c>
-      <c r="P17" s="25">
+        <v>3.2999999966705218E-3</v>
+      </c>
+      <c r="P17" s="24">
         <f t="shared" si="9"/>
         <v>40.661434815496236</v>
       </c>
@@ -7897,27 +7886,27 @@
       <c r="J18">
         <v>17</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="20">
         <f t="shared" si="4"/>
-        <v>7.2000000000116415E-3</v>
-      </c>
-      <c r="L18" s="25">
+        <v>-7.2000000000116415E-3</v>
+      </c>
+      <c r="L18" s="24">
         <f t="shared" si="5"/>
         <v>2.727616463992657</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="6"/>
-        <v>0.1992000000027474</v>
+        <v>-0.1992000000027474</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="7"/>
-        <v>-0.21580000000540167</v>
-      </c>
-      <c r="O18" s="21">
+        <v>0.21580000000540167</v>
+      </c>
+      <c r="O18" s="20">
         <f t="shared" si="8"/>
-        <v>-2.3800000002665911E-2</v>
-      </c>
-      <c r="P18" s="25">
+        <v>2.3800000002665911E-2</v>
+      </c>
+      <c r="P18" s="24">
         <f t="shared" si="9"/>
         <v>4.4469216401705856</v>
       </c>
@@ -7961,27 +7950,27 @@
       <c r="J19">
         <v>18</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="20">
         <f t="shared" si="4"/>
-        <v>-1.1299999998300336E-2</v>
-      </c>
-      <c r="L19" s="25">
+        <v>1.1299999998300336E-2</v>
+      </c>
+      <c r="L19" s="24">
         <f t="shared" si="5"/>
         <v>2.8098894147022242</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="6"/>
-        <v>0.1356999999989057</v>
+        <v>-0.1356999999989057</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="7"/>
-        <v>-0.14389999999548309</v>
-      </c>
-      <c r="O19" s="21">
+        <v>0.14389999999548309</v>
+      </c>
+      <c r="O19" s="20">
         <f t="shared" si="8"/>
-        <v>3.1000000017229468E-3</v>
-      </c>
-      <c r="P19" s="25">
+        <v>-3.1000000017229468E-3</v>
+      </c>
+      <c r="P19" s="24">
         <f t="shared" si="9"/>
         <v>33.174484033295975</v>
       </c>
@@ -8025,27 +8014,27 @@
       <c r="J20">
         <v>19</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="20">
         <f t="shared" si="4"/>
-        <v>-7.9799999999522697E-2</v>
-      </c>
-      <c r="L20" s="25">
+        <v>7.9799999999522697E-2</v>
+      </c>
+      <c r="L20" s="24">
         <f t="shared" si="5"/>
         <v>2.6954410543709417</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="6"/>
-        <v>0.13220000000001164</v>
+        <v>-0.13220000000001164</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="7"/>
-        <v>-0.21180000000458676</v>
-      </c>
-      <c r="O20" s="21">
+        <v>0.21180000000458676</v>
+      </c>
+      <c r="O20" s="20">
         <f t="shared" si="8"/>
-        <v>1.9999999494757503E-4</v>
-      </c>
-      <c r="P20" s="25">
+        <v>-1.9999999494757503E-4</v>
+      </c>
+      <c r="P20" s="24">
         <f t="shared" si="9"/>
         <v>38.348789723415926</v>
       </c>
@@ -8089,27 +8078,27 @@
       <c r="J21">
         <v>20</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="20">
         <f t="shared" si="4"/>
-        <v>-1.3799999993352685E-2</v>
-      </c>
-      <c r="L21" s="25">
+        <v>1.3799999993352685E-2</v>
+      </c>
+      <c r="L21" s="24">
         <f t="shared" si="5"/>
         <v>2.8174304402610311</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="6"/>
-        <v>0.13120000000344589</v>
+        <v>-0.13120000000344589</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="7"/>
-        <v>-0.14819999999599531</v>
-      </c>
-      <c r="O21" s="21">
+        <v>0.14819999999599531</v>
+      </c>
+      <c r="O21" s="20">
         <f t="shared" si="8"/>
-        <v>-3.1999999991967343E-3</v>
-      </c>
-      <c r="P21" s="25">
+        <v>3.1999999991967343E-3</v>
+      </c>
+      <c r="P21" s="24">
         <f t="shared" si="9"/>
         <v>40.665229196314101</v>
       </c>
@@ -8153,27 +8142,27 @@
       <c r="J22">
         <v>21</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="20">
         <f t="shared" si="4"/>
-        <v>4.9199999994016252E-2</v>
-      </c>
-      <c r="L22" s="25">
+        <v>-4.9199999994016252E-2</v>
+      </c>
+      <c r="L22" s="24">
         <f t="shared" si="5"/>
         <v>2.3900555430307509</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="6"/>
-        <v>0.27219999999942956</v>
+        <v>-0.27219999999942956</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="7"/>
-        <v>-0.23800000000483124</v>
-      </c>
-      <c r="O22" s="21">
+        <v>0.23800000000483124</v>
+      </c>
+      <c r="O22" s="20">
         <f t="shared" si="8"/>
-        <v>-1.4999999999417923E-2</v>
-      </c>
-      <c r="P22" s="25">
+        <v>1.4999999999417923E-2</v>
+      </c>
+      <c r="P22" s="24">
         <f t="shared" si="9"/>
         <v>19.631026227631725</v>
       </c>
@@ -8217,27 +8206,27 @@
       <c r="J23">
         <v>22</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="20">
         <f t="shared" si="4"/>
-        <v>3.7700000000768341E-2</v>
-      </c>
-      <c r="L23" s="25">
+        <v>-3.7700000000768341E-2</v>
+      </c>
+      <c r="L23" s="24">
         <f t="shared" si="5"/>
         <v>2.500306890013599</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="6"/>
-        <v>0.18969999999535503</v>
+        <v>-0.18969999999535503</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="7"/>
-        <v>-0.14779999999882421</v>
-      </c>
-      <c r="O23" s="21">
+        <v>0.14779999999882421</v>
+      </c>
+      <c r="O23" s="20">
         <f t="shared" si="8"/>
-        <v>4.1999999957624823E-3</v>
-      </c>
-      <c r="P23" s="25">
+        <v>-4.1999999957624823E-3</v>
+      </c>
+      <c r="P23" s="24">
         <f t="shared" si="9"/>
         <v>30.690222140868425</v>
       </c>
@@ -8281,27 +8270,27 @@
       <c r="J24">
         <v>23</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="20">
         <f t="shared" si="4"/>
-        <v>0.11319999999977881</v>
-      </c>
-      <c r="L24" s="25">
+        <v>-0.11319999999977881</v>
+      </c>
+      <c r="L24" s="24">
         <f t="shared" si="5"/>
         <v>1.6444584387206793</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="6"/>
-        <v>0.30220000000554137</v>
+        <v>-0.30220000000554137</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="7"/>
-        <v>-0.18640000000596046</v>
-      </c>
-      <c r="O24" s="21">
+        <v>0.18640000000596046</v>
+      </c>
+      <c r="O24" s="20">
         <f t="shared" si="8"/>
-        <v>2.599999999802094E-3</v>
-      </c>
-      <c r="P24" s="25">
+        <v>-2.599999999802094E-3</v>
+      </c>
+      <c r="P24" s="24">
         <f t="shared" si="9"/>
         <v>34.226673754438522</v>
       </c>
@@ -8345,27 +8334,27 @@
       <c r="J25">
         <v>24</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="20">
         <f t="shared" si="4"/>
-        <v>-5.7300000000395812E-2</v>
-      </c>
-      <c r="L25" s="25">
+        <v>5.7300000000395812E-2</v>
+      </c>
+      <c r="L25" s="24">
         <f t="shared" si="5"/>
         <v>2.8054169335127046</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="6"/>
-        <v>9.6700000001874287E-2</v>
+        <v>-9.6700000001874287E-2</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="7"/>
-        <v>-0.15770000000338769</v>
-      </c>
-      <c r="O25" s="21">
+        <v>0.15770000000338769</v>
+      </c>
+      <c r="O25" s="20">
         <f t="shared" si="8"/>
-        <v>-3.7000000011175871E-3</v>
-      </c>
-      <c r="P25" s="25">
+        <v>3.7000000011175871E-3</v>
+      </c>
+      <c r="P25" s="24">
         <f t="shared" si="9"/>
         <v>40.604049557043666</v>
       </c>
@@ -8409,27 +8398,27 @@
       <c r="J26">
         <v>25</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="20">
         <f t="shared" si="4"/>
-        <v>0.14370000000053551</v>
-      </c>
-      <c r="L26" s="25">
+        <v>-0.14370000000053551</v>
+      </c>
+      <c r="L26" s="24">
         <f t="shared" si="5"/>
         <v>1.2787640904202884</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="6"/>
-        <v>0.2937000000019907</v>
+        <v>-0.2937000000019907</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="7"/>
-        <v>-0.18209999999817228</v>
-      </c>
-      <c r="O26" s="21">
+        <v>0.18209999999817228</v>
+      </c>
+      <c r="O26" s="20">
         <f t="shared" si="8"/>
-        <v>-3.2099999996717088E-2</v>
-      </c>
-      <c r="P26" s="25">
+        <v>3.2099999996717088E-2</v>
+      </c>
+      <c r="P26" s="24">
         <f t="shared" si="9"/>
         <v>0.52430872219184643</v>
       </c>
@@ -8473,27 +8462,27 @@
       <c r="J27">
         <v>26</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="20">
         <f t="shared" si="4"/>
-        <v>-6.0299999997369014E-2</v>
-      </c>
-      <c r="L27" s="25">
+        <v>6.0299999997369014E-2</v>
+      </c>
+      <c r="L27" s="24">
         <f t="shared" si="5"/>
         <v>2.7946543488003432</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="6"/>
-        <v>0.15670000000682194</v>
+        <v>-0.15670000000682194</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="7"/>
-        <v>-0.22550000000046566</v>
-      </c>
-      <c r="O27" s="21">
+        <v>0.22550000000046566</v>
+      </c>
+      <c r="O27" s="20">
         <f t="shared" si="8"/>
-        <v>-8.4999999962747097E-3</v>
-      </c>
-      <c r="P27" s="25">
+        <v>8.4999999962747097E-3</v>
+      </c>
+      <c r="P27" s="24">
         <f t="shared" si="9"/>
         <v>35.066552602990981</v>
       </c>
@@ -8537,27 +8526,27 @@
       <c r="J28">
         <v>27</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="20">
         <f t="shared" si="4"/>
-        <v>-6.2999999936437234E-3</v>
-      </c>
-      <c r="L28" s="25">
+        <v>6.2999999936437234E-3</v>
+      </c>
+      <c r="L28" s="24">
         <f t="shared" si="5"/>
         <v>2.7922027098840005</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="6"/>
-        <v>0.12770000000455184</v>
+        <v>-0.12770000000455184</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="7"/>
-        <v>-0.13549999999668216</v>
-      </c>
-      <c r="O28" s="21">
+        <v>0.13549999999668216</v>
+      </c>
+      <c r="O28" s="20">
         <f t="shared" si="8"/>
-        <v>-1.4999999984866008E-3</v>
-      </c>
-      <c r="P28" s="25">
+        <v>1.4999999984866008E-3</v>
+      </c>
+      <c r="P28" s="24">
         <f t="shared" si="9"/>
         <v>40.08741150968843</v>
       </c>
@@ -8601,27 +8590,27 @@
       <c r="J29">
         <v>28</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="20">
         <f t="shared" si="4"/>
-        <v>0.16320000000268919</v>
-      </c>
-      <c r="L29" s="25">
+        <v>-0.16320000000268919</v>
+      </c>
+      <c r="L29" s="24">
         <f t="shared" si="5"/>
         <v>1.0621370470116391</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="6"/>
-        <v>0.3842000000004191</v>
+        <v>-0.3842000000004191</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="7"/>
-        <v>-0.20420000000012806</v>
-      </c>
-      <c r="O29" s="21">
+        <v>0.20420000000012806</v>
+      </c>
+      <c r="O29" s="20">
         <f t="shared" si="8"/>
-        <v>1.6799999997601844E-2</v>
-      </c>
-      <c r="P29" s="25">
+        <v>-1.6799999997601844E-2</v>
+      </c>
+      <c r="P29" s="24">
         <f t="shared" si="9"/>
         <v>5.1323295360316035</v>
       </c>
@@ -8665,27 +8654,27 @@
       <c r="J30">
         <v>29</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="20">
         <f t="shared" si="4"/>
-        <v>-0.39979999999923166</v>
-      </c>
-      <c r="L30" s="25">
+        <v>0.39979999999923166</v>
+      </c>
+      <c r="L30" s="24">
         <f t="shared" si="5"/>
         <v>9.3898759565732709E-2</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="6"/>
-        <v>-0.2058000000033644</v>
+        <v>0.2058000000033644</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="7"/>
-        <v>-0.20449999999982538</v>
-      </c>
-      <c r="O30" s="21">
+        <v>0.20449999999982538</v>
+      </c>
+      <c r="O30" s="20">
         <f t="shared" si="8"/>
-        <v>-1.0500000003958121E-2</v>
-      </c>
-      <c r="P30" s="25">
+        <v>1.0500000003958121E-2</v>
+      </c>
+      <c r="P30" s="24">
         <f t="shared" si="9"/>
         <v>30.738045589364813</v>
       </c>
@@ -8729,27 +8718,27 @@
       <c r="J31">
         <v>30</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="20">
         <f t="shared" si="4"/>
-        <v>-2.2799999998824205E-2</v>
-      </c>
-      <c r="L31" s="25">
+        <v>2.2799999998824205E-2</v>
+      </c>
+      <c r="L31" s="24">
         <f t="shared" si="5"/>
         <v>2.8372652827544256</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="6"/>
-        <v>0.12819999999919673</v>
+        <v>-0.12819999999919673</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="7"/>
-        <v>-0.15099999999802094</v>
-      </c>
-      <c r="O31" s="21">
+        <v>0.15099999999802094</v>
+      </c>
+      <c r="O31" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P31" s="25">
+      <c r="P31" s="24">
         <f t="shared" si="9"/>
         <v>38.609483447471803</v>
       </c>
@@ -8793,27 +8782,27 @@
       <c r="J32">
         <v>31</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32" s="20">
         <f t="shared" si="4"/>
-        <v>4.3200000000069849E-2</v>
-      </c>
-      <c r="L32" s="25">
+        <v>-4.3200000000069849E-2</v>
+      </c>
+      <c r="L32" s="24">
         <f t="shared" si="5"/>
         <v>2.4490127086594997</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="6"/>
-        <v>0.24020000000018626</v>
+        <v>-0.24020000000018626</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="7"/>
-        <v>-0.21160000000236323</v>
-      </c>
-      <c r="O32" s="21">
+        <v>0.21160000000236323</v>
+      </c>
+      <c r="O32" s="20">
         <f t="shared" si="8"/>
-        <v>-1.4600000002246816E-2</v>
-      </c>
-      <c r="P32" s="25">
+        <v>1.4600000002246816E-2</v>
+      </c>
+      <c r="P32" s="24">
         <f t="shared" si="9"/>
         <v>20.604063511856584</v>
       </c>
@@ -8857,27 +8846,27 @@
       <c r="J33">
         <v>32</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="20">
         <f t="shared" si="4"/>
-        <v>-3.7999999985913746E-3</v>
-      </c>
-      <c r="L33" s="25">
+        <v>3.7999999985913746E-3</v>
+      </c>
+      <c r="L33" s="24">
         <f t="shared" si="5"/>
         <v>2.7820737243109224</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="6"/>
-        <v>0.19019999999727588</v>
+        <v>-0.19019999999727588</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="7"/>
-        <v>-0.20579999999608845</v>
-      </c>
-      <c r="O33" s="21">
+        <v>0.20579999999608845</v>
+      </c>
+      <c r="O33" s="20">
         <f t="shared" si="8"/>
-        <v>-1.1800000000221189E-2</v>
-      </c>
-      <c r="P33" s="25">
+        <v>1.1800000000221189E-2</v>
+      </c>
+      <c r="P33" s="24">
         <f t="shared" si="9"/>
         <v>27.59344921779671</v>
       </c>
@@ -8921,27 +8910,27 @@
       <c r="J34">
         <v>33</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="20">
         <f t="shared" si="4"/>
-        <v>8.3699999995587859E-2</v>
-      </c>
-      <c r="L34" s="25">
+        <v>-8.3699999995587859E-2</v>
+      </c>
+      <c r="L34" s="24">
         <f t="shared" si="5"/>
         <v>2.0050137016231808</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="6"/>
-        <v>0.24070000000210712</v>
+        <v>-0.24070000000210712</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="7"/>
-        <v>-0.18540000000211876</v>
-      </c>
-      <c r="O34" s="21">
+        <v>0.18540000000211876</v>
+      </c>
+      <c r="O34" s="20">
         <f t="shared" si="8"/>
-        <v>-2.8399999995599501E-2</v>
-      </c>
-      <c r="P34" s="25">
+        <v>2.8399999995599501E-2</v>
+      </c>
+      <c r="P34" s="24">
         <f t="shared" si="9"/>
         <v>1.4855450963017798</v>
       </c>
@@ -8985,27 +8974,27 @@
       <c r="J35">
         <v>34</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="20">
         <f t="shared" si="4"/>
-        <v>-1.6800000004877802E-2</v>
-      </c>
-      <c r="L35" s="25">
+        <v>1.6800000004877802E-2</v>
+      </c>
+      <c r="L35" s="24">
         <f t="shared" si="5"/>
         <v>2.8253201317623597</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="6"/>
-        <v>0.10020000000076834</v>
+        <v>-0.10020000000076834</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="7"/>
-        <v>-0.13000000000465661</v>
-      </c>
-      <c r="O35" s="21">
+        <v>0.13000000000465661</v>
+      </c>
+      <c r="O35" s="20">
         <f t="shared" si="8"/>
-        <v>-1.299999999901047E-2</v>
-      </c>
-      <c r="P35" s="25">
+        <v>1.299999999901047E-2</v>
+      </c>
+      <c r="P35" s="24">
         <f t="shared" si="9"/>
         <v>24.590784156168397</v>
       </c>
@@ -9049,27 +9038,27 @@
       <c r="J36">
         <v>35</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="20">
         <f t="shared" si="4"/>
-        <v>5.1200000001699664E-2</v>
-      </c>
-      <c r="L36" s="25">
+        <v>-5.1200000001699664E-2</v>
+      </c>
+      <c r="L36" s="24">
         <f t="shared" si="5"/>
         <v>2.3697554398885359</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="6"/>
-        <v>0.24420000000100117</v>
+        <v>-0.24420000000100117</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="7"/>
-        <v>-0.2062999999980093</v>
-      </c>
-      <c r="O36" s="21">
+        <v>0.2062999999980093</v>
+      </c>
+      <c r="O36" s="20">
         <f t="shared" si="8"/>
-        <v>-1.329999999870779E-2</v>
-      </c>
-      <c r="P36" s="25">
+        <v>1.329999999870779E-2</v>
+      </c>
+      <c r="P36" s="24">
         <f t="shared" si="9"/>
         <v>23.836838863268092</v>
       </c>
@@ -9113,27 +9102,27 @@
       <c r="J37">
         <v>36</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="20">
         <f t="shared" si="4"/>
-        <v>-5.0800000004528556E-2</v>
-      </c>
-      <c r="L37" s="25">
+        <v>5.0800000004528556E-2</v>
+      </c>
+      <c r="L37" s="24">
         <f t="shared" si="5"/>
         <v>2.8244376189759524</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="6"/>
-        <v>8.3200000000942964E-2</v>
+        <v>-8.3200000000942964E-2</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="7"/>
-        <v>-0.14199999999982538</v>
-      </c>
-      <c r="O37" s="21">
+        <v>0.14199999999982538</v>
+      </c>
+      <c r="O37" s="20">
         <f t="shared" si="8"/>
-        <v>-7.9999999943538569E-3</v>
-      </c>
-      <c r="P37" s="25">
+        <v>7.9999999943538569E-3</v>
+      </c>
+      <c r="P37" s="24">
         <f t="shared" si="9"/>
         <v>36.006172829588763</v>
       </c>
@@ -9177,27 +9166,27 @@
       <c r="J38">
         <v>37</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K38" s="20">
         <f t="shared" si="4"/>
-        <v>-5.37999999942258E-2</v>
-      </c>
-      <c r="L38" s="25">
+        <v>5.37999999942258E-2</v>
+      </c>
+      <c r="L38" s="24">
         <f t="shared" si="5"/>
         <v>2.8163951178329785</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="6"/>
-        <v>0.16219999999884749</v>
+        <v>-0.16219999999884749</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="7"/>
-        <v>-0.2158999999955995</v>
-      </c>
-      <c r="O38" s="21">
+        <v>0.2158999999955995</v>
+      </c>
+      <c r="O38" s="20">
         <f t="shared" si="8"/>
-        <v>9.9999997473787516E-5</v>
-      </c>
-      <c r="P38" s="25">
+        <v>-9.9999997473787516E-5</v>
+      </c>
+      <c r="P38" s="24">
         <f t="shared" si="9"/>
         <v>38.480914925854641</v>
       </c>
@@ -9241,27 +9230,27 @@
       <c r="J39">
         <v>38</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="20">
         <f t="shared" si="4"/>
-        <v>8.1999999965773895E-3</v>
-      </c>
-      <c r="L39" s="25">
+        <v>-8.1999999965773895E-3</v>
+      </c>
+      <c r="L39" s="24">
         <f t="shared" si="5"/>
         <v>2.7218878762836902</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="6"/>
-        <v>0.21020000000135042</v>
+        <v>-0.21020000000135042</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="7"/>
-        <v>-0.19000000000232831</v>
-      </c>
-      <c r="O39" s="21">
+        <v>0.19000000000232831</v>
+      </c>
+      <c r="O39" s="20">
         <f t="shared" si="8"/>
-        <v>1.2000000002444722E-2</v>
-      </c>
-      <c r="P39" s="25">
+        <v>-1.2000000002444722E-2</v>
+      </c>
+      <c r="P39" s="24">
         <f t="shared" si="9"/>
         <v>12.321648990712252</v>
       </c>
@@ -9305,27 +9294,27 @@
       <c r="J40">
         <v>39</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K40" s="20">
         <f t="shared" si="4"/>
-        <v>-3.3800000004703179E-2</v>
-      </c>
-      <c r="L40" s="25">
+        <v>3.3800000004703179E-2</v>
+      </c>
+      <c r="L40" s="24">
         <f t="shared" si="5"/>
         <v>2.8457252739272221</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="6"/>
-        <v>0.105199999998149</v>
+        <v>-0.105199999998149</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="7"/>
-        <v>-0.13580000000365544</v>
-      </c>
-      <c r="O40" s="21">
+        <v>0.13580000000365544</v>
+      </c>
+      <c r="O40" s="20">
         <f t="shared" si="8"/>
-        <v>3.1999999991967343E-3</v>
-      </c>
-      <c r="P40" s="25">
+        <v>-3.1999999991967343E-3</v>
+      </c>
+      <c r="P40" s="24">
         <f t="shared" si="9"/>
         <v>32.957684973131933</v>
       </c>
@@ -9369,27 +9358,27 @@
       <c r="J41">
         <v>40</v>
       </c>
-      <c r="K41" s="21">
+      <c r="K41" s="20">
         <f t="shared" si="4"/>
-        <v>-0.31330000000161817</v>
-      </c>
-      <c r="L41" s="25">
+        <v>0.31330000000161817</v>
+      </c>
+      <c r="L41" s="24">
         <f t="shared" si="5"/>
         <v>0.38898352995943747</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="6"/>
-        <v>-0.12730000000010477</v>
+        <v>0.12730000000010477</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="7"/>
-        <v>-0.20560000000114087</v>
-      </c>
-      <c r="O41" s="21">
+        <v>0.20560000000114087</v>
+      </c>
+      <c r="O41" s="20">
         <f t="shared" si="8"/>
-        <v>-1.9599999999627471E-2</v>
-      </c>
-      <c r="P41" s="25">
+        <v>1.9599999999627471E-2</v>
+      </c>
+      <c r="P41" s="24">
         <f t="shared" si="9"/>
         <v>9.9870127184285398</v>
       </c>
@@ -9433,27 +9422,27 @@
       <c r="J42">
         <v>41</v>
       </c>
-      <c r="K42" s="21">
+      <c r="K42" s="20">
         <f t="shared" si="4"/>
-        <v>1.7699999996693805E-2</v>
-      </c>
-      <c r="L42" s="25">
+        <v>-1.7699999996693805E-2</v>
+      </c>
+      <c r="L42" s="24">
         <f t="shared" si="5"/>
         <v>2.6613004946378691</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="6"/>
-        <v>0.21069999999599531</v>
+        <v>-0.21069999999599531</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="7"/>
-        <v>-0.1996999999973923</v>
-      </c>
-      <c r="O42" s="21">
+        <v>0.1996999999973923</v>
+      </c>
+      <c r="O42" s="20">
         <f t="shared" si="8"/>
-        <v>-6.6999999980907887E-3</v>
-      </c>
-      <c r="P42" s="25">
+        <v>6.6999999980907887E-3</v>
+      </c>
+      <c r="P42" s="24">
         <f t="shared" si="9"/>
         <v>38.102672858017456</v>
       </c>
@@ -9497,27 +9486,27 @@
       <c r="J43">
         <v>42</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K43" s="20">
         <f t="shared" si="4"/>
-        <v>-2.3300000000745058E-2</v>
-      </c>
-      <c r="L43" s="25">
+        <v>2.3300000000745058E-2</v>
+      </c>
+      <c r="L43" s="24">
         <f t="shared" si="5"/>
         <v>2.8380283203296375</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="6"/>
-        <v>0.11470000000554137</v>
+        <v>-0.11470000000554137</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="7"/>
-        <v>-0.14020000000164146</v>
-      </c>
-      <c r="O43" s="21">
+        <v>0.14020000000164146</v>
+      </c>
+      <c r="O43" s="20">
         <f t="shared" si="8"/>
-        <v>-2.1999999953550287E-3</v>
-      </c>
-      <c r="P43" s="25">
+        <v>2.1999999953550287E-3</v>
+      </c>
+      <c r="P43" s="24">
         <f t="shared" si="9"/>
         <v>40.471247875465366</v>
       </c>
@@ -9561,27 +9550,27 @@
       <c r="J44">
         <v>43</v>
       </c>
-      <c r="K44" s="21">
+      <c r="K44" s="20">
         <f t="shared" si="4"/>
-        <v>2.719999999681022E-2</v>
-      </c>
-      <c r="L44" s="25">
+        <v>-2.719999999681022E-2</v>
+      </c>
+      <c r="L44" s="24">
         <f t="shared" si="5"/>
         <v>2.5901401468766889</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="6"/>
-        <v>0.22019999999611173</v>
+        <v>-0.22019999999611173</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="7"/>
-        <v>-0.18110000000160653</v>
-      </c>
-      <c r="O44" s="21">
+        <v>0.18110000000160653</v>
+      </c>
+      <c r="O44" s="20">
         <f t="shared" si="8"/>
-        <v>1.1899999997694977E-2</v>
-      </c>
-      <c r="P44" s="25">
+        <v>-1.1899999997694977E-2</v>
+      </c>
+      <c r="P44" s="24">
         <f t="shared" si="9"/>
         <v>12.516627196026747</v>
       </c>
@@ -9625,27 +9614,27 @@
       <c r="J45">
         <v>44</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K45" s="20">
         <f t="shared" si="4"/>
-        <v>1.6200000005483162E-2</v>
-      </c>
-      <c r="L45" s="25">
+        <v>-1.6200000005483162E-2</v>
+      </c>
+      <c r="L45" s="24">
         <f t="shared" si="5"/>
         <v>2.6715919792922329</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="6"/>
-        <v>0.22320000000036089</v>
+        <v>-0.22320000000036089</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="7"/>
-        <v>-0.20190000000002328</v>
-      </c>
-      <c r="O45" s="21">
+        <v>0.20190000000002328</v>
+      </c>
+      <c r="O45" s="20">
         <f t="shared" si="8"/>
-        <v>5.0999999948544428E-3</v>
-      </c>
-      <c r="P45" s="25">
+        <v>-5.0999999948544428E-3</v>
+      </c>
+      <c r="P45" s="24">
         <f t="shared" si="9"/>
         <v>28.528624957300458</v>
       </c>
@@ -9689,27 +9678,27 @@
       <c r="J46">
         <v>45</v>
       </c>
-      <c r="K46" s="21">
+      <c r="K46" s="20">
         <f t="shared" si="4"/>
-        <v>-2.2299999996903352E-2</v>
-      </c>
-      <c r="L46" s="25">
+        <v>2.2299999996903352E-2</v>
+      </c>
+      <c r="L46" s="24">
         <f t="shared" si="5"/>
         <v>2.8364663686348552</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="6"/>
-        <v>0.10970000000088476</v>
+        <v>-0.10970000000088476</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="7"/>
-        <v>-0.12950000000273576</v>
-      </c>
-      <c r="O46" s="21">
+        <v>0.12950000000273576</v>
+      </c>
+      <c r="O46" s="20">
         <f t="shared" si="8"/>
-        <v>2.4999999950523488E-3</v>
-      </c>
-      <c r="P46" s="25">
+        <v>-2.4999999950523488E-3</v>
+      </c>
+      <c r="P46" s="24">
         <f t="shared" si="9"/>
         <v>34.430348911950503</v>
       </c>
@@ -9753,27 +9742,27 @@
       <c r="J47">
         <v>46</v>
       </c>
-      <c r="K47" s="21">
+      <c r="K47" s="20">
         <f t="shared" si="4"/>
-        <v>-4.830000000220025E-2</v>
-      </c>
-      <c r="L47" s="25">
+        <v>4.830000000220025E-2</v>
+      </c>
+      <c r="L47" s="24">
         <f t="shared" si="5"/>
         <v>2.8301670342143672</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="6"/>
-        <v>0.15970000000379514</v>
+        <v>-0.15970000000379514</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="7"/>
-        <v>-0.2099000000016531</v>
-      </c>
-      <c r="O47" s="21">
+        <v>0.2099000000016531</v>
+      </c>
+      <c r="O47" s="20">
         <f t="shared" si="8"/>
-        <v>-1.8999999956577085E-3</v>
-      </c>
-      <c r="P47" s="25">
+        <v>1.8999999956577085E-3</v>
+      </c>
+      <c r="P47" s="24">
         <f t="shared" si="9"/>
         <v>40.33143440496184</v>
       </c>
@@ -9817,27 +9806,27 @@
       <c r="J48">
         <v>47</v>
       </c>
-      <c r="K48" s="21">
+      <c r="K48" s="20">
         <f t="shared" si="4"/>
-        <v>-0.32280000000173459</v>
-      </c>
-      <c r="L48" s="25">
+        <v>0.32280000000173459</v>
+      </c>
+      <c r="L48" s="24">
         <f t="shared" si="5"/>
         <v>0.33901640089717083</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="6"/>
-        <v>-0.12679999999818392</v>
+        <v>0.12679999999818392</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="7"/>
-        <v>-0.19649999999819556</v>
-      </c>
-      <c r="O48" s="21">
+        <v>0.19649999999819556</v>
+      </c>
+      <c r="O48" s="20">
         <f t="shared" si="8"/>
-        <v>-4.999999946448952E-4</v>
-      </c>
-      <c r="P48" s="25">
+        <v>4.999999946448952E-4</v>
+      </c>
+      <c r="P48" s="24">
         <f t="shared" si="9"/>
         <v>39.1976585395185</v>
       </c>
@@ -9881,27 +9870,27 @@
       <c r="J49">
         <v>48</v>
       </c>
-      <c r="K49" s="21">
+      <c r="K49" s="20">
         <f t="shared" si="4"/>
-        <v>-9.7999999998137355E-3</v>
-      </c>
-      <c r="L49" s="25">
+        <v>9.7999999998137355E-3</v>
+      </c>
+      <c r="L49" s="24">
         <f t="shared" si="5"/>
         <v>2.8049462923164361</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="6"/>
-        <v>0.13019999999960419</v>
+        <v>-0.13019999999960419</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="7"/>
-        <v>-0.1411999999982072</v>
-      </c>
-      <c r="O49" s="21">
+        <v>0.1411999999982072</v>
+      </c>
+      <c r="O49" s="20">
         <f t="shared" si="8"/>
-        <v>-1.1999999987892807E-3</v>
-      </c>
-      <c r="P49" s="25">
+        <v>1.1999999987892807E-3</v>
+      </c>
+      <c r="P49" s="24">
         <f t="shared" si="9"/>
         <v>39.861850931846234</v>
       </c>
@@ -9945,27 +9934,27 @@
       <c r="J50">
         <v>49</v>
       </c>
-      <c r="K50" s="21">
+      <c r="K50" s="20">
         <f t="shared" si="4"/>
-        <v>-6.9800000004761387E-2</v>
-      </c>
-      <c r="L50" s="25">
+        <v>6.9800000004761387E-2</v>
+      </c>
+      <c r="L50" s="24">
         <f t="shared" si="5"/>
         <v>2.7525161726970868</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="6"/>
-        <v>0.13019999999960419</v>
+        <v>-0.13019999999960419</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="7"/>
-        <v>-0.19950000000244472</v>
-      </c>
-      <c r="O50" s="21">
+        <v>0.19950000000244472</v>
+      </c>
+      <c r="O50" s="20">
         <f t="shared" si="8"/>
-        <v>5.0000000192085281E-4</v>
-      </c>
-      <c r="P50" s="25">
+        <v>-5.0000000192085281E-4</v>
+      </c>
+      <c r="P50" s="24">
         <f t="shared" si="9"/>
         <v>37.931474972638291</v>
       </c>
@@ -10009,27 +9998,27 @@
       <c r="J51">
         <v>50</v>
       </c>
-      <c r="K51" s="21">
+      <c r="K51" s="20">
         <f t="shared" si="4"/>
-        <v>4.6999999976833351E-3</v>
-      </c>
-      <c r="L51" s="25">
+        <v>-4.6999999976833351E-3</v>
+      </c>
+      <c r="L51" s="24">
         <f t="shared" si="5"/>
         <v>2.7413804099718839</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="6"/>
-        <v>0.14069999999628635</v>
+        <v>-0.14069999999628635</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="7"/>
-        <v>-0.14910000000236323</v>
-      </c>
-      <c r="O51" s="21">
+        <v>0.14910000000236323</v>
+      </c>
+      <c r="O51" s="20">
         <f t="shared" si="8"/>
-        <v>-1.3100000003760215E-2</v>
-      </c>
-      <c r="P51" s="25">
+        <v>1.3100000003760215E-2</v>
+      </c>
+      <c r="P51" s="24">
         <f t="shared" si="9"/>
         <v>24.339384805896231</v>
       </c>
@@ -10073,27 +10062,27 @@
       <c r="J52">
         <v>51</v>
       </c>
-      <c r="K52" s="21">
+      <c r="K52" s="20">
         <f t="shared" si="4"/>
-        <v>0.12969999999768334</v>
-      </c>
-      <c r="L52" s="25">
+        <v>-0.12969999999768334</v>
+      </c>
+      <c r="L52" s="24">
         <f t="shared" si="5"/>
         <v>1.4437175402920994</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="6"/>
-        <v>0.14969999999448191</v>
+        <v>-0.14969999999448191</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="7"/>
-        <v>1.5200000001641456E-2</v>
-      </c>
-      <c r="O52" s="21">
+        <v>-1.5200000001641456E-2</v>
+      </c>
+      <c r="O52" s="20">
         <f t="shared" si="8"/>
-        <v>3.5199999998440035E-2</v>
-      </c>
-      <c r="P52" s="25">
+        <v>-3.5199999998440035E-2</v>
+      </c>
+      <c r="P52" s="24">
         <f t="shared" si="9"/>
         <v>1.9459893952171969E-2</v>
       </c>
@@ -10137,27 +10126,27 @@
       <c r="J53">
         <v>52</v>
       </c>
-      <c r="K53" s="21">
+      <c r="K53" s="20">
         <f t="shared" si="4"/>
-        <v>-1.329999999870779E-2</v>
-      </c>
-      <c r="L53" s="25">
+        <v>1.329999999870779E-2</v>
+      </c>
+      <c r="L53" s="24">
         <f t="shared" si="5"/>
         <v>2.8159922589788722</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="6"/>
-        <v>0.20670000000245636</v>
+        <v>-0.20670000000245636</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="7"/>
-        <v>-0.22420000000420259</v>
-      </c>
-      <c r="O53" s="21">
+        <v>0.22420000000420259</v>
+      </c>
+      <c r="O53" s="20">
         <f t="shared" si="8"/>
-        <v>-4.2000000030384399E-3</v>
-      </c>
-      <c r="P53" s="25">
+        <v>4.2000000030384399E-3</v>
+      </c>
+      <c r="P53" s="24">
         <f t="shared" si="9"/>
         <v>40.437783935611236</v>
       </c>
@@ -10201,27 +10190,27 @@
       <c r="J54">
         <v>53</v>
       </c>
-      <c r="K54" s="21">
+      <c r="K54" s="20">
         <f t="shared" si="4"/>
-        <v>-1.4300000002549496E-2</v>
-      </c>
-      <c r="L54" s="25">
+        <v>1.4300000002549496E-2</v>
+      </c>
+      <c r="L54" s="24">
         <f t="shared" si="5"/>
         <v>2.8188334986968417</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="6"/>
-        <v>0.13469999999506399</v>
+        <v>-0.13469999999506399</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="7"/>
-        <v>-0.14650000000256114</v>
-      </c>
-      <c r="O54" s="21">
+        <v>0.14650000000256114</v>
+      </c>
+      <c r="O54" s="20">
         <f t="shared" si="8"/>
-        <v>2.4999999950523488E-3</v>
-      </c>
-      <c r="P54" s="25">
+        <v>-2.4999999950523488E-3</v>
+      </c>
+      <c r="P54" s="24">
         <f t="shared" si="9"/>
         <v>34.430348911950503</v>
       </c>
@@ -10265,27 +10254,27 @@
       <c r="J55">
         <v>54</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K55" s="20">
         <f t="shared" si="4"/>
-        <v>-5.7299999993119854E-2</v>
-      </c>
-      <c r="L55" s="25">
+        <v>5.7299999993119854E-2</v>
+      </c>
+      <c r="L55" s="24">
         <f t="shared" si="5"/>
         <v>2.8054169335372996</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="6"/>
-        <v>0.14870000000519212</v>
+        <v>-0.14870000000519212</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="7"/>
-        <v>-0.20809999999619322</v>
-      </c>
-      <c r="O55" s="21">
+        <v>0.20809999999619322</v>
+      </c>
+      <c r="O55" s="20">
         <f t="shared" si="8"/>
-        <v>-2.0999999978812411E-3</v>
-      </c>
-      <c r="P55" s="25">
+        <v>2.0999999978812411E-3</v>
+      </c>
+      <c r="P55" s="24">
         <f t="shared" si="9"/>
         <v>40.428790122321793</v>
       </c>
@@ -10329,27 +10318,27 @@
       <c r="J56">
         <v>55</v>
       </c>
-      <c r="K56" s="21">
+      <c r="K56" s="20">
         <f t="shared" si="4"/>
-        <v>-6.300000000919681E-3</v>
-      </c>
-      <c r="L56" s="25">
+        <v>6.300000000919681E-3</v>
+      </c>
+      <c r="L56" s="24">
         <f t="shared" si="5"/>
         <v>2.7922027099122415</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="6"/>
-        <v>0.21770000000105938</v>
+        <v>-0.21770000000105938</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="7"/>
-        <v>-0.2312000000019907</v>
-      </c>
-      <c r="O56" s="21">
+        <v>0.2312000000019907</v>
+      </c>
+      <c r="O56" s="20">
         <f t="shared" si="8"/>
-        <v>-7.2000000000116415E-3</v>
-      </c>
-      <c r="P56" s="25">
+        <v>7.2000000000116415E-3</v>
+      </c>
+      <c r="P56" s="24">
         <f t="shared" si="9"/>
         <v>37.359811943518686</v>
       </c>
@@ -10393,27 +10382,27 @@
       <c r="J57">
         <v>56</v>
       </c>
-      <c r="K57" s="21">
+      <c r="K57" s="20">
         <f t="shared" si="4"/>
-        <v>1.3700000003154855E-2</v>
-      </c>
-      <c r="L57" s="25">
+        <v>-1.3700000003154855E-2</v>
+      </c>
+      <c r="L57" s="24">
         <f t="shared" si="5"/>
         <v>2.688148987295206</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="6"/>
-        <v>0.1356999999989057</v>
+        <v>-0.1356999999989057</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="7"/>
-        <v>-0.12999999999738066</v>
-      </c>
-      <c r="O57" s="21">
+        <v>0.12999999999738066</v>
+      </c>
+      <c r="O57" s="20">
         <f t="shared" si="8"/>
-        <v>-8.0000000016298145E-3</v>
-      </c>
-      <c r="P57" s="25">
+        <v>8.0000000016298145E-3</v>
+      </c>
+      <c r="P57" s="24">
         <f t="shared" si="9"/>
         <v>36.006172816414434</v>
       </c>
@@ -10457,27 +10446,27 @@
       <c r="J58">
         <v>57</v>
       </c>
-      <c r="K58" s="21">
+      <c r="K58" s="20">
         <f t="shared" si="4"/>
-        <v>-1.0799999996379483E-2</v>
-      </c>
-      <c r="L58" s="25">
+        <v>1.0799999996379483E-2</v>
+      </c>
+      <c r="L58" s="24">
         <f t="shared" si="5"/>
         <v>2.8082764627255479</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="6"/>
-        <v>0.17420000000129221</v>
+        <v>-0.17420000000129221</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="7"/>
-        <v>-0.18529999999736901</v>
-      </c>
-      <c r="O58" s="21">
+        <v>0.18529999999736901</v>
+      </c>
+      <c r="O58" s="20">
         <f t="shared" si="8"/>
-        <v>-2.9999999969732016E-4</v>
-      </c>
-      <c r="P58" s="25">
+        <v>2.9999999969732016E-4</v>
+      </c>
+      <c r="P58" s="24">
         <f t="shared" si="9"/>
         <v>38.97346749061721</v>
       </c>
@@ -10521,27 +10510,27 @@
       <c r="J59">
         <v>58</v>
       </c>
-      <c r="K59" s="21">
+      <c r="K59" s="20">
         <f t="shared" si="4"/>
-        <v>-5.3800000001501758E-2</v>
-      </c>
-      <c r="L59" s="25">
+        <v>5.3800000001501758E-2</v>
+      </c>
+      <c r="L59" s="24">
         <f t="shared" si="5"/>
         <v>2.8163951178119362</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="6"/>
-        <v>0.105199999998149</v>
+        <v>-0.105199999998149</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="7"/>
-        <v>-0.15490000000136206</v>
-      </c>
-      <c r="O59" s="21">
+        <v>0.15490000000136206</v>
+      </c>
+      <c r="O59" s="20">
         <f t="shared" si="8"/>
-        <v>4.0999999982886948E-3</v>
-      </c>
-      <c r="P59" s="25">
+        <v>-4.0999999982886948E-3</v>
+      </c>
+      <c r="P59" s="24">
         <f t="shared" si="9"/>
         <v>30.924220498706465</v>
       </c>
@@ -10585,27 +10574,27 @@
       <c r="J60">
         <v>59</v>
       </c>
-      <c r="K60" s="21">
+      <c r="K60" s="20">
         <f t="shared" si="4"/>
-        <v>0.16820000000006985</v>
-      </c>
-      <c r="L60" s="25">
+        <v>-0.16820000000006985</v>
+      </c>
+      <c r="L60" s="24">
         <f t="shared" si="5"/>
         <v>1.0096198081561725</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="6"/>
-        <v>0.35020000000076834</v>
+        <v>-0.35020000000076834</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="7"/>
-        <v>-0.19810000000143191</v>
-      </c>
-      <c r="O60" s="21">
+        <v>0.19810000000143191</v>
+      </c>
+      <c r="O60" s="20">
         <f t="shared" si="8"/>
-        <v>-1.6100000000733417E-2</v>
-      </c>
-      <c r="P60" s="25">
+        <v>1.6100000000733417E-2</v>
+      </c>
+      <c r="P60" s="24">
         <f t="shared" si="9"/>
         <v>17.038957698785399</v>
       </c>
@@ -10649,27 +10638,27 @@
       <c r="J61">
         <v>60</v>
       </c>
-      <c r="K61" s="21">
+      <c r="K61" s="20">
         <f t="shared" si="4"/>
-        <v>8.6999999984982423E-3</v>
-      </c>
-      <c r="L61" s="25">
+        <v>-8.6999999984982423E-3</v>
+      </c>
+      <c r="L61" s="24">
         <f t="shared" si="5"/>
         <v>2.7189762148367542</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="6"/>
-        <v>0.15969999999651918</v>
+        <v>-0.15969999999651918</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="7"/>
-        <v>-0.14670000000478467</v>
-      </c>
-      <c r="O61" s="21">
+        <v>0.14670000000478467</v>
+      </c>
+      <c r="O61" s="20">
         <f t="shared" si="8"/>
-        <v>4.2999999932362698E-3</v>
-      </c>
-      <c r="P61" s="25">
+        <v>-4.2999999932362698E-3</v>
+      </c>
+      <c r="P61" s="24">
         <f t="shared" si="9"/>
         <v>30.454829857485592</v>
       </c>
@@ -10713,27 +10702,27 @@
       <c r="J62">
         <v>61</v>
       </c>
-      <c r="K62" s="21">
+      <c r="K62" s="20">
         <f t="shared" si="4"/>
-        <v>1.1999999987892807E-3</v>
-      </c>
-      <c r="L62" s="25">
+        <v>-1.1999999987892807E-3</v>
+      </c>
+      <c r="L62" s="24">
         <f t="shared" si="5"/>
         <v>2.7592921128859649</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="6"/>
-        <v>0.22819999999774154</v>
+        <v>-0.22819999999774154</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="7"/>
-        <v>-0.23479999999835854</v>
-      </c>
-      <c r="O62" s="21">
+        <v>0.23479999999835854</v>
+      </c>
+      <c r="O62" s="20">
         <f t="shared" si="8"/>
-        <v>-7.7999999994062819E-3</v>
-      </c>
-      <c r="P62" s="25">
+        <v>7.7999999994062819E-3</v>
+      </c>
+      <c r="P62" s="24">
         <f t="shared" si="9"/>
         <v>36.362576000646769</v>
       </c>
@@ -10777,27 +10766,27 @@
       <c r="J63">
         <v>62</v>
       </c>
-      <c r="K63" s="21">
+      <c r="K63" s="20">
         <f t="shared" si="4"/>
-        <v>-1.3800000000628643E-2</v>
-      </c>
-      <c r="L63" s="25">
+        <v>1.3800000000628643E-2</v>
+      </c>
+      <c r="L63" s="24">
         <f t="shared" si="5"/>
         <v>2.8174304402817039</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="6"/>
-        <v>0.12719999999535503</v>
+        <v>-0.12719999999535503</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="7"/>
-        <v>-0.15469999999913853</v>
-      </c>
-      <c r="O63" s="21">
+        <v>0.15469999999913853</v>
+      </c>
+      <c r="O63" s="20">
         <f t="shared" si="8"/>
-        <v>-1.3700000003154855E-2</v>
-      </c>
-      <c r="P63" s="25">
+        <v>1.3700000003154855E-2</v>
+      </c>
+      <c r="P63" s="24">
         <f t="shared" si="9"/>
         <v>22.834172979686603</v>
       </c>
@@ -10841,27 +10830,27 @@
       <c r="J64">
         <v>63</v>
       </c>
-      <c r="K64" s="21">
+      <c r="K64" s="20">
         <f t="shared" si="4"/>
-        <v>-2.0800000005692709E-2</v>
-      </c>
-      <c r="L64" s="25">
+        <v>2.0800000005692709E-2</v>
+      </c>
+      <c r="L64" s="24">
         <f t="shared" si="5"/>
         <v>2.8338546780735081</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="6"/>
-        <v>0.17619999999442371</v>
+        <v>-0.17619999999442371</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="7"/>
-        <v>-0.19980000000214204</v>
-      </c>
-      <c r="O64" s="21">
+        <v>0.19980000000214204</v>
+      </c>
+      <c r="O64" s="20">
         <f t="shared" si="8"/>
-        <v>-2.8000000020256266E-3</v>
-      </c>
-      <c r="P64" s="25">
+        <v>2.8000000020256266E-3</v>
+      </c>
+      <c r="P64" s="24">
         <f t="shared" si="9"/>
         <v>40.638163523312429</v>
       </c>
@@ -10905,27 +10894,27 @@
       <c r="J65">
         <v>64</v>
       </c>
-      <c r="K65" s="21">
+      <c r="K65" s="20">
         <f t="shared" si="4"/>
-        <v>4.4199999996635597E-2</v>
-      </c>
-      <c r="L65" s="25">
+        <v>-4.4199999996635597E-2</v>
+      </c>
+      <c r="L65" s="24">
         <f t="shared" si="5"/>
         <v>2.4393967602696689</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="6"/>
-        <v>0.24820000000181608</v>
+        <v>-0.24820000000181608</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="7"/>
-        <v>-0.19129999999859137</v>
-      </c>
-      <c r="O65" s="21">
+        <v>0.19129999999859137</v>
+      </c>
+      <c r="O65" s="20">
         <f t="shared" si="8"/>
-        <v>1.2700000006589107E-2</v>
-      </c>
-      <c r="P65" s="25">
+        <v>-1.2700000006589107E-2</v>
+      </c>
+      <c r="P65" s="24">
         <f t="shared" si="9"/>
         <v>11.007176819893401</v>
       </c>
@@ -10969,32 +10958,32 @@
       <c r="J66">
         <v>65</v>
       </c>
-      <c r="K66" s="21">
-        <f t="shared" ref="K66:K104" si="15">H66-F66</f>
-        <v>-4.6799999996437691E-2</v>
-      </c>
-      <c r="L66" s="25">
+      <c r="K66" s="20">
+        <f t="shared" si="4"/>
+        <v>4.6799999996437691E-2</v>
+      </c>
+      <c r="L66" s="24">
         <f t="shared" si="5"/>
         <v>2.833177751908222</v>
       </c>
       <c r="M66" s="2">
-        <f t="shared" ref="M66:M104" si="16">I66-F66</f>
-        <v>8.3200000000942964E-2</v>
+        <f t="shared" si="6"/>
+        <v>-8.3200000000942964E-2</v>
       </c>
       <c r="N66" s="2">
-        <f t="shared" ref="N66:N104" si="17">H66-G66</f>
-        <v>-0.14899999999761349</v>
-      </c>
-      <c r="O66" s="21">
-        <f t="shared" ref="O66:O104" si="18">I66-G66</f>
-        <v>-1.9000000000232831E-2</v>
-      </c>
-      <c r="P66" s="25">
+        <f t="shared" si="7"/>
+        <v>0.14899999999761349</v>
+      </c>
+      <c r="O66" s="20">
+        <f t="shared" si="8"/>
+        <v>1.9000000000232831E-2</v>
+      </c>
+      <c r="P66" s="24">
         <f t="shared" si="9"/>
         <v>11.044197995820548</v>
       </c>
       <c r="Q66" s="2">
-        <f t="shared" ref="Q66:Q104" si="19">I66-H66</f>
+        <f t="shared" ref="Q66:Q104" si="15">I66-H66</f>
         <v>0.12999999999738066</v>
       </c>
     </row>
@@ -11033,32 +11022,32 @@
       <c r="J67">
         <v>66</v>
       </c>
-      <c r="K67" s="21">
-        <f t="shared" si="15"/>
-        <v>-0.16679999999905704</v>
-      </c>
-      <c r="L67" s="25">
-        <f t="shared" ref="L67:L104" si="20">NORMDIST(K67,K$106,K$110,FALSE)</f>
+      <c r="K67" s="20">
+        <f t="shared" ref="K67:K104" si="16">F67-H67</f>
+        <v>0.16679999999905704</v>
+      </c>
+      <c r="L67" s="24">
+        <f t="shared" ref="L67:L104" si="17">NORMDIST(K67,K$106,K$110,FALSE)</f>
         <v>1.8122471758040994</v>
       </c>
       <c r="M67" s="2">
-        <f t="shared" si="16"/>
-        <v>3.3200000005308539E-2</v>
+        <f t="shared" ref="M67:M104" si="18">F67-I67</f>
+        <v>-3.3200000005308539E-2</v>
       </c>
       <c r="N67" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.20100000000093132</v>
-      </c>
-      <c r="O67" s="21">
-        <f t="shared" si="18"/>
-        <v>-9.9999999656574801E-4</v>
-      </c>
-      <c r="P67" s="25">
+        <f t="shared" ref="N67:N104" si="19">G67-H67</f>
+        <v>0.20100000000093132</v>
+      </c>
+      <c r="O67" s="20">
+        <f t="shared" ref="O67:O104" si="20">G67-I67</f>
+        <v>9.9999999656574801E-4</v>
+      </c>
+      <c r="P67" s="24">
         <f t="shared" ref="P67:P104" si="21">NORMDIST(O67,O$106,O$110,FALSE)</f>
         <v>39.691556773038528</v>
       </c>
       <c r="Q67" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.20000000000436557</v>
       </c>
     </row>
@@ -11097,32 +11086,32 @@
       <c r="J68">
         <v>67</v>
       </c>
-      <c r="K68" s="21">
-        <f t="shared" si="15"/>
-        <v>0.15769999999611173</v>
-      </c>
-      <c r="L68" s="25">
+      <c r="K68" s="20">
+        <f t="shared" si="16"/>
+        <v>-0.15769999999611173</v>
+      </c>
+      <c r="L68" s="24">
+        <f t="shared" si="17"/>
+        <v>1.121417798277627</v>
+      </c>
+      <c r="M68" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.36469999999826541</v>
+      </c>
+      <c r="N68" s="2">
+        <f t="shared" si="19"/>
+        <v>0.20750000000407454</v>
+      </c>
+      <c r="O68" s="20">
         <f t="shared" si="20"/>
-        <v>1.121417798277627</v>
-      </c>
-      <c r="M68" s="2">
-        <f t="shared" si="16"/>
-        <v>0.36469999999826541</v>
-      </c>
-      <c r="N68" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.20750000000407454</v>
-      </c>
-      <c r="O68" s="21">
-        <f t="shared" si="18"/>
-        <v>-5.0000000192085281E-4</v>
-      </c>
-      <c r="P68" s="25">
+        <v>5.0000000192085281E-4</v>
+      </c>
+      <c r="P68" s="24">
         <f t="shared" si="21"/>
         <v>39.197658547401602</v>
       </c>
       <c r="Q68" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.20700000000215368</v>
       </c>
     </row>
@@ -11161,32 +11150,32 @@
       <c r="J69">
         <v>68</v>
       </c>
-      <c r="K69" s="21">
-        <f t="shared" si="15"/>
-        <v>-5.2299999995739199E-2</v>
-      </c>
-      <c r="L69" s="25">
+      <c r="K69" s="20">
+        <f t="shared" si="16"/>
+        <v>5.2299999995739199E-2</v>
+      </c>
+      <c r="L69" s="24">
+        <f t="shared" si="17"/>
+        <v>2.820574954044802</v>
+      </c>
+      <c r="M69" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.10070000000268919</v>
+      </c>
+      <c r="N69" s="2">
+        <f t="shared" si="19"/>
+        <v>0.15419999999721767</v>
+      </c>
+      <c r="O69" s="20">
         <f t="shared" si="20"/>
-        <v>2.820574954044802</v>
-      </c>
-      <c r="M69" s="2">
-        <f t="shared" si="16"/>
-        <v>0.10070000000268919</v>
-      </c>
-      <c r="N69" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.15419999999721767</v>
-      </c>
-      <c r="O69" s="21">
-        <f t="shared" si="18"/>
-        <v>-1.1999999987892807E-3</v>
-      </c>
-      <c r="P69" s="25">
+        <v>1.1999999987892807E-3</v>
+      </c>
+      <c r="P69" s="24">
         <f t="shared" si="21"/>
         <v>39.861850931846234</v>
       </c>
       <c r="Q69" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.15299999999842839</v>
       </c>
     </row>
@@ -11225,32 +11214,32 @@
       <c r="J70">
         <v>69</v>
       </c>
-      <c r="K70" s="21">
-        <f t="shared" si="15"/>
-        <v>-1.2300000002142042E-2</v>
-      </c>
-      <c r="L70" s="25">
+      <c r="K70" s="20">
+        <f t="shared" si="16"/>
+        <v>1.2300000002142042E-2</v>
+      </c>
+      <c r="L70" s="24">
+        <f t="shared" si="17"/>
+        <v>2.8130107470747689</v>
+      </c>
+      <c r="M70" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.18970000000263099</v>
+      </c>
+      <c r="N70" s="2">
+        <f t="shared" si="19"/>
+        <v>0.19959999999991851</v>
+      </c>
+      <c r="O70" s="20">
         <f t="shared" si="20"/>
-        <v>2.8130107470747689</v>
-      </c>
-      <c r="M70" s="2">
-        <f t="shared" si="16"/>
-        <v>0.18970000000263099</v>
-      </c>
-      <c r="N70" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.19959999999991851</v>
-      </c>
-      <c r="O70" s="21">
-        <f t="shared" si="18"/>
-        <v>2.4000000048545189E-3</v>
-      </c>
-      <c r="P70" s="25">
+        <v>-2.4000000048545189E-3</v>
+      </c>
+      <c r="P70" s="24">
         <f t="shared" si="21"/>
         <v>34.631637502021896</v>
       </c>
       <c r="Q70" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.20200000000477303</v>
       </c>
     </row>
@@ -11289,32 +11278,32 @@
       <c r="J71">
         <v>70</v>
       </c>
-      <c r="K71" s="21">
-        <f t="shared" si="15"/>
-        <v>-5.9300000000803266E-2</v>
-      </c>
-      <c r="L71" s="25">
+      <c r="K71" s="20">
+        <f t="shared" si="16"/>
+        <v>5.9300000000803266E-2</v>
+      </c>
+      <c r="L71" s="24">
+        <f t="shared" si="17"/>
+        <v>2.7983796658121527</v>
+      </c>
+      <c r="M71" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.16270000000076834</v>
+      </c>
+      <c r="N71" s="2">
+        <f t="shared" si="19"/>
+        <v>0.21310000000084983</v>
+      </c>
+      <c r="O71" s="20">
         <f t="shared" si="20"/>
-        <v>2.7983796658121527</v>
-      </c>
-      <c r="M71" s="2">
-        <f t="shared" si="16"/>
-        <v>0.16270000000076834</v>
-      </c>
-      <c r="N71" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.21310000000084983</v>
-      </c>
-      <c r="O71" s="21">
-        <f t="shared" si="18"/>
-        <v>8.900000000721775E-3</v>
-      </c>
-      <c r="P71" s="25">
+        <v>-8.900000000721775E-3</v>
+      </c>
+      <c r="P71" s="24">
         <f t="shared" si="21"/>
         <v>19.101113437735162</v>
       </c>
       <c r="Q71" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.22200000000157161</v>
       </c>
     </row>
@@ -11353,32 +11342,32 @@
       <c r="J72">
         <v>71</v>
       </c>
-      <c r="K72" s="21">
-        <f t="shared" si="15"/>
-        <v>-1.6300000002956949E-2</v>
-      </c>
-      <c r="L72" s="25">
+      <c r="K72" s="20">
+        <f t="shared" si="16"/>
+        <v>1.6300000002956949E-2</v>
+      </c>
+      <c r="L72" s="24">
+        <f t="shared" si="17"/>
+        <v>2.8240934593303701</v>
+      </c>
+      <c r="M72" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.12269999999989523</v>
+      </c>
+      <c r="N72" s="2">
+        <f t="shared" si="19"/>
+        <v>0.14140000000043074</v>
+      </c>
+      <c r="O72" s="20">
         <f t="shared" si="20"/>
-        <v>2.8240934593303701</v>
-      </c>
-      <c r="M72" s="2">
-        <f t="shared" si="16"/>
-        <v>0.12269999999989523</v>
-      </c>
-      <c r="N72" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.14140000000043074</v>
-      </c>
-      <c r="O72" s="21">
-        <f t="shared" si="18"/>
-        <v>-2.3999999975785613E-3</v>
-      </c>
-      <c r="P72" s="25">
+        <v>2.3999999975785613E-3</v>
+      </c>
+      <c r="P72" s="24">
         <f t="shared" si="21"/>
         <v>40.543657247842226</v>
       </c>
       <c r="Q72" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.13900000000285218</v>
       </c>
     </row>
@@ -11417,32 +11406,32 @@
       <c r="J73">
         <v>72</v>
       </c>
-      <c r="K73" s="21">
-        <f t="shared" si="15"/>
-        <v>-3.3300000002782326E-2</v>
-      </c>
-      <c r="L73" s="25">
+      <c r="K73" s="20">
+        <f t="shared" si="16"/>
+        <v>3.3300000002782326E-2</v>
+      </c>
+      <c r="L73" s="24">
+        <f t="shared" si="17"/>
+        <v>2.8457202482115158</v>
+      </c>
+      <c r="M73" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.11170000000129221</v>
+      </c>
+      <c r="N73" s="2">
+        <f t="shared" si="19"/>
+        <v>0.15220000000408618</v>
+      </c>
+      <c r="O73" s="20">
         <f t="shared" si="20"/>
-        <v>2.8457202482115158</v>
-      </c>
-      <c r="M73" s="2">
-        <f t="shared" si="16"/>
-        <v>0.11170000000129221</v>
-      </c>
-      <c r="N73" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.15220000000408618</v>
-      </c>
-      <c r="O73" s="21">
-        <f t="shared" si="18"/>
-        <v>-7.2000000000116415E-3</v>
-      </c>
-      <c r="P73" s="25">
+        <v>7.2000000000116415E-3</v>
+      </c>
+      <c r="P73" s="24">
         <f t="shared" si="21"/>
         <v>37.359811943518686</v>
       </c>
       <c r="Q73" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.14500000000407454</v>
       </c>
     </row>
@@ -11481,32 +11470,32 @@
       <c r="J74">
         <v>73</v>
       </c>
-      <c r="K74" s="21">
-        <f t="shared" si="15"/>
-        <v>4.2699999998148996E-2</v>
-      </c>
-      <c r="L74" s="25">
+      <c r="K74" s="20">
+        <f t="shared" si="16"/>
+        <v>-4.2699999998148996E-2</v>
+      </c>
+      <c r="L74" s="24">
+        <f t="shared" si="17"/>
+        <v>2.4537880672954677</v>
+      </c>
+      <c r="M74" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.27469999999448191</v>
+      </c>
+      <c r="N74" s="2">
+        <f t="shared" si="19"/>
+        <v>0.22899999999935972</v>
+      </c>
+      <c r="O74" s="20">
         <f t="shared" si="20"/>
-        <v>2.4537880672954677</v>
-      </c>
-      <c r="M74" s="2">
-        <f t="shared" si="16"/>
-        <v>0.27469999999448191</v>
-      </c>
-      <c r="N74" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.22899999999935972</v>
-      </c>
-      <c r="O74" s="21">
-        <f t="shared" si="18"/>
-        <v>2.9999999969732016E-3</v>
-      </c>
-      <c r="P74" s="25">
+        <v>-2.9999999969732016E-3</v>
+      </c>
+      <c r="P74" s="24">
         <f t="shared" si="21"/>
         <v>33.389239770424851</v>
       </c>
       <c r="Q74" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.23199999999633292</v>
       </c>
     </row>
@@ -11545,32 +11534,32 @@
       <c r="J75">
         <v>74</v>
       </c>
-      <c r="K75" s="21">
-        <f t="shared" si="15"/>
-        <v>-0.14130000000295695</v>
-      </c>
-      <c r="L75" s="25">
+      <c r="K75" s="20">
+        <f t="shared" si="16"/>
+        <v>0.14130000000295695</v>
+      </c>
+      <c r="L75" s="24">
+        <f t="shared" si="17"/>
+        <v>2.1187494952431991</v>
+      </c>
+      <c r="M75" s="2">
+        <f t="shared" si="18"/>
+        <v>-6.2699999994947575E-2</v>
+      </c>
+      <c r="N75" s="2">
+        <f t="shared" si="19"/>
+        <v>0.19840000000112923</v>
+      </c>
+      <c r="O75" s="20">
         <f t="shared" si="20"/>
-        <v>2.1187494952431991</v>
-      </c>
-      <c r="M75" s="2">
-        <f t="shared" si="16"/>
-        <v>6.2699999994947575E-2</v>
-      </c>
-      <c r="N75" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.19840000000112923</v>
-      </c>
-      <c r="O75" s="21">
-        <f t="shared" si="18"/>
-        <v>5.5999999967752956E-3</v>
-      </c>
-      <c r="P75" s="25">
+        <v>-5.5999999967752956E-3</v>
+      </c>
+      <c r="P75" s="24">
         <f t="shared" si="21"/>
         <v>27.294785716872298</v>
       </c>
       <c r="Q75" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.20399999999790452</v>
       </c>
     </row>
@@ -11609,32 +11598,32 @@
       <c r="J76">
         <v>75</v>
       </c>
-      <c r="K76" s="21">
-        <f t="shared" si="15"/>
-        <v>2.2000000026309863E-3</v>
-      </c>
-      <c r="L76" s="25">
+      <c r="K76" s="20">
+        <f t="shared" si="16"/>
+        <v>-2.2000000026309863E-3</v>
+      </c>
+      <c r="L76" s="24">
+        <f t="shared" si="17"/>
+        <v>2.754337752887781</v>
+      </c>
+      <c r="M76" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.13320000000385335</v>
+      </c>
+      <c r="N76" s="2">
+        <f t="shared" si="19"/>
+        <v>0.12969999999768334</v>
+      </c>
+      <c r="O76" s="20">
         <f t="shared" si="20"/>
-        <v>2.754337752887781</v>
-      </c>
-      <c r="M76" s="2">
-        <f t="shared" si="16"/>
-        <v>0.13320000000385335</v>
-      </c>
-      <c r="N76" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.12969999999768334</v>
-      </c>
-      <c r="O76" s="21">
-        <f t="shared" si="18"/>
-        <v>1.3000000035390258E-3</v>
-      </c>
-      <c r="P76" s="25">
+        <v>-1.3000000035390258E-3</v>
+      </c>
+      <c r="P76" s="24">
         <f t="shared" si="21"/>
         <v>36.672659879853455</v>
       </c>
       <c r="Q76" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.13100000000122236</v>
       </c>
     </row>
@@ -11673,32 +11662,32 @@
       <c r="J77">
         <v>76</v>
       </c>
-      <c r="K77" s="21">
-        <f t="shared" si="15"/>
-        <v>8.0200000003969762E-2</v>
-      </c>
-      <c r="L77" s="25">
+      <c r="K77" s="20">
+        <f t="shared" si="16"/>
+        <v>-8.0200000003969762E-2</v>
+      </c>
+      <c r="L77" s="24">
+        <f t="shared" si="17"/>
+        <v>2.0467075256838552</v>
+      </c>
+      <c r="M77" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.28220000000146683</v>
+      </c>
+      <c r="N77" s="2">
+        <f t="shared" si="19"/>
+        <v>0.20319999999628635</v>
+      </c>
+      <c r="O77" s="20">
         <f t="shared" si="20"/>
-        <v>2.0467075256838552</v>
-      </c>
-      <c r="M77" s="2">
-        <f t="shared" si="16"/>
-        <v>0.28220000000146683</v>
-      </c>
-      <c r="N77" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.20319999999628635</v>
-      </c>
-      <c r="O77" s="21">
-        <f t="shared" si="18"/>
-        <v>-1.1999999987892807E-3</v>
-      </c>
-      <c r="P77" s="25">
+        <v>1.1999999987892807E-3</v>
+      </c>
+      <c r="P77" s="24">
         <f t="shared" si="21"/>
         <v>39.861850931846234</v>
       </c>
       <c r="Q77" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.20199999999749707</v>
       </c>
     </row>
@@ -11737,32 +11726,32 @@
       <c r="J78">
         <v>77</v>
       </c>
-      <c r="K78" s="21">
-        <f t="shared" si="15"/>
-        <v>-0.50979999999981374</v>
-      </c>
-      <c r="L78" s="25">
+      <c r="K78" s="20">
+        <f t="shared" si="16"/>
+        <v>0.50979999999981374</v>
+      </c>
+      <c r="L78" s="24">
+        <f t="shared" si="17"/>
+        <v>8.8892993754969129E-3</v>
+      </c>
+      <c r="M78" s="2">
+        <f t="shared" si="18"/>
+        <v>0.29179999999905704</v>
+      </c>
+      <c r="N78" s="2">
+        <f t="shared" si="19"/>
+        <v>0.21329999999579741</v>
+      </c>
+      <c r="O78" s="20">
         <f t="shared" si="20"/>
-        <v>8.8892993754969129E-3</v>
-      </c>
-      <c r="M78" s="2">
-        <f t="shared" si="16"/>
-        <v>-0.29179999999905704</v>
-      </c>
-      <c r="N78" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.21329999999579741</v>
-      </c>
-      <c r="O78" s="21">
-        <f t="shared" si="18"/>
-        <v>4.7000000049592927E-3</v>
-      </c>
-      <c r="P78" s="25">
+        <v>-4.7000000049592927E-3</v>
+      </c>
+      <c r="P78" s="24">
         <f t="shared" si="21"/>
         <v>29.500508959025318</v>
       </c>
       <c r="Q78" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.2180000000007567</v>
       </c>
     </row>
@@ -11801,32 +11790,32 @@
       <c r="J79">
         <v>78</v>
       </c>
-      <c r="K79" s="21">
-        <f t="shared" si="15"/>
-        <v>-3.080000000045402E-2</v>
-      </c>
-      <c r="L79" s="25">
+      <c r="K79" s="20">
+        <f t="shared" si="16"/>
+        <v>3.080000000045402E-2</v>
+      </c>
+      <c r="L79" s="24">
+        <f t="shared" si="17"/>
+        <v>2.8451521886456037</v>
+      </c>
+      <c r="M79" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.1062000000019907</v>
+      </c>
+      <c r="N79" s="2">
+        <f t="shared" si="19"/>
+        <v>0.14300000000366708</v>
+      </c>
+      <c r="O79" s="20">
         <f t="shared" si="20"/>
-        <v>2.8451521886456037</v>
-      </c>
-      <c r="M79" s="2">
-        <f t="shared" si="16"/>
-        <v>0.1062000000019907</v>
-      </c>
-      <c r="N79" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.14300000000366708</v>
-      </c>
-      <c r="O79" s="21">
-        <f t="shared" si="18"/>
-        <v>-6.0000000012223609E-3</v>
-      </c>
-      <c r="P79" s="25">
+        <v>6.0000000012223609E-3</v>
+      </c>
+      <c r="P79" s="24">
         <f t="shared" si="21"/>
         <v>38.997005001702242</v>
       </c>
       <c r="Q79" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.13700000000244472</v>
       </c>
     </row>
@@ -11865,32 +11854,32 @@
       <c r="J80">
         <v>79</v>
       </c>
-      <c r="K80" s="21">
-        <f t="shared" si="15"/>
-        <v>7.9200000000128057E-2</v>
-      </c>
-      <c r="L80" s="25">
+      <c r="K80" s="20">
+        <f t="shared" si="16"/>
+        <v>-7.9200000000128057E-2</v>
+      </c>
+      <c r="L80" s="24">
+        <f t="shared" si="17"/>
+        <v>2.0585428268652808</v>
+      </c>
+      <c r="M80" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.2941999999966356</v>
+      </c>
+      <c r="N80" s="2">
+        <f t="shared" si="19"/>
+        <v>0.21770000000105938</v>
+      </c>
+      <c r="O80" s="20">
         <f t="shared" si="20"/>
-        <v>2.0585428268652808</v>
-      </c>
-      <c r="M80" s="2">
-        <f t="shared" si="16"/>
-        <v>0.2941999999966356</v>
-      </c>
-      <c r="N80" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.21770000000105938</v>
-      </c>
-      <c r="O80" s="21">
-        <f t="shared" si="18"/>
-        <v>-2.7000000045518391E-3</v>
-      </c>
-      <c r="P80" s="25">
+        <v>2.7000000045518391E-3</v>
+      </c>
+      <c r="P80" s="24">
         <f t="shared" si="21"/>
         <v>40.620846849830748</v>
       </c>
       <c r="Q80" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.21499999999650754</v>
       </c>
     </row>
@@ -11929,32 +11918,32 @@
       <c r="J81">
         <v>80</v>
       </c>
-      <c r="K81" s="21">
-        <f t="shared" si="15"/>
-        <v>5.6700000001001172E-2</v>
-      </c>
-      <c r="L81" s="25">
+      <c r="K81" s="20">
+        <f t="shared" si="16"/>
+        <v>-5.6700000001001172E-2</v>
+      </c>
+      <c r="L81" s="24">
+        <f t="shared" si="17"/>
+        <v>2.312386799947034</v>
+      </c>
+      <c r="M81" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.24569999999948777</v>
+      </c>
+      <c r="N81" s="2">
+        <f t="shared" si="19"/>
+        <v>0.18720000000030268</v>
+      </c>
+      <c r="O81" s="20">
         <f t="shared" si="20"/>
-        <v>2.312386799947034</v>
-      </c>
-      <c r="M81" s="2">
-        <f t="shared" si="16"/>
-        <v>0.24569999999948777</v>
-      </c>
-      <c r="N81" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.18720000000030268</v>
-      </c>
-      <c r="O81" s="21">
-        <f t="shared" si="18"/>
-        <v>1.799999998183921E-3</v>
-      </c>
-      <c r="P81" s="25">
+        <v>-1.799999998183921E-3</v>
+      </c>
+      <c r="P81" s="24">
         <f t="shared" si="21"/>
         <v>35.786153572945985</v>
       </c>
       <c r="Q81" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.1889999999984866</v>
       </c>
     </row>
@@ -11993,32 +11982,32 @@
       <c r="J82">
         <v>81</v>
       </c>
-      <c r="K82" s="21">
-        <f t="shared" si="15"/>
-        <v>-2.7799999996204861E-2</v>
-      </c>
-      <c r="L82" s="25">
+      <c r="K82" s="20">
+        <f t="shared" si="16"/>
+        <v>2.7799999996204861E-2</v>
+      </c>
+      <c r="L82" s="24">
+        <f t="shared" si="17"/>
+        <v>2.8432768690038186</v>
+      </c>
+      <c r="M82" s="2">
+        <f t="shared" si="18"/>
+        <v>-9.8200000000360887E-2</v>
+      </c>
+      <c r="N82" s="2">
+        <f t="shared" si="19"/>
+        <v>0.12019999999756692</v>
+      </c>
+      <c r="O82" s="20">
         <f t="shared" si="20"/>
-        <v>2.8432768690038186</v>
-      </c>
-      <c r="M82" s="2">
-        <f t="shared" si="16"/>
-        <v>9.8200000000360887E-2</v>
-      </c>
-      <c r="N82" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.12019999999756692</v>
-      </c>
-      <c r="O82" s="21">
-        <f t="shared" si="18"/>
-        <v>5.7999999989988282E-3</v>
-      </c>
-      <c r="P82" s="25">
+        <v>-5.7999999989988282E-3</v>
+      </c>
+      <c r="P82" s="24">
         <f t="shared" si="21"/>
         <v>26.796825825829789</v>
       </c>
       <c r="Q82" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.12599999999656575</v>
       </c>
     </row>
@@ -12057,32 +12046,32 @@
       <c r="J83">
         <v>82</v>
       </c>
-      <c r="K83" s="21">
-        <f t="shared" si="15"/>
-        <v>-0.20930000000225846</v>
-      </c>
-      <c r="L83" s="25">
+      <c r="K83" s="20">
+        <f t="shared" si="16"/>
+        <v>0.20930000000225846</v>
+      </c>
+      <c r="L83" s="24">
+        <f t="shared" si="17"/>
+        <v>1.2977240219947492</v>
+      </c>
+      <c r="M83" s="2">
+        <f t="shared" si="18"/>
+        <v>-2.6999999972758815E-3</v>
+      </c>
+      <c r="N83" s="2">
+        <f t="shared" si="19"/>
+        <v>0.21570000000065193</v>
+      </c>
+      <c r="O83" s="20">
         <f t="shared" si="20"/>
-        <v>1.2977240219947492</v>
-      </c>
-      <c r="M83" s="2">
-        <f t="shared" si="16"/>
-        <v>2.6999999972758815E-3</v>
-      </c>
-      <c r="N83" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.21570000000065193</v>
-      </c>
-      <c r="O83" s="21">
-        <f t="shared" si="18"/>
-        <v>-3.7000000011175871E-3</v>
-      </c>
-      <c r="P83" s="25">
+        <v>3.7000000011175871E-3</v>
+      </c>
+      <c r="P83" s="24">
         <f t="shared" si="21"/>
         <v>40.604049557043666</v>
       </c>
       <c r="Q83" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.21199999999953434</v>
       </c>
     </row>
@@ -12121,32 +12110,32 @@
       <c r="J84">
         <v>83</v>
       </c>
-      <c r="K84" s="21">
-        <f t="shared" si="15"/>
-        <v>6.9200000005366746E-2</v>
-      </c>
-      <c r="L84" s="25">
+      <c r="K84" s="20">
+        <f t="shared" si="16"/>
+        <v>-6.9200000005366746E-2</v>
+      </c>
+      <c r="L84" s="24">
+        <f t="shared" si="17"/>
+        <v>2.1746317517420706</v>
+      </c>
+      <c r="M84" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.21320000000559958</v>
+      </c>
+      <c r="N84" s="2">
+        <f t="shared" si="19"/>
+        <v>0.14660000000003492</v>
+      </c>
+      <c r="O84" s="20">
         <f t="shared" si="20"/>
-        <v>2.1746317517420706</v>
-      </c>
-      <c r="M84" s="2">
-        <f t="shared" si="16"/>
-        <v>0.21320000000559958</v>
-      </c>
-      <c r="N84" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.14660000000003492</v>
-      </c>
-      <c r="O84" s="21">
-        <f t="shared" si="18"/>
-        <v>-2.599999999802094E-3</v>
-      </c>
-      <c r="P84" s="25">
+        <v>2.599999999802094E-3</v>
+      </c>
+      <c r="P84" s="24">
         <f t="shared" si="21"/>
         <v>40.599318891343913</v>
       </c>
       <c r="Q84" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.14400000000023283</v>
       </c>
     </row>
@@ -12185,32 +12174,32 @@
       <c r="J85">
         <v>84</v>
       </c>
-      <c r="K85" s="21">
-        <f t="shared" si="15"/>
-        <v>0.11570000000210712</v>
-      </c>
-      <c r="L85" s="25">
+      <c r="K85" s="20">
+        <f t="shared" si="16"/>
+        <v>-0.11570000000210712</v>
+      </c>
+      <c r="L85" s="24">
+        <f t="shared" si="17"/>
+        <v>1.6137744932720823</v>
+      </c>
+      <c r="M85" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.30769999999756692</v>
+      </c>
+      <c r="N85" s="2">
+        <f t="shared" si="19"/>
+        <v>0.20839999999589054</v>
+      </c>
+      <c r="O85" s="20">
         <f t="shared" si="20"/>
-        <v>1.6137744932720823</v>
-      </c>
-      <c r="M85" s="2">
-        <f t="shared" si="16"/>
-        <v>0.30769999999756692</v>
-      </c>
-      <c r="N85" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.20839999999589054</v>
-      </c>
-      <c r="O85" s="21">
-        <f t="shared" si="18"/>
-        <v>-1.6400000000430737E-2</v>
-      </c>
-      <c r="P85" s="25">
+        <v>1.6400000000430737E-2</v>
+      </c>
+      <c r="P85" s="24">
         <f t="shared" si="21"/>
         <v>16.357716502641587</v>
       </c>
       <c r="Q85" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.1919999999954598</v>
       </c>
     </row>
@@ -12249,32 +12238,32 @@
       <c r="J86">
         <v>85</v>
       </c>
-      <c r="K86" s="21">
-        <f t="shared" si="15"/>
-        <v>-0.5842999999949825</v>
-      </c>
-      <c r="L86" s="25">
+      <c r="K86" s="20">
+        <f t="shared" si="16"/>
+        <v>0.5842999999949825</v>
+      </c>
+      <c r="L86" s="24">
+        <f t="shared" si="17"/>
+        <v>1.269434774045875E-3</v>
+      </c>
+      <c r="M86" s="2">
+        <f t="shared" si="18"/>
+        <v>0.34429999999701977</v>
+      </c>
+      <c r="N86" s="2">
+        <f t="shared" si="19"/>
+        <v>0.24539999999979045</v>
+      </c>
+      <c r="O86" s="20">
         <f t="shared" si="20"/>
-        <v>1.269434774045875E-3</v>
-      </c>
-      <c r="M86" s="2">
-        <f t="shared" si="16"/>
-        <v>-0.34429999999701977</v>
-      </c>
-      <c r="N86" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.24539999999979045</v>
-      </c>
-      <c r="O86" s="21">
-        <f t="shared" si="18"/>
-        <v>-5.4000000018277206E-3</v>
-      </c>
-      <c r="P86" s="25">
+        <v>5.4000000018277206E-3</v>
+      </c>
+      <c r="P86" s="24">
         <f t="shared" si="21"/>
         <v>39.619390249111888</v>
       </c>
       <c r="Q86" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.23999999999796273</v>
       </c>
     </row>
@@ -12313,32 +12302,32 @@
       <c r="J87">
         <v>86</v>
       </c>
-      <c r="K87" s="21">
-        <f t="shared" si="15"/>
-        <v>-3.1799999997019768E-2</v>
-      </c>
-      <c r="L87" s="25">
+      <c r="K87" s="20">
+        <f t="shared" si="16"/>
+        <v>3.1799999997019768E-2</v>
+      </c>
+      <c r="L87" s="24">
+        <f t="shared" si="17"/>
+        <v>2.8454879854695467</v>
+      </c>
+      <c r="M87" s="2">
+        <f t="shared" si="18"/>
+        <v>-9.8200000000360887E-2</v>
+      </c>
+      <c r="N87" s="2">
+        <f t="shared" si="19"/>
+        <v>0.13639999999577412</v>
+      </c>
+      <c r="O87" s="20">
         <f t="shared" si="20"/>
-        <v>2.8454879854695467</v>
-      </c>
-      <c r="M87" s="2">
-        <f t="shared" si="16"/>
-        <v>9.8200000000360887E-2</v>
-      </c>
-      <c r="N87" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.13639999999577412</v>
-      </c>
-      <c r="O87" s="21">
-        <f t="shared" si="18"/>
-        <v>-6.3999999983934686E-3</v>
-      </c>
-      <c r="P87" s="25">
+        <v>6.3999999983934686E-3</v>
+      </c>
+      <c r="P87" s="24">
         <f t="shared" si="21"/>
         <v>38.507417849355988</v>
       </c>
       <c r="Q87" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.12999999999738066</v>
       </c>
     </row>
@@ -12377,32 +12366,32 @@
       <c r="J88">
         <v>87</v>
       </c>
-      <c r="K88" s="21">
-        <f t="shared" si="15"/>
-        <v>8.5700000003271271E-2</v>
-      </c>
-      <c r="L88" s="25">
+      <c r="K88" s="20">
+        <f t="shared" si="16"/>
+        <v>-8.5700000003271271E-2</v>
+      </c>
+      <c r="L88" s="24">
+        <f t="shared" si="17"/>
+        <v>1.9810166486754333</v>
+      </c>
+      <c r="M88" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.3246999999973923</v>
+      </c>
+      <c r="N88" s="2">
+        <f t="shared" si="19"/>
+        <v>0.23189999999885913</v>
+      </c>
+      <c r="O88" s="20">
         <f t="shared" si="20"/>
-        <v>1.9810166486754333</v>
-      </c>
-      <c r="M88" s="2">
-        <f t="shared" si="16"/>
-        <v>0.3246999999973923</v>
-      </c>
-      <c r="N88" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.23189999999885913</v>
-      </c>
-      <c r="O88" s="21">
-        <f t="shared" si="18"/>
-        <v>7.0999999952618964E-3</v>
-      </c>
-      <c r="P88" s="25">
+        <v>-7.0999999952618964E-3</v>
+      </c>
+      <c r="P88" s="24">
         <f t="shared" si="21"/>
         <v>23.534635632498819</v>
       </c>
       <c r="Q88" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.23899999999412103</v>
       </c>
     </row>
@@ -12441,32 +12430,32 @@
       <c r="J89">
         <v>88</v>
       </c>
-      <c r="K89" s="21">
-        <f t="shared" si="15"/>
-        <v>7.9699999994772952E-2</v>
-      </c>
-      <c r="L89" s="25">
+      <c r="K89" s="20">
+        <f t="shared" si="16"/>
+        <v>-7.9699999994772952E-2</v>
+      </c>
+      <c r="L89" s="24">
+        <f t="shared" si="17"/>
+        <v>2.0526297014148573</v>
+      </c>
+      <c r="M89" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.31169999999838183</v>
+      </c>
+      <c r="N89" s="2">
+        <f t="shared" si="19"/>
+        <v>0.2231000000028871</v>
+      </c>
+      <c r="O89" s="20">
         <f t="shared" si="20"/>
-        <v>2.0526297014148573</v>
-      </c>
-      <c r="M89" s="2">
-        <f t="shared" si="16"/>
-        <v>0.31169999999838183</v>
-      </c>
-      <c r="N89" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.2231000000028871</v>
-      </c>
-      <c r="O89" s="21">
-        <f t="shared" si="18"/>
-        <v>8.900000000721775E-3</v>
-      </c>
-      <c r="P89" s="25">
+        <v>-8.900000000721775E-3</v>
+      </c>
+      <c r="P89" s="24">
         <f t="shared" si="21"/>
         <v>19.101113437735162</v>
       </c>
       <c r="Q89" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.23200000000360887</v>
       </c>
     </row>
@@ -12505,32 +12494,32 @@
       <c r="J90">
         <v>89</v>
       </c>
-      <c r="K90" s="21">
-        <f t="shared" si="15"/>
-        <v>5.6999999942490831E-3</v>
-      </c>
-      <c r="L90" s="25">
+      <c r="K90" s="20">
+        <f t="shared" si="16"/>
+        <v>-5.6999999942490831E-3</v>
+      </c>
+      <c r="L90" s="24">
+        <f t="shared" si="17"/>
+        <v>2.7359709239181296</v>
+      </c>
+      <c r="M90" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.1396999999997206</v>
+      </c>
+      <c r="N90" s="2">
+        <f t="shared" si="19"/>
+        <v>0.15890000000217697</v>
+      </c>
+      <c r="O90" s="20">
         <f t="shared" si="20"/>
-        <v>2.7359709239181296</v>
-      </c>
-      <c r="M90" s="2">
-        <f t="shared" si="16"/>
-        <v>0.1396999999997206</v>
-      </c>
-      <c r="N90" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.15890000000217697</v>
-      </c>
-      <c r="O90" s="21">
-        <f t="shared" si="18"/>
-        <v>-2.4899999996705446E-2</v>
-      </c>
-      <c r="P90" s="25">
+        <v>2.4899999996705446E-2</v>
+      </c>
+      <c r="P90" s="24">
         <f t="shared" si="21"/>
         <v>3.4904260572769479</v>
       </c>
       <c r="Q90" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.13400000000547152</v>
       </c>
     </row>
@@ -12569,32 +12558,32 @@
       <c r="J91">
         <v>90</v>
       </c>
-      <c r="K91" s="21">
-        <f t="shared" si="15"/>
-        <v>9.7699999998440035E-2</v>
-      </c>
-      <c r="L91" s="25">
+      <c r="K91" s="20">
+        <f t="shared" si="16"/>
+        <v>-9.7699999998440035E-2</v>
+      </c>
+      <c r="L91" s="24">
+        <f t="shared" si="17"/>
+        <v>1.8350866944861799</v>
+      </c>
+      <c r="M91" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.3217000000004191</v>
+      </c>
+      <c r="N91" s="2">
+        <f t="shared" si="19"/>
+        <v>0.2404000000024098</v>
+      </c>
+      <c r="O91" s="20">
         <f t="shared" si="20"/>
-        <v>1.8350866944861799</v>
-      </c>
-      <c r="M91" s="2">
-        <f t="shared" si="16"/>
-        <v>0.3217000000004191</v>
-      </c>
-      <c r="N91" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.2404000000024098</v>
-      </c>
-      <c r="O91" s="21">
-        <f t="shared" si="18"/>
-        <v>-1.6400000000430737E-2</v>
-      </c>
-      <c r="P91" s="25">
+        <v>1.6400000000430737E-2</v>
+      </c>
+      <c r="P91" s="24">
         <f t="shared" si="21"/>
         <v>16.357716502641587</v>
       </c>
       <c r="Q91" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.22400000000197906</v>
       </c>
     </row>
@@ -12633,32 +12622,32 @@
       <c r="J92">
         <v>91</v>
       </c>
-      <c r="K92" s="21">
-        <f t="shared" si="15"/>
-        <v>-7.2299999999813735E-2</v>
-      </c>
-      <c r="L92" s="25">
+      <c r="K92" s="20">
+        <f t="shared" si="16"/>
+        <v>7.2299999999813735E-2</v>
+      </c>
+      <c r="L92" s="24">
+        <f t="shared" si="17"/>
+        <v>2.7394415401168102</v>
+      </c>
+      <c r="M92" s="2">
+        <f t="shared" si="18"/>
+        <v>-8.4699999999429565E-2</v>
+      </c>
+      <c r="N92" s="2">
+        <f t="shared" si="19"/>
+        <v>0.1540000000022701</v>
+      </c>
+      <c r="O92" s="20">
         <f t="shared" si="20"/>
-        <v>2.7394415401168102</v>
-      </c>
-      <c r="M92" s="2">
-        <f t="shared" si="16"/>
-        <v>8.4699999999429565E-2</v>
-      </c>
-      <c r="N92" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.1540000000022701</v>
-      </c>
-      <c r="O92" s="21">
-        <f t="shared" si="18"/>
-        <v>2.9999999969732016E-3</v>
-      </c>
-      <c r="P92" s="25">
+        <v>-2.9999999969732016E-3</v>
+      </c>
+      <c r="P92" s="24">
         <f t="shared" si="21"/>
         <v>33.389239770424851</v>
       </c>
       <c r="Q92" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.1569999999992433</v>
       </c>
     </row>
@@ -12697,32 +12686,32 @@
       <c r="J93">
         <v>92</v>
       </c>
-      <c r="K93" s="21">
-        <f t="shared" si="15"/>
-        <v>3.4700000003795139E-2</v>
-      </c>
-      <c r="L93" s="25">
+      <c r="K93" s="20">
+        <f t="shared" si="16"/>
+        <v>-3.4700000003795139E-2</v>
+      </c>
+      <c r="L93" s="24">
+        <f t="shared" si="17"/>
+        <v>2.5270969491531599</v>
+      </c>
+      <c r="M93" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.21470000000408618</v>
+      </c>
+      <c r="N93" s="2">
+        <f t="shared" si="19"/>
+        <v>0.18839999999909196</v>
+      </c>
+      <c r="O93" s="20">
         <f t="shared" si="20"/>
-        <v>2.5270969491531599</v>
-      </c>
-      <c r="M93" s="2">
-        <f t="shared" si="16"/>
-        <v>0.21470000000408618</v>
-      </c>
-      <c r="N93" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.18839999999909196</v>
-      </c>
-      <c r="O93" s="21">
-        <f t="shared" si="18"/>
-        <v>-8.3999999988009222E-3</v>
-      </c>
-      <c r="P93" s="25">
+        <v>8.3999999988009222E-3</v>
+      </c>
+      <c r="P93" s="24">
         <f t="shared" si="21"/>
         <v>35.259820766398882</v>
       </c>
       <c r="Q93" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.18000000000029104</v>
       </c>
     </row>
@@ -12761,32 +12750,32 @@
       <c r="J94">
         <v>93</v>
       </c>
-      <c r="K94" s="21">
-        <f t="shared" si="15"/>
-        <v>-0.31530000000202563</v>
-      </c>
-      <c r="L94" s="25">
+      <c r="K94" s="20">
+        <f t="shared" si="16"/>
+        <v>0.31530000000202563</v>
+      </c>
+      <c r="L94" s="24">
+        <f t="shared" si="17"/>
+        <v>0.37803004229664849</v>
+      </c>
+      <c r="M94" s="2">
+        <f t="shared" si="18"/>
+        <v>0.12629999999626307</v>
+      </c>
+      <c r="N94" s="2">
+        <f t="shared" si="19"/>
+        <v>0.19650000000547152</v>
+      </c>
+      <c r="O94" s="20">
         <f t="shared" si="20"/>
-        <v>0.37803004229664849</v>
-      </c>
-      <c r="M94" s="2">
-        <f t="shared" si="16"/>
-        <v>-0.12629999999626307</v>
-      </c>
-      <c r="N94" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.19650000000547152</v>
-      </c>
-      <c r="O94" s="21">
-        <f t="shared" si="18"/>
-        <v>-7.4999999997089617E-3</v>
-      </c>
-      <c r="P94" s="25">
+        <v>7.4999999997089617E-3</v>
+      </c>
+      <c r="P94" s="24">
         <f t="shared" si="21"/>
         <v>36.875059053168535</v>
       </c>
       <c r="Q94" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.18900000000576256</v>
       </c>
     </row>
@@ -12825,32 +12814,32 @@
       <c r="J95">
         <v>94</v>
       </c>
-      <c r="K95" s="21">
-        <f t="shared" si="15"/>
-        <v>-3.1799999997019768E-2</v>
-      </c>
-      <c r="L95" s="25">
+      <c r="K95" s="20">
+        <f t="shared" si="16"/>
+        <v>3.1799999997019768E-2</v>
+      </c>
+      <c r="L95" s="24">
+        <f t="shared" si="17"/>
+        <v>2.8454879854695467</v>
+      </c>
+      <c r="M95" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.12020000000484288</v>
+      </c>
+      <c r="N95" s="2">
+        <f t="shared" si="19"/>
+        <v>0.14839999999821885</v>
+      </c>
+      <c r="O95" s="20">
         <f t="shared" si="20"/>
-        <v>2.8454879854695467</v>
-      </c>
-      <c r="M95" s="2">
-        <f t="shared" si="16"/>
-        <v>0.12020000000484288</v>
-      </c>
-      <c r="N95" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.14839999999821885</v>
-      </c>
-      <c r="O95" s="21">
-        <f t="shared" si="18"/>
-        <v>3.6000000036437996E-3</v>
-      </c>
-      <c r="P95" s="25">
+        <v>-3.6000000036437996E-3</v>
+      </c>
+      <c r="P95" s="24">
         <f t="shared" si="21"/>
         <v>32.071223786253356</v>
       </c>
       <c r="Q95" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.15200000000186265</v>
       </c>
     </row>
@@ -12889,36 +12878,36 @@
       <c r="J96">
         <v>95</v>
       </c>
-      <c r="K96" s="21">
-        <f t="shared" si="15"/>
-        <v>3.4200000001874287E-2</v>
-      </c>
-      <c r="L96" s="25">
+      <c r="K96" s="20">
+        <f t="shared" si="16"/>
+        <v>-3.4200000001874287E-2</v>
+      </c>
+      <c r="L96" s="24">
+        <f t="shared" si="17"/>
+        <v>2.5314770748777575</v>
+      </c>
+      <c r="M96" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.25620000000344589</v>
+      </c>
+      <c r="N96" s="2">
+        <f t="shared" si="19"/>
+        <v>0.21319999999832362</v>
+      </c>
+      <c r="O96" s="20">
         <f t="shared" si="20"/>
-        <v>2.5314770748777575</v>
-      </c>
-      <c r="M96" s="2">
-        <f t="shared" si="16"/>
-        <v>0.25620000000344589</v>
-      </c>
-      <c r="N96" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.21319999999832362</v>
-      </c>
-      <c r="O96" s="21">
-        <f t="shared" si="18"/>
-        <v>8.8000000032479875E-3</v>
-      </c>
-      <c r="P96" s="25">
+        <v>-8.8000000032479875E-3</v>
+      </c>
+      <c r="P96" s="24">
         <f t="shared" si="21"/>
         <v>19.340971759415783</v>
       </c>
       <c r="Q96" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.22200000000157161</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>8509817</v>
       </c>
@@ -12953,36 +12942,36 @@
       <c r="J97">
         <v>96</v>
       </c>
-      <c r="K97" s="21">
-        <f t="shared" si="15"/>
-        <v>-0.59829999999783468</v>
-      </c>
-      <c r="L97" s="25">
+      <c r="K97" s="20">
+        <f t="shared" si="16"/>
+        <v>0.59829999999783468</v>
+      </c>
+      <c r="L97" s="24">
+        <f t="shared" si="17"/>
+        <v>8.5325821575804052E-4</v>
+      </c>
+      <c r="M97" s="2">
+        <f t="shared" si="18"/>
+        <v>0.4253000000026077</v>
+      </c>
+      <c r="N97" s="2">
+        <f t="shared" si="19"/>
+        <v>0.1665999999968335</v>
+      </c>
+      <c r="O97" s="20">
         <f t="shared" si="20"/>
-        <v>8.5325821575804052E-4</v>
-      </c>
-      <c r="M97" s="2">
-        <f t="shared" si="16"/>
-        <v>-0.4253000000026077</v>
-      </c>
-      <c r="N97" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.1665999999968335</v>
-      </c>
-      <c r="O97" s="21">
-        <f t="shared" si="18"/>
-        <v>6.3999999983934686E-3</v>
-      </c>
-      <c r="P97" s="25">
+        <v>-6.3999999983934686E-3</v>
+      </c>
+      <c r="P97" s="24">
         <f t="shared" si="21"/>
         <v>25.293640708596111</v>
       </c>
       <c r="Q97" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.17299999999522697</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>8509850</v>
       </c>
@@ -13017,36 +13006,36 @@
       <c r="J98">
         <v>97</v>
       </c>
-      <c r="K98" s="21">
-        <f t="shared" si="15"/>
-        <v>-3.7299999996321276E-2</v>
-      </c>
-      <c r="L98" s="25">
+      <c r="K98" s="20">
+        <f t="shared" si="16"/>
+        <v>3.7299999996321276E-2</v>
+      </c>
+      <c r="L98" s="24">
+        <f t="shared" si="17"/>
+        <v>2.8447470432906861</v>
+      </c>
+      <c r="M98" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.12570000000414439</v>
+      </c>
+      <c r="N98" s="2">
+        <f t="shared" si="19"/>
+        <v>0.16709999999875436</v>
+      </c>
+      <c r="O98" s="20">
         <f t="shared" si="20"/>
-        <v>2.8447470432906861</v>
-      </c>
-      <c r="M98" s="2">
-        <f t="shared" si="16"/>
-        <v>0.12570000000414439</v>
-      </c>
-      <c r="N98" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.16709999999875436</v>
-      </c>
-      <c r="O98" s="21">
-        <f t="shared" si="18"/>
-        <v>-4.0999999982886948E-3</v>
-      </c>
-      <c r="P98" s="25">
+        <v>4.0999999982886948E-3</v>
+      </c>
+      <c r="P98" s="24">
         <f t="shared" si="21"/>
         <v>40.479393597360463</v>
       </c>
       <c r="Q98" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.16300000000046566</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>8509788</v>
       </c>
@@ -13081,36 +13070,36 @@
       <c r="J99">
         <v>98</v>
       </c>
-      <c r="K99" s="21">
-        <f t="shared" si="15"/>
-        <v>1.4699999999720603E-2</v>
-      </c>
-      <c r="L99" s="25">
+      <c r="K99" s="20">
+        <f t="shared" si="16"/>
+        <v>-1.4699999999720603E-2</v>
+      </c>
+      <c r="L99" s="24">
+        <f t="shared" si="17"/>
+        <v>2.6816162393933194</v>
+      </c>
+      <c r="M99" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.24569999999948777</v>
+      </c>
+      <c r="N99" s="2">
+        <f t="shared" si="19"/>
+        <v>0.22950000000128057</v>
+      </c>
+      <c r="O99" s="20">
         <f t="shared" si="20"/>
-        <v>2.6816162393933194</v>
-      </c>
-      <c r="M99" s="2">
-        <f t="shared" si="16"/>
-        <v>0.24569999999948777</v>
-      </c>
-      <c r="N99" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.22950000000128057</v>
-      </c>
-      <c r="O99" s="21">
-        <f t="shared" si="18"/>
-        <v>1.4999999984866008E-3</v>
-      </c>
-      <c r="P99" s="25">
+        <v>-1.4999999984866008E-3</v>
+      </c>
+      <c r="P99" s="24">
         <f t="shared" si="21"/>
         <v>36.326773840845277</v>
       </c>
       <c r="Q99" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.23099999999976717</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>8509951</v>
       </c>
@@ -13145,36 +13134,36 @@
       <c r="J100">
         <v>99</v>
       </c>
-      <c r="K100" s="21">
-        <f t="shared" si="15"/>
-        <v>-0.30080000000452856</v>
-      </c>
-      <c r="L100" s="25">
+      <c r="K100" s="20">
+        <f t="shared" si="16"/>
+        <v>0.30080000000452856</v>
+      </c>
+      <c r="L100" s="24">
+        <f t="shared" si="17"/>
+        <v>0.46287018346621278</v>
+      </c>
+      <c r="M100" s="2">
+        <f t="shared" si="18"/>
+        <v>5.5800000001909211E-2</v>
+      </c>
+      <c r="N100" s="2">
+        <f t="shared" si="19"/>
+        <v>0.25330000000394648</v>
+      </c>
+      <c r="O100" s="20">
         <f t="shared" si="20"/>
-        <v>0.46287018346621278</v>
-      </c>
-      <c r="M100" s="2">
-        <f t="shared" si="16"/>
-        <v>-5.5800000001909211E-2</v>
-      </c>
-      <c r="N100" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.25330000000394648</v>
-      </c>
-      <c r="O100" s="21">
-        <f t="shared" si="18"/>
-        <v>-8.3000000013271347E-3</v>
-      </c>
-      <c r="P100" s="25">
+        <v>8.3000000013271347E-3</v>
+      </c>
+      <c r="P100" s="24">
         <f t="shared" si="21"/>
         <v>35.450470473951022</v>
       </c>
       <c r="Q100" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.24500000000261934</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>8509807</v>
       </c>
@@ -13209,36 +13198,36 @@
       <c r="J101">
         <v>100</v>
       </c>
-      <c r="K101" s="21">
-        <f t="shared" si="15"/>
-        <v>-5.0799999997252598E-2</v>
-      </c>
-      <c r="L101" s="25">
+      <c r="K101" s="20">
+        <f t="shared" si="16"/>
+        <v>5.0799999997252598E-2</v>
+      </c>
+      <c r="L101" s="24">
+        <f t="shared" si="17"/>
+        <v>2.8244376189939175</v>
+      </c>
+      <c r="M101" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.10719999999855645</v>
+      </c>
+      <c r="N101" s="2">
+        <f t="shared" si="19"/>
+        <v>0.15320000000065193</v>
+      </c>
+      <c r="O101" s="20">
         <f t="shared" si="20"/>
-        <v>2.8244376189939175</v>
-      </c>
-      <c r="M101" s="2">
-        <f t="shared" si="16"/>
-        <v>0.10719999999855645</v>
-      </c>
-      <c r="N101" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.15320000000065193</v>
-      </c>
-      <c r="O101" s="21">
-        <f t="shared" si="18"/>
-        <v>4.7999999951571226E-3</v>
-      </c>
-      <c r="P101" s="25">
+        <v>-4.7999999951571226E-3</v>
+      </c>
+      <c r="P101" s="24">
         <f t="shared" si="21"/>
         <v>29.259037080592158</v>
       </c>
       <c r="Q101" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.15799999999580905</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>8509878</v>
       </c>
@@ -13273,36 +13262,36 @@
       <c r="J102">
         <v>101</v>
       </c>
-      <c r="K102" s="21">
-        <f t="shared" si="15"/>
-        <v>7.4200000002747402E-2</v>
-      </c>
-      <c r="L102" s="25">
+      <c r="K102" s="20">
+        <f t="shared" si="16"/>
+        <v>-7.4200000002747402E-2</v>
+      </c>
+      <c r="L102" s="24">
+        <f t="shared" si="17"/>
+        <v>2.1171373767579111</v>
+      </c>
+      <c r="M102" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.29920000000129221</v>
+      </c>
+      <c r="N102" s="2">
+        <f t="shared" si="19"/>
+        <v>0.22329999999783468</v>
+      </c>
+      <c r="O102" s="20">
         <f t="shared" si="20"/>
-        <v>2.1171373767579111</v>
-      </c>
-      <c r="M102" s="2">
-        <f t="shared" si="16"/>
-        <v>0.29920000000129221</v>
-      </c>
-      <c r="N102" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.22329999999783468</v>
-      </c>
-      <c r="O102" s="21">
-        <f t="shared" si="18"/>
-        <v>1.7000000007101335E-3</v>
-      </c>
-      <c r="P102" s="25">
+        <v>-1.7000000007101335E-3</v>
+      </c>
+      <c r="P102" s="24">
         <f t="shared" si="21"/>
         <v>35.96919756518249</v>
       </c>
       <c r="Q102" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.22499999999854481</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>8509846</v>
       </c>
@@ -13337,36 +13326,36 @@
       <c r="J103">
         <v>102</v>
       </c>
-      <c r="K103" s="21">
-        <f t="shared" si="15"/>
-        <v>7.069999999657739E-2</v>
-      </c>
-      <c r="L103" s="25">
+      <c r="K103" s="20">
+        <f t="shared" si="16"/>
+        <v>-7.069999999657739E-2</v>
+      </c>
+      <c r="L103" s="24">
+        <f t="shared" si="17"/>
+        <v>2.1575095473373165</v>
+      </c>
+      <c r="M103" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.30069999999977881</v>
+      </c>
+      <c r="N103" s="2">
+        <f t="shared" si="19"/>
+        <v>0.23309999999764841</v>
+      </c>
+      <c r="O103" s="20">
         <f t="shared" si="20"/>
-        <v>2.1575095473373165</v>
-      </c>
-      <c r="M103" s="2">
-        <f t="shared" si="16"/>
-        <v>0.30069999999977881</v>
-      </c>
-      <c r="N103" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.23309999999764841</v>
-      </c>
-      <c r="O103" s="21">
-        <f t="shared" si="18"/>
-        <v>-3.0999999944469891E-3</v>
-      </c>
-      <c r="P103" s="25">
+        <v>3.0999999944469891E-3</v>
+      </c>
+      <c r="P103" s="24">
         <f t="shared" si="21"/>
         <v>40.664798464822944</v>
       </c>
       <c r="Q103" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.23000000000320142</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>8509791</v>
       </c>
@@ -13401,357 +13390,344 @@
       <c r="J104">
         <v>103</v>
       </c>
-      <c r="K104" s="21">
-        <f t="shared" si="15"/>
-        <v>-8.5800000000745058E-2</v>
-      </c>
-      <c r="L104" s="25">
+      <c r="K104" s="20">
+        <f t="shared" si="16"/>
+        <v>8.5800000000745058E-2</v>
+      </c>
+      <c r="L104" s="24">
+        <f t="shared" si="17"/>
+        <v>2.6552726105768896</v>
+      </c>
+      <c r="M104" s="2">
+        <f t="shared" si="18"/>
+        <v>-7.3199999998905696E-2</v>
+      </c>
+      <c r="N104" s="2">
+        <f t="shared" si="19"/>
+        <v>0.15840000000025611</v>
+      </c>
+      <c r="O104" s="20">
         <f t="shared" si="20"/>
-        <v>2.6552726105768896</v>
-      </c>
-      <c r="M104" s="2">
-        <f t="shared" si="16"/>
-        <v>7.3199999998905696E-2</v>
-      </c>
-      <c r="N104" s="2">
-        <f t="shared" si="17"/>
-        <v>-0.15840000000025611</v>
-      </c>
-      <c r="O104" s="21">
-        <f t="shared" si="18"/>
-        <v>5.9999999939464033E-4</v>
-      </c>
-      <c r="P104" s="25">
+        <v>-5.9999999939464033E-4</v>
+      </c>
+      <c r="P104" s="24">
         <f t="shared" si="21"/>
         <v>37.785528708862266</v>
       </c>
       <c r="Q104" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.15899999999965075</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J106" t="s">
-        <v>585</v>
-      </c>
-      <c r="K106" s="21">
-        <v>-3.3619417475668704E-2</v>
-      </c>
-      <c r="L106" s="25"/>
+        <v>580</v>
+      </c>
+      <c r="K106" s="20">
+        <v>3.3619417475668704E-2</v>
+      </c>
+      <c r="L106" s="24"/>
       <c r="M106" s="2">
-        <v>0.14473398058286424</v>
+        <v>-0.14473398058286424</v>
       </c>
       <c r="N106" s="2">
-        <v>-0.18151359223335126</v>
-      </c>
-      <c r="O106" s="21">
-        <v>-3.1601941748183146E-3</v>
-      </c>
-      <c r="P106" s="25"/>
+        <v>0.18151359223335126</v>
+      </c>
+      <c r="O106" s="20">
+        <v>3.1601941748183146E-3</v>
+      </c>
+      <c r="P106" s="24"/>
       <c r="Q106" s="2">
-        <v>0.17835339805853295</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.17527766990318819</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J107" t="s">
-        <v>583</v>
-      </c>
-      <c r="K107" s="21">
+        <v>578</v>
+      </c>
+      <c r="K107" s="20">
         <v>1.3813321568926487E-2</v>
       </c>
-      <c r="L107" s="25"/>
+      <c r="L107" s="24"/>
       <c r="M107" s="2">
         <v>1.3687540523012397E-2</v>
       </c>
       <c r="N107" s="2">
         <v>3.8167769282101173E-3</v>
       </c>
-      <c r="O107" s="21">
+      <c r="O107" s="20">
         <v>9.6663975861147229E-4</v>
       </c>
-      <c r="P107" s="25"/>
+      <c r="P107" s="24"/>
       <c r="Q107" s="2">
-        <v>3.6892331589886565E-3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+        <v>4.9268552244510003E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J108" t="s">
-        <v>584</v>
-      </c>
-      <c r="K108" s="21">
-        <v>-9.7999999998137355E-3</v>
-      </c>
-      <c r="L108" s="25"/>
+        <v>579</v>
+      </c>
+      <c r="K108" s="20">
+        <v>9.7999999998137355E-3</v>
+      </c>
+      <c r="L108" s="24"/>
       <c r="M108" s="2">
-        <v>0.15670000000682194</v>
+        <v>-0.15670000000682194</v>
       </c>
       <c r="N108" s="2">
-        <v>-0.18839999999909196</v>
-      </c>
-      <c r="O108" s="21">
-        <v>-2.0999999978812411E-3</v>
-      </c>
-      <c r="P108" s="25"/>
+        <v>0.18839999999909196</v>
+      </c>
+      <c r="O108" s="20">
+        <v>2.0999999978812411E-3</v>
+      </c>
+      <c r="P108" s="24"/>
       <c r="Q108" s="2">
         <v>0.1889999999984866</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J109" t="s">
-        <v>586</v>
-      </c>
-      <c r="K109" s="21">
-        <v>-6.300000000919681E-3</v>
-      </c>
-      <c r="L109" s="25"/>
+        <v>581</v>
+      </c>
+      <c r="K109" s="20">
+        <v>6.300000000919681E-3</v>
+      </c>
+      <c r="L109" s="24"/>
       <c r="M109" s="2">
-        <v>0.17619999999442371</v>
+        <v>-0.17619999999442371</v>
       </c>
       <c r="N109" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="O109" s="21">
-        <v>-1.1999999987892807E-3</v>
-      </c>
-      <c r="P109" s="25"/>
+      <c r="O109" s="20">
+        <v>1.1999999987892807E-3</v>
+      </c>
+      <c r="P109" s="24"/>
       <c r="Q109" s="2">
         <v>0.19299999999930151</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J110" t="s">
-        <v>587</v>
-      </c>
-      <c r="K110" s="21">
+        <v>582</v>
+      </c>
+      <c r="K110" s="20">
         <v>0.14018990275678445</v>
       </c>
-      <c r="L110" s="25"/>
+      <c r="L110" s="24"/>
       <c r="M110" s="2">
         <v>0.13891336456085845</v>
       </c>
       <c r="N110" s="2">
         <v>3.873605517255025E-2</v>
       </c>
-      <c r="O110" s="21">
+      <c r="O110" s="20">
         <v>9.81032209265475E-3</v>
       </c>
-      <c r="P110" s="25"/>
+      <c r="P110" s="24"/>
       <c r="Q110" s="2">
-        <v>3.7441627288918498E-2</v>
-      </c>
-      <c r="S110" s="18"/>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+        <v>5.000211942986129E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J111" t="s">
-        <v>588</v>
-      </c>
-      <c r="K111" s="21">
+        <v>583</v>
+      </c>
+      <c r="K111" s="20">
         <v>1.9653208834956679E-2</v>
       </c>
-      <c r="L111" s="25"/>
+      <c r="L111" s="24"/>
       <c r="M111" s="2">
         <v>1.9296922853617962E-2</v>
       </c>
       <c r="N111" s="2">
         <v>1.5004819703308572E-3</v>
       </c>
-      <c r="O111" s="21">
+      <c r="O111" s="20">
         <v>9.6242419561629869E-5</v>
       </c>
-      <c r="P111" s="25"/>
+      <c r="P111" s="24"/>
       <c r="Q111" s="2">
-        <v>1.4018754540422865E-3</v>
-      </c>
-      <c r="S111" s="18"/>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2.5002119474781116E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J112" t="s">
-        <v>589</v>
-      </c>
-      <c r="K112" s="21">
+        <v>584</v>
+      </c>
+      <c r="K112" s="20">
         <v>5.2396206840499477</v>
       </c>
-      <c r="L112" s="25"/>
+      <c r="L112" s="24"/>
       <c r="M112" s="2">
         <v>4.0866210058546448</v>
       </c>
       <c r="N112" s="2">
         <v>4.9024292128181122</v>
       </c>
-      <c r="O112" s="21">
+      <c r="O112" s="20">
         <v>2.1995029353272031</v>
       </c>
-      <c r="P112" s="25"/>
+      <c r="P112" s="24"/>
       <c r="Q112" s="2">
-        <v>1.4815927253226588</v>
-      </c>
-      <c r="S112" s="18"/>
-    </row>
-    <row r="113" spans="4:19" x14ac:dyDescent="0.2">
+        <v>18.910020491298233</v>
+      </c>
+    </row>
+    <row r="113" spans="4:17" x14ac:dyDescent="0.2">
       <c r="J113" t="s">
-        <v>590</v>
-      </c>
-      <c r="K113" s="21">
-        <v>-2.0889122312155504</v>
-      </c>
-      <c r="L113" s="25"/>
+        <v>585</v>
+      </c>
+      <c r="K113" s="20">
+        <v>2.0889122312155504</v>
+      </c>
+      <c r="L113" s="24"/>
       <c r="M113" s="2">
-        <v>-1.6349850603183702</v>
+        <v>1.6349850603183702</v>
       </c>
       <c r="N113" s="2">
-        <v>1.2303781010013859</v>
-      </c>
-      <c r="O113" s="21">
-        <v>-5.6255353797994533E-2</v>
-      </c>
-      <c r="P113" s="25"/>
+        <v>-1.2303781010013859</v>
+      </c>
+      <c r="O113" s="20">
+        <v>5.6255353797994533E-2</v>
+      </c>
+      <c r="P113" s="24"/>
       <c r="Q113" s="2">
-        <v>-0.66210082739643406</v>
-      </c>
-      <c r="S113" s="18"/>
-    </row>
-    <row r="114" spans="4:19" x14ac:dyDescent="0.2">
+        <v>-3.1430431497367488</v>
+      </c>
+    </row>
+    <row r="114" spans="4:17" x14ac:dyDescent="0.2">
       <c r="J114" t="s">
-        <v>591</v>
-      </c>
-      <c r="K114" s="21">
+        <v>586</v>
+      </c>
+      <c r="K114" s="20">
         <v>0.76649999999790452</v>
       </c>
-      <c r="L114" s="25"/>
+      <c r="L114" s="24"/>
       <c r="M114" s="2">
         <v>0.8095000000030268</v>
       </c>
       <c r="N114" s="2">
         <v>0.26850000000558794</v>
       </c>
-      <c r="O114" s="21">
+      <c r="O114" s="20">
         <v>6.7299999995157123E-2</v>
       </c>
-      <c r="P114" s="25"/>
+      <c r="P114" s="24"/>
       <c r="Q114" s="2">
-        <v>0.22500000000582077</v>
-      </c>
-      <c r="S114" s="18"/>
-    </row>
-    <row r="115" spans="4:19" x14ac:dyDescent="0.2">
+        <v>0.40340000000287546</v>
+      </c>
+    </row>
+    <row r="115" spans="4:17" x14ac:dyDescent="0.2">
       <c r="J115" t="s">
-        <v>592</v>
-      </c>
-      <c r="K115" s="21">
-        <v>-0.59829999999783468</v>
-      </c>
-      <c r="L115" s="25"/>
+        <v>587</v>
+      </c>
+      <c r="K115" s="20">
+        <v>-0.16820000000006985</v>
+      </c>
+      <c r="L115" s="24"/>
       <c r="M115" s="2">
-        <v>-0.4253000000026077</v>
+        <v>-0.3842000000004191</v>
       </c>
       <c r="N115" s="2">
-        <v>-0.25330000000394648</v>
-      </c>
-      <c r="O115" s="21">
-        <v>-3.2099999996717088E-2</v>
-      </c>
-      <c r="P115" s="25"/>
+        <v>-1.5200000001641456E-2</v>
+      </c>
+      <c r="O115" s="20">
+        <v>-3.5199999998440035E-2</v>
+      </c>
+      <c r="P115" s="24"/>
       <c r="Q115" s="2">
-        <v>1.9999999996798579E-2</v>
-      </c>
-      <c r="S115" s="18"/>
-    </row>
-    <row r="116" spans="4:19" x14ac:dyDescent="0.2">
+        <v>-0.15840000000025611</v>
+      </c>
+    </row>
+    <row r="116" spans="4:17" x14ac:dyDescent="0.2">
       <c r="J116" t="s">
-        <v>593</v>
-      </c>
-      <c r="K116" s="21">
-        <v>0.16820000000006985</v>
-      </c>
-      <c r="L116" s="25"/>
+        <v>588</v>
+      </c>
+      <c r="K116" s="20">
+        <v>0.59829999999783468</v>
+      </c>
+      <c r="L116" s="24"/>
       <c r="M116" s="2">
-        <v>0.3842000000004191</v>
+        <v>0.4253000000026077</v>
       </c>
       <c r="N116" s="2">
-        <v>1.5200000001641456E-2</v>
-      </c>
-      <c r="O116" s="21">
-        <v>3.5199999998440035E-2</v>
-      </c>
-      <c r="P116" s="25"/>
+        <v>0.25330000000394648</v>
+      </c>
+      <c r="O116" s="20">
+        <v>3.2099999996717088E-2</v>
+      </c>
+      <c r="P116" s="24"/>
       <c r="Q116" s="2">
         <v>0.24500000000261934</v>
       </c>
-      <c r="S116" s="18"/>
-    </row>
-    <row r="117" spans="4:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="4:17" x14ac:dyDescent="0.2">
       <c r="J117" t="s">
-        <v>594</v>
-      </c>
-      <c r="K117" s="21">
-        <v>-3.4627999999938766</v>
-      </c>
-      <c r="L117" s="25"/>
+        <v>589</v>
+      </c>
+      <c r="K117" s="20">
+        <v>3.4627999999938766</v>
+      </c>
+      <c r="L117" s="24"/>
       <c r="M117" s="2">
-        <v>14.907600000035018</v>
+        <v>-14.907600000035018</v>
       </c>
       <c r="N117" s="2">
-        <v>-18.695900000035181</v>
-      </c>
-      <c r="O117" s="21">
-        <v>-0.32550000000628643</v>
-      </c>
-      <c r="P117" s="25"/>
+        <v>18.695900000035181</v>
+      </c>
+      <c r="O117" s="20">
+        <v>0.32550000000628643</v>
+      </c>
+      <c r="P117" s="24"/>
       <c r="Q117" s="2">
-        <v>18.370400000028894</v>
-      </c>
-      <c r="S117" s="18"/>
-    </row>
-    <row r="118" spans="4:19" x14ac:dyDescent="0.2">
+        <v>18.053600000028382</v>
+      </c>
+    </row>
+    <row r="118" spans="4:17" x14ac:dyDescent="0.2">
       <c r="J118" t="s">
-        <v>582</v>
-      </c>
-      <c r="K118" s="23">
+        <v>577</v>
+      </c>
+      <c r="K118" s="22">
         <v>103</v>
       </c>
-      <c r="L118" s="26"/>
-      <c r="M118" s="19">
+      <c r="L118" s="25"/>
+      <c r="M118" s="18">
         <v>103</v>
       </c>
-      <c r="N118" s="19">
+      <c r="N118" s="18">
         <v>103</v>
       </c>
-      <c r="O118" s="23">
+      <c r="O118" s="22">
         <v>103</v>
       </c>
-      <c r="P118" s="26"/>
-      <c r="Q118" s="19">
+      <c r="P118" s="25"/>
+      <c r="Q118" s="18">
         <v>103</v>
       </c>
-      <c r="S118" s="18"/>
-    </row>
-    <row r="119" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="S119" s="18"/>
-    </row>
-    <row r="120" spans="4:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="4:17" x14ac:dyDescent="0.2">
       <c r="J120" t="s">
-        <v>595</v>
-      </c>
-      <c r="K120" s="22" t="s">
-        <v>585</v>
+        <v>590</v>
+      </c>
+      <c r="K120" s="21" t="s">
+        <v>580</v>
       </c>
       <c r="M120" t="s">
         <v>363</v>
       </c>
       <c r="N120" t="s">
-        <v>582</v>
-      </c>
-      <c r="S120" s="18"/>
-    </row>
-    <row r="121" spans="4:19" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="121" spans="4:17" x14ac:dyDescent="0.2">
       <c r="J121">
         <v>8509875</v>
       </c>
-      <c r="K121" s="21">
-        <f>AVERAGEIF($A$2:$A$104,J121,K2:K104)</f>
-        <v>2.6120000002265442E-2</v>
-      </c>
-      <c r="L121" s="25"/>
+      <c r="K121" s="20">
+        <f t="shared" ref="K121:K135" si="22">AVERAGEIF($A$2:$A$104,J121,K2:K104)</f>
+        <v>-2.6120000002265442E-2</v>
+      </c>
+      <c r="L121" s="24"/>
       <c r="M121" s="2" cm="1">
         <f t="array" ref="M121">STDEV(IF(A$2:A$104=J121,K$2:K$104))</f>
         <v>6.0270490291258527E-2</v>
@@ -13760,47 +13736,44 @@
         <f>COUNTIF(A$2:A$104,J121)</f>
         <v>5</v>
       </c>
-      <c r="S121" s="18"/>
-    </row>
-    <row r="122" spans="4:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="4:17" x14ac:dyDescent="0.2">
       <c r="J122">
         <v>8509803</v>
       </c>
-      <c r="K122" s="21">
-        <f>AVERAGEIF($A$2:$A$104,J122,K3:K105)</f>
-        <v>-0.13692499999888241</v>
-      </c>
-      <c r="L122" s="25"/>
+      <c r="K122" s="20">
+        <f t="shared" si="22"/>
+        <v>0.13692499999888241</v>
+      </c>
+      <c r="L122" s="24"/>
       <c r="M122" s="2" cm="1">
         <f t="array" ref="M122">STDEV(IF(A$2:A$104=J122,K$2:K$104))</f>
         <v>2.7250000000720385E-2</v>
       </c>
       <c r="N122">
-        <f t="shared" ref="N122:N140" si="22">COUNTIF(A$2:A$104,J122)</f>
+        <f t="shared" ref="N122:N140" si="23">COUNTIF(A$2:A$104,J122)</f>
         <v>4</v>
       </c>
-      <c r="S122" s="18"/>
-    </row>
-    <row r="123" spans="4:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="4:17" x14ac:dyDescent="0.2">
       <c r="J123">
         <v>8509836</v>
       </c>
-      <c r="K123" s="21">
-        <f>AVERAGEIF($A$2:$A$104,J123,K4:K106)</f>
-        <v>3.4200000001874287E-2</v>
-      </c>
-      <c r="L123" s="25"/>
+      <c r="K123" s="20">
+        <f t="shared" si="22"/>
+        <v>-3.4200000001874287E-2</v>
+      </c>
+      <c r="L123" s="24"/>
       <c r="M123" s="2" cm="1">
         <f t="array" ref="M123">STDEV(IF(A$2:A$104=J123,K$2:K$104))</f>
         <v>5.1733894434484319E-2</v>
       </c>
       <c r="N123">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
-      <c r="S123" s="18"/>
-    </row>
-    <row r="124" spans="4:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D124" s="10"/>
       <c r="E124" s="10"/>
       <c r="F124" s="8"/>
@@ -13810,92 +13783,89 @@
       <c r="J124">
         <v>8509850</v>
       </c>
-      <c r="K124" s="21">
-        <f>AVERAGEIF($A$2:$A$104,J124,K5:K107)</f>
-        <v>4.0771428571523369E-2</v>
-      </c>
-      <c r="L124" s="25"/>
+      <c r="K124" s="20">
+        <f t="shared" si="22"/>
+        <v>-4.0771428571523369E-2</v>
+      </c>
+      <c r="L124" s="24"/>
       <c r="M124" s="2" cm="1">
         <f t="array" ref="M124">STDEV(IF(A$2:A$104=J124,K$2:K$104))</f>
         <v>0.13714312996084504</v>
       </c>
       <c r="N124">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
-      <c r="S124" s="18"/>
-    </row>
-    <row r="125" spans="4:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="4:17" x14ac:dyDescent="0.2">
       <c r="J125">
         <v>8509788</v>
       </c>
-      <c r="K125" s="21">
-        <f>AVERAGEIF($A$2:$A$104,J125,K6:K108)</f>
-        <v>-5.4442857144749723E-2</v>
-      </c>
-      <c r="L125" s="25"/>
+      <c r="K125" s="20">
+        <f t="shared" si="22"/>
+        <v>5.4442857144749723E-2</v>
+      </c>
+      <c r="L125" s="24"/>
       <c r="M125" s="2" cm="1">
         <f t="array" ref="M125">STDEV(IF(A$2:A$104=J125,K$2:K$104))</f>
         <v>0.24432333669937484</v>
       </c>
       <c r="N125">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
-      <c r="S125" s="18"/>
-    </row>
-    <row r="126" spans="4:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="4:17" x14ac:dyDescent="0.2">
       <c r="J126">
         <v>8509846</v>
       </c>
-      <c r="K126" s="21">
-        <f>AVERAGEIF($A$2:$A$104,J126,K7:K109)</f>
-        <v>3.1116666667609632E-2</v>
-      </c>
-      <c r="L126" s="25"/>
+      <c r="K126" s="20">
+        <f t="shared" si="22"/>
+        <v>-3.1116666667609632E-2</v>
+      </c>
+      <c r="L126" s="24"/>
       <c r="M126" s="2" cm="1">
         <f t="array" ref="M126">STDEV(IF(A$2:A$104=J126,K$2:K$104))</f>
         <v>0.13731766698707254</v>
       </c>
       <c r="N126">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
-      <c r="S126" s="18"/>
-    </row>
-    <row r="127" spans="4:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="4:17" x14ac:dyDescent="0.2">
       <c r="J127">
         <v>8509951</v>
       </c>
-      <c r="K127" s="21">
-        <f>AVERAGEIF($A$2:$A$104,J127,K8:K110)</f>
-        <v>-2.990647249242508E-2</v>
-      </c>
-      <c r="L127" s="25"/>
+      <c r="K127" s="20">
+        <f t="shared" si="22"/>
+        <v>2.990647249242508E-2</v>
+      </c>
+      <c r="L127" s="24"/>
       <c r="M127" s="2" cm="1">
         <f t="array" ref="M127">STDEV(IF(A$2:A$104=J127,K$2:K$104))</f>
         <v>0.1855720884199111</v>
       </c>
       <c r="N127">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:17" x14ac:dyDescent="0.2">
       <c r="J128">
         <v>8509791</v>
       </c>
-      <c r="K128" s="21">
-        <f>AVERAGEIF($A$2:$A$104,J128,K9:K111)</f>
-        <v>1.7938302207118086E-2</v>
-      </c>
-      <c r="L128" s="25"/>
+      <c r="K128" s="20">
+        <f t="shared" si="22"/>
+        <v>-8.111697789639747E-3</v>
+      </c>
+      <c r="L128" s="24"/>
       <c r="M128" s="2" cm="1">
         <f t="array" ref="M128">STDEV(IF(A$2:A$104=J128,K$2:K$104))</f>
         <v>6.4322753883415795E-2</v>
       </c>
       <c r="N128">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
     </row>
@@ -13903,17 +13873,17 @@
       <c r="J129">
         <v>8509817</v>
       </c>
-      <c r="K129" s="21">
-        <f>AVERAGEIF($A$2:$A$104,J129,K10:K112)</f>
-        <v>-0.12063333333450525</v>
-      </c>
-      <c r="L129" s="25"/>
+      <c r="K129" s="20">
+        <f t="shared" si="22"/>
+        <v>0.12063333333450525</v>
+      </c>
+      <c r="L129" s="24"/>
       <c r="M129" s="2" cm="1">
         <f t="array" ref="M129">STDEV(IF(A$2:A$104=J129,K$2:K$104))</f>
         <v>0.28073148499182887</v>
       </c>
       <c r="N129">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
     </row>
@@ -13921,17 +13891,17 @@
       <c r="J130">
         <v>8509883</v>
       </c>
-      <c r="K130" s="21">
-        <f>AVERAGEIF($A$2:$A$104,J130,K11:K113)</f>
-        <v>-8.8000000003376037E-3</v>
-      </c>
-      <c r="L130" s="25"/>
+      <c r="K130" s="20">
+        <f t="shared" si="22"/>
+        <v>8.8000000003376037E-3</v>
+      </c>
+      <c r="L130" s="24"/>
       <c r="M130" s="2" cm="1">
         <f t="array" ref="M130">STDEV(IF(A$2:A$104=J130,K$2:K$104))</f>
         <v>6.2350220529344275E-2</v>
       </c>
       <c r="N130">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
     </row>
@@ -13939,17 +13909,17 @@
       <c r="J131">
         <v>8509930</v>
       </c>
-      <c r="K131" s="21">
-        <f>AVERAGEIF($A$2:$A$104,J131,K12:K114)</f>
-        <v>2.70000000212652E-3</v>
-      </c>
-      <c r="L131" s="25"/>
+      <c r="K131" s="20">
+        <f t="shared" si="22"/>
+        <v>-2.70000000212652E-3</v>
+      </c>
+      <c r="L131" s="24"/>
       <c r="M131" s="2" cm="1">
         <f t="array" ref="M131">STDEV(IF(A$2:A$104=J131,K$2:K$104))</f>
         <v>0.13612408555193622</v>
       </c>
       <c r="N131">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
     </row>
@@ -13957,17 +13927,17 @@
       <c r="J132">
         <v>8509878</v>
       </c>
-      <c r="K132" s="21">
-        <f>AVERAGEIF($A$2:$A$104,J132,K13:K115)</f>
-        <v>-0.26056402890401453</v>
-      </c>
-      <c r="L132" s="25"/>
+      <c r="K132" s="20">
+        <f t="shared" si="22"/>
+        <v>0.26056402890401453</v>
+      </c>
+      <c r="L132" s="24"/>
       <c r="M132" s="2" cm="1">
         <f t="array" ref="M132">STDEV(IF(A$2:A$104=J132,K$2:K$104))</f>
         <v>6.1795746500891799E-2</v>
       </c>
       <c r="N132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
     </row>
@@ -13975,17 +13945,17 @@
       <c r="J133">
         <v>8509861</v>
       </c>
-      <c r="K133" s="21">
-        <f>AVERAGEIF($A$2:$A$104,J133,K14:K116)</f>
-        <v>-2.4666666661990653E-3</v>
-      </c>
-      <c r="L133" s="25"/>
+      <c r="K133" s="20">
+        <f t="shared" si="22"/>
+        <v>2.4666666661990653E-3</v>
+      </c>
+      <c r="L133" s="24"/>
       <c r="M133" s="2" cm="1">
         <f t="array" ref="M133">STDEV(IF(A$2:A$104=J133,K$2:K$104))</f>
         <v>0.22385568267659978</v>
       </c>
       <c r="N133">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
     </row>
@@ -13993,17 +13963,17 @@
       <c r="J134">
         <v>8509964</v>
       </c>
-      <c r="K134" s="21">
-        <f>AVERAGEIF($A$2:$A$104,J134,K15:K117)</f>
-        <v>3.1885553595694192E-2</v>
-      </c>
-      <c r="L134" s="25"/>
+      <c r="K134" s="20">
+        <f t="shared" si="22"/>
+        <v>-2.7281113072718702E-2</v>
+      </c>
+      <c r="L134" s="24"/>
       <c r="M134" s="2" cm="1">
         <f t="array" ref="M134">STDEV(IF(A$2:A$104=J134,K$2:K$104))</f>
         <v>0.12183718644350103</v>
       </c>
       <c r="N134">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
     </row>
@@ -14011,17 +13981,17 @@
       <c r="J135">
         <v>8509804</v>
       </c>
-      <c r="K135" s="21">
-        <f>AVERAGEIF($A$2:$A$104,J135,K16:K118)</f>
-        <v>-7.2271669608370823E-2</v>
-      </c>
-      <c r="L135" s="25"/>
+      <c r="K135" s="20">
+        <f t="shared" si="22"/>
+        <v>7.9178330392834076E-2</v>
+      </c>
+      <c r="L135" s="24"/>
       <c r="M135" s="2" cm="1">
         <f t="array" ref="M135">STDEV(IF(A$2:A$104=J135,K$2:K$104))</f>
         <v>7.3379578222055736E-2</v>
       </c>
       <c r="N135">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
     </row>
@@ -14029,17 +13999,17 @@
       <c r="J136">
         <v>8509907</v>
       </c>
-      <c r="K136" s="21">
+      <c r="K136" s="20">
         <f ca="1">AVERAGEIF($A$2:$A$104,J136,K17:K118)</f>
-        <v>-0.14463333333211872</v>
-      </c>
-      <c r="L136" s="25"/>
+        <v>0.14463333333211872</v>
+      </c>
+      <c r="L136" s="24"/>
       <c r="M136" s="2" cm="1">
         <f t="array" ref="M136">STDEV(IF(A$2:A$104=J136,K$2:K$104))</f>
         <v>2.3245071162084331E-2</v>
       </c>
       <c r="N136">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
     </row>
@@ -14047,192 +14017,192 @@
       <c r="J137">
         <v>8509945</v>
       </c>
-      <c r="K137" s="21">
+      <c r="K137" s="20">
         <f ca="1">AVERAGEIF($A$2:$A$104,J137,K18:K118)</f>
-        <v>-4.4285714206385558E-4</v>
-      </c>
-      <c r="L137" s="25"/>
+        <v>4.4285714206385558E-4</v>
+      </c>
+      <c r="L137" s="24"/>
       <c r="M137" s="2" cm="1">
         <f t="array" ref="M137">STDEV(IF(A$2:A$104=J137,K$2:K$104))</f>
         <v>5.003474982999162E-2</v>
       </c>
       <c r="N137">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
-      <c r="O137" s="21"/>
-      <c r="P137" s="25"/>
+      <c r="O137" s="20"/>
+      <c r="P137" s="24"/>
       <c r="Q137" s="2"/>
     </row>
     <row r="138" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J138">
         <v>8509915</v>
       </c>
-      <c r="K138" s="21">
+      <c r="K138" s="20">
         <f ca="1">AVERAGEIF($A$2:$A$104,J138,K19:K118)</f>
-        <v>-3.1879854370698332E-2</v>
-      </c>
-      <c r="L138" s="25"/>
+        <v>3.1879854370698332E-2</v>
+      </c>
+      <c r="L138" s="24"/>
       <c r="M138" s="2" cm="1">
         <f t="array" ref="M138">STDEV(IF(A$2:A$104=J138,K$2:K$104))</f>
         <v>0.11312603590748609</v>
       </c>
       <c r="N138">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
-      <c r="O138" s="21"/>
-      <c r="P138" s="25"/>
+      <c r="O138" s="20"/>
+      <c r="P138" s="24"/>
       <c r="Q138" s="2"/>
     </row>
     <row r="139" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J139">
         <v>8509807</v>
       </c>
-      <c r="K139" s="21">
+      <c r="K139" s="20">
         <f ca="1">AVERAGEIF($A$2:$A$104,J139,K20:K119)</f>
-        <v>5.5533333332277834E-2</v>
-      </c>
-      <c r="L139" s="25"/>
+        <v>-5.5533333332277834E-2</v>
+      </c>
+      <c r="L139" s="24"/>
       <c r="M139" s="2" cm="1">
         <f t="array" ref="M139">STDEV(IF(A$2:A$104=J139,K$2:K$104))</f>
         <v>2.8223438838548737E-2</v>
       </c>
       <c r="N139">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
-      <c r="O139" s="21"/>
-      <c r="P139" s="25"/>
+      <c r="O139" s="20"/>
+      <c r="P139" s="24"/>
       <c r="Q139" s="2"/>
     </row>
     <row r="140" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J140">
         <v>8509975</v>
       </c>
-      <c r="K140" s="21">
+      <c r="K140" s="20">
         <f ca="1">AVERAGEIF($A$2:$A$104,J140,K21:K120)</f>
-        <v>-5.5383333334854491E-2</v>
-      </c>
-      <c r="L140" s="25"/>
+        <v>5.5383333334854491E-2</v>
+      </c>
+      <c r="L140" s="24"/>
       <c r="M140" s="2" cm="1">
         <f t="array" ref="M140">STDEV(IF(A$2:A$104=J140,K$2:K$104))</f>
         <v>0.17639569628085924</v>
       </c>
       <c r="N140">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
-      <c r="O140" s="21"/>
-      <c r="P140" s="25"/>
+      <c r="O140" s="20"/>
+      <c r="P140" s="24"/>
       <c r="Q140" s="2"/>
     </row>
     <row r="141" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K141" s="21"/>
-      <c r="L141" s="25"/>
+      <c r="K141" s="20"/>
+      <c r="L141" s="24"/>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
-      <c r="O141" s="21"/>
-      <c r="P141" s="25"/>
+      <c r="O141" s="20"/>
+      <c r="P141" s="24"/>
       <c r="Q141" s="2"/>
     </row>
     <row r="142" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K142" s="21"/>
-      <c r="L142" s="25"/>
+      <c r="K142" s="20"/>
+      <c r="L142" s="24"/>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
-      <c r="O142" s="21"/>
-      <c r="P142" s="25"/>
+      <c r="O142" s="20"/>
+      <c r="P142" s="24"/>
       <c r="Q142" s="2"/>
     </row>
     <row r="143" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K143" s="21"/>
-      <c r="L143" s="25"/>
+      <c r="K143" s="20"/>
+      <c r="L143" s="24"/>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
-      <c r="O143" s="21"/>
-      <c r="P143" s="25"/>
+      <c r="O143" s="20"/>
+      <c r="P143" s="24"/>
       <c r="Q143" s="2"/>
     </row>
     <row r="144" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K144" s="21"/>
-      <c r="L144" s="25"/>
+      <c r="K144" s="20"/>
+      <c r="L144" s="24"/>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
-      <c r="O144" s="21"/>
-      <c r="P144" s="25"/>
+      <c r="O144" s="20"/>
+      <c r="P144" s="24"/>
       <c r="Q144" s="2"/>
     </row>
     <row r="145" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K145" s="21"/>
-      <c r="L145" s="25"/>
+      <c r="K145" s="20"/>
+      <c r="L145" s="24"/>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
-      <c r="O145" s="21"/>
-      <c r="P145" s="25"/>
+      <c r="O145" s="20"/>
+      <c r="P145" s="24"/>
       <c r="Q145" s="2"/>
     </row>
     <row r="146" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K146" s="21"/>
-      <c r="L146" s="25"/>
+      <c r="K146" s="20"/>
+      <c r="L146" s="24"/>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
-      <c r="O146" s="21"/>
-      <c r="P146" s="25"/>
+      <c r="O146" s="20"/>
+      <c r="P146" s="24"/>
       <c r="Q146" s="2"/>
     </row>
     <row r="147" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K147" s="21"/>
-      <c r="L147" s="25"/>
+      <c r="K147" s="20"/>
+      <c r="L147" s="24"/>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
-      <c r="O147" s="21"/>
-      <c r="P147" s="25"/>
+      <c r="O147" s="20"/>
+      <c r="P147" s="24"/>
       <c r="Q147" s="2"/>
     </row>
     <row r="148" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K148" s="21"/>
-      <c r="L148" s="25"/>
+      <c r="K148" s="20"/>
+      <c r="L148" s="24"/>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
-      <c r="O148" s="21"/>
-      <c r="P148" s="25"/>
+      <c r="O148" s="20"/>
+      <c r="P148" s="24"/>
       <c r="Q148" s="2"/>
     </row>
     <row r="149" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K149" s="23"/>
-      <c r="L149" s="26"/>
-      <c r="M149" s="19"/>
-      <c r="N149" s="19"/>
-      <c r="O149" s="23"/>
-      <c r="P149" s="26"/>
-      <c r="Q149" s="19"/>
+      <c r="K149" s="22"/>
+      <c r="L149" s="25"/>
+      <c r="M149" s="18"/>
+      <c r="N149" s="18"/>
+      <c r="O149" s="22"/>
+      <c r="P149" s="25"/>
+      <c r="Q149" s="18"/>
     </row>
     <row r="150" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K150" s="21"/>
-      <c r="L150" s="25"/>
+      <c r="K150" s="20"/>
+      <c r="L150" s="24"/>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
-      <c r="O150" s="21"/>
-      <c r="P150" s="25"/>
+      <c r="O150" s="20"/>
+      <c r="P150" s="24"/>
       <c r="Q150" s="2"/>
     </row>
     <row r="151" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K151" s="21"/>
-      <c r="L151" s="25"/>
+      <c r="K151" s="20"/>
+      <c r="L151" s="24"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
-      <c r="O151" s="21"/>
-      <c r="P151" s="25"/>
+      <c r="O151" s="20"/>
+      <c r="P151" s="24"/>
       <c r="Q151" s="2"/>
     </row>
     <row r="152" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K152" s="21"/>
-      <c r="L152" s="25"/>
+      <c r="K152" s="20"/>
+      <c r="L152" s="24"/>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
-      <c r="O152" s="21"/>
-      <c r="P152" s="25"/>
+      <c r="O152" s="20"/>
+      <c r="P152" s="24"/>
       <c r="Q152" s="2"/>
     </row>
   </sheetData>
@@ -18219,7 +18189,7 @@
         <v>116</v>
       </c>
       <c r="E1" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -18230,7 +18200,7 @@
         <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -21016,7 +20986,7 @@
         <v>365</v>
       </c>
       <c r="C1" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -21596,19 +21566,19 @@
         <v>0.13999999999612101</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="28" t="s">
+    <row r="50" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="27" t="s">
         <v>461</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="27" t="s">
         <v>462</v>
       </c>
-      <c r="C50" s="29">
+      <c r="C50" s="28">
         <f t="shared" si="0"/>
         <v>0.21399999999900388</v>
       </c>
-      <c r="D50" s="30" t="s">
-        <v>598</v>
+      <c r="D50" s="29" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">

--- a/2024-03-02/outputs/analysis/timing-mode-analysis.xlsx
+++ b/2024-03-02/outputs/analysis/timing-mode-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoardo/repos/equipment-examinations/2024-03-02/outputs/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C5FFBB-8C57-994C-B88C-3FEEF49D575D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C979FD-C60A-D540-8012-5F5680F804CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{D5AB5245-E2D5-0A4D-9F39-36F53832340C}"/>
+    <workbookView xWindow="3180" yWindow="3640" windowWidth="30240" windowHeight="17780" xr2:uid="{D5AB5245-E2D5-0A4D-9F39-36F53832340C}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -3092,7 +3092,7 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.539299040954329</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.7922027099122415</c:v>
@@ -6758,8 +6758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC33F2B-0907-8247-BC13-0B3BE1C82C97}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="254" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="254" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6868,7 +6868,8 @@
         <v>-3.3300000002782326E-2</v>
       </c>
       <c r="L2" s="24">
-        <v>0</v>
+        <f t="shared" ref="L2:L66" si="0">NORMDIST(K2,K$106,K$110,FALSE)</f>
+        <v>2.539299040954329</v>
       </c>
       <c r="M2" s="2">
         <f>F2-I2</f>
@@ -6908,30 +6909,30 @@
         <v>370</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F65" si="0">MID(B3,1,2)*3600+MID(B3,4,2)*60+MID(B3,7,2)+MID(B3,10,3)/1000-15*3600</f>
+        <f t="shared" ref="F3:F65" si="1">MID(B3,1,2)*3600+MID(B3,4,2)*60+MID(B3,7,2)+MID(B3,10,3)/1000-15*3600</f>
         <v>758.70999999999913</v>
       </c>
       <c r="G3" s="8">
-        <f t="shared" ref="G3:G65" si="1">MID(C3,1,2)*3600+MID(C3,4,2)*60+MID(C3,7,2)+MID(C3,10,4)/10000-15*3600</f>
+        <f t="shared" ref="G3:G65" si="2">MID(C3,1,2)*3600+MID(C3,4,2)*60+MID(C3,7,2)+MID(C3,10,4)/10000-15*3600</f>
         <v>758.85289999999804</v>
       </c>
       <c r="H3" s="12">
-        <f t="shared" ref="H3:H65" si="2">MID(D3,1,2)*3600+MID(D3,4,2)*60+MID(D3,7,2)+MID(D3,10,4)/10000-15*3600</f>
+        <f t="shared" ref="H3:H65" si="3">MID(D3,1,2)*3600+MID(D3,4,2)*60+MID(D3,7,2)+MID(D3,10,4)/10000-15*3600</f>
         <v>758.70369999999821</v>
       </c>
       <c r="I3" s="12">
-        <f t="shared" ref="I3:I65" si="3">MID(E3,1,2)*3600+MID(E3,4,2)*60+MID(E3,7,2)+MID(E3,10,4)/10000-15*3600</f>
+        <f t="shared" ref="I3:I65" si="4">MID(E3,1,2)*3600+MID(E3,4,2)*60+MID(E3,7,2)+MID(E3,10,4)/10000-15*3600</f>
         <v>758.84769999999844</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" s="20">
-        <f t="shared" ref="K3:K66" si="4">F3-H3</f>
+        <f t="shared" ref="K3:K66" si="5">F3-H3</f>
         <v>6.300000000919681E-3</v>
       </c>
       <c r="L3" s="24">
-        <f t="shared" ref="L3:L66" si="5">NORMDIST(K3,K$106,K$110,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>2.7922027099122415</v>
       </c>
       <c r="M3" s="2">
@@ -6972,30 +6973,30 @@
         <v>372</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>771.85899999999674</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>772.04950000000099</v>
       </c>
       <c r="H4" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>771.88420000000042</v>
       </c>
       <c r="I4" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>772.03820000000269</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.5200000003678724E-2</v>
       </c>
       <c r="L4" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.6059557049708442</v>
       </c>
       <c r="M4" s="2">
@@ -7036,30 +7037,30 @@
         <v>374</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>807.28100000000268</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>807.46659999999974</v>
       </c>
       <c r="H5" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>807.29720000000088</v>
       </c>
       <c r="I5" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>807.4571999999971</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.6199999998207204E-2</v>
       </c>
       <c r="L5" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.6715919793415077</v>
       </c>
       <c r="M5" s="2">
@@ -7100,30 +7101,30 @@
         <v>376</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>821.96399999999994</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>821.85300000000279</v>
       </c>
       <c r="H6" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>821.66019999999844</v>
       </c>
       <c r="I6" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>821.85919999999896</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30380000000150176</v>
       </c>
       <c r="L6" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.44427040383746169</v>
       </c>
       <c r="M6" s="2">
@@ -7164,30 +7165,30 @@
         <v>378</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>845.86299999999756</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>846.08090000000084</v>
       </c>
       <c r="H7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>845.93319999999949</v>
       </c>
       <c r="I7" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>846.07519999999931</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7.0200000001932494E-2</v>
       </c>
       <c r="L7" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.1632294341653564</v>
       </c>
       <c r="M7" s="2">
@@ -7228,30 +7229,30 @@
         <v>380</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>864.6710000000021</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>864.58000000000175</v>
       </c>
       <c r="H8" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>864.37069999999949</v>
       </c>
       <c r="I8" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>864.56970000000001</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
       <c r="K8" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3003000000026077</v>
       </c>
       <c r="L8" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.4660242406466672</v>
       </c>
       <c r="M8" s="2">
@@ -7292,30 +7293,30 @@
         <v>382</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>875.98799999999756</v>
       </c>
       <c r="G9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>876.14830000000075</v>
       </c>
       <c r="H9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>875.97819999999774</v>
       </c>
       <c r="I9" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>876.14919999999984</v>
       </c>
       <c r="J9">
         <v>8</v>
       </c>
       <c r="K9" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.7999999998137355E-3</v>
       </c>
       <c r="L9" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.8049462923164361</v>
       </c>
       <c r="M9" s="2">
@@ -7356,30 +7357,30 @@
         <v>384</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>904.10100000000239</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>904.16530000000057</v>
       </c>
       <c r="H10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>903.96669999999722</v>
       </c>
       <c r="I10" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>904.15770000000339</v>
       </c>
       <c r="J10">
         <v>9</v>
       </c>
       <c r="K10" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13430000000516884</v>
       </c>
       <c r="L10" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.1988459842394183</v>
       </c>
       <c r="M10" s="2">
@@ -7420,30 +7421,30 @@
         <v>386</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>912.93699999999808</v>
       </c>
       <c r="G11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>913.18559999999707</v>
       </c>
       <c r="H11" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>913.00819999999658</v>
       </c>
       <c r="I11" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>913.1762000000017</v>
       </c>
       <c r="J11">
         <v>10</v>
       </c>
       <c r="K11" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7.1199999998498242E-2</v>
       </c>
       <c r="L11" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.1517774126148224</v>
       </c>
       <c r="M11" s="2">
@@ -7484,30 +7485,30 @@
         <v>388</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>944.63999999999942</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>944.82130000000325</v>
       </c>
       <c r="H12" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>944.61069999999745</v>
       </c>
       <c r="I12" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>944.82570000000123</v>
       </c>
       <c r="J12">
         <v>11</v>
       </c>
       <c r="K12" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9300000001967419E-2</v>
       </c>
       <c r="L12" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.8443771890409613</v>
       </c>
       <c r="M12" s="2">
@@ -7548,30 +7549,30 @@
         <v>390</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>952.30399999999645</v>
       </c>
       <c r="G13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>952.42079999999987</v>
       </c>
       <c r="H13" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>952.27120000000286</v>
       </c>
       <c r="I13" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>952.42020000000048</v>
       </c>
       <c r="J13">
         <v>12</v>
       </c>
       <c r="K13" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2799999993585516E-2</v>
       </c>
       <c r="L13" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.8456790236168015</v>
       </c>
       <c r="M13" s="2">
@@ -7612,30 +7613,30 @@
         <v>392</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>985.15200000000186</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>985.4829000000027</v>
       </c>
       <c r="H14" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>985.27470000000176</v>
       </c>
       <c r="I14" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>985.46770000000106</v>
       </c>
       <c r="J14">
         <v>13</v>
       </c>
       <c r="K14" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.12269999999989523</v>
       </c>
       <c r="L14" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1.5282835490646594</v>
       </c>
       <c r="M14" s="2">
@@ -7676,30 +7677,30 @@
         <v>394</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>992.15200000000186</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>992.28160000000207</v>
       </c>
       <c r="H15" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>992.15520000000106</v>
       </c>
       <c r="I15" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>992.28820000000269</v>
       </c>
       <c r="J15">
         <v>14</v>
       </c>
       <c r="K15" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.1999999991967343E-3</v>
       </c>
       <c r="L15" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.749252396792214</v>
       </c>
       <c r="M15" s="2">
@@ -7740,30 +7741,30 @@
         <v>396</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1024.8039999999964</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1025.0089999999982</v>
       </c>
       <c r="H16" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024.8092000000033</v>
       </c>
       <c r="I16" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1025.010199999997</v>
       </c>
       <c r="J16">
         <v>15</v>
       </c>
       <c r="K16" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5.2000000068801455E-3</v>
       </c>
       <c r="L16" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.7386917500734733</v>
       </c>
       <c r="M16" s="2">
@@ -7804,30 +7805,30 @@
         <v>398</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1031.0780000000013</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1031.2439999999988</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1031.0766999999978</v>
       </c>
       <c r="I17" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1031.2407000000021</v>
       </c>
       <c r="J17">
         <v>16</v>
       </c>
       <c r="K17" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3000000035390258E-3</v>
       </c>
       <c r="L17" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.7711000932252072</v>
       </c>
       <c r="M17" s="2">
@@ -7868,30 +7869,30 @@
         <v>400</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1066.8589999999967</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1067.0820000000022</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1066.8661999999968</v>
       </c>
       <c r="I18" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1067.0581999999995</v>
       </c>
       <c r="J18">
         <v>17</v>
       </c>
       <c r="K18" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7.2000000000116415E-3</v>
       </c>
       <c r="L18" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.727616463992657</v>
       </c>
       <c r="M18" s="2">
@@ -7932,30 +7933,30 @@
         <v>402</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1079.0699999999997</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1079.2025999999969</v>
       </c>
       <c r="H19" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1079.0587000000014</v>
       </c>
       <c r="I19" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1079.2056999999986</v>
       </c>
       <c r="J19">
         <v>18</v>
       </c>
       <c r="K19" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1299999998300336E-2</v>
       </c>
       <c r="L19" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.8098894147022242</v>
       </c>
       <c r="M19" s="2">
@@ -7996,30 +7997,30 @@
         <v>404</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1109.6319999999978</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1109.7640000000029</v>
       </c>
       <c r="H20" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1109.5521999999983</v>
       </c>
       <c r="I20" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1109.7641999999978</v>
       </c>
       <c r="J20">
         <v>19</v>
       </c>
       <c r="K20" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.9799999999522697E-2</v>
       </c>
       <c r="L20" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.6954410543709417</v>
       </c>
       <c r="M20" s="2">
@@ -8060,30 +8061,30 @@
         <v>181</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1119.877999999997</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1120.0123999999996</v>
       </c>
       <c r="H21" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1119.8642000000036</v>
       </c>
       <c r="I21" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1120.0092000000004</v>
       </c>
       <c r="J21">
         <v>20</v>
       </c>
       <c r="K21" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3799999993352685E-2</v>
       </c>
       <c r="L21" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.8174304402610311</v>
       </c>
       <c r="M21" s="2">
@@ -8124,30 +8125,30 @@
         <v>407</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1148.2260000000024</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1148.5132000000012</v>
       </c>
       <c r="H22" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1148.2751999999964</v>
       </c>
       <c r="I22" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1148.4982000000018</v>
       </c>
       <c r="J22">
         <v>21</v>
       </c>
       <c r="K22" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.9199999994016252E-2</v>
       </c>
       <c r="L22" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.3900555430307509</v>
       </c>
       <c r="M22" s="2">
@@ -8188,30 +8189,30 @@
         <v>409</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1160.3280000000013</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1160.5135000000009</v>
       </c>
       <c r="H23" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1160.3657000000021</v>
       </c>
       <c r="I23" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1160.5176999999967</v>
       </c>
       <c r="J23">
         <v>22</v>
       </c>
       <c r="K23" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.7700000000768341E-2</v>
       </c>
       <c r="L23" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.500306890013599</v>
       </c>
       <c r="M23" s="2">
@@ -8252,30 +8253,30 @@
         <v>411</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1187.0069999999978</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1187.3066000000035</v>
       </c>
       <c r="H24" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1187.1201999999976</v>
       </c>
       <c r="I24" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1187.3092000000033</v>
       </c>
       <c r="J24">
         <v>23</v>
       </c>
       <c r="K24" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.11319999999977881</v>
       </c>
       <c r="L24" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1.6444584387206793</v>
       </c>
       <c r="M24" s="2">
@@ -8316,30 +8317,30 @@
         <v>413</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1197.3349999999991</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1197.4354000000021</v>
       </c>
       <c r="H25" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1197.2776999999987</v>
       </c>
       <c r="I25" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1197.431700000001</v>
       </c>
       <c r="J25">
         <v>24</v>
       </c>
       <c r="K25" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.7300000000395812E-2</v>
       </c>
       <c r="L25" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.8054169335127046</v>
       </c>
       <c r="M25" s="2">
@@ -8380,30 +8381,30 @@
         <v>415</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1228.773000000001</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1229.0987999999998</v>
       </c>
       <c r="H26" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1228.9167000000016</v>
       </c>
       <c r="I26" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1229.066700000003</v>
       </c>
       <c r="J26">
         <v>25</v>
       </c>
       <c r="K26" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.14370000000053551</v>
       </c>
       <c r="L26" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1.2787640904202884</v>
       </c>
       <c r="M26" s="2">
@@ -8444,30 +8445,30 @@
         <v>417</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1235.1089999999967</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1235.2741999999998</v>
       </c>
       <c r="H27" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1235.0486999999994</v>
       </c>
       <c r="I27" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1235.2657000000036</v>
       </c>
       <c r="J27">
         <v>26</v>
       </c>
       <c r="K27" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.0299999997369014E-2</v>
       </c>
       <c r="L27" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.7946543488003432</v>
       </c>
       <c r="M27" s="2">
@@ -8508,30 +8509,30 @@
         <v>419</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1239.6829999999973</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1239.8122000000003</v>
       </c>
       <c r="H28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1239.6767000000036</v>
       </c>
       <c r="I28" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1239.8107000000018</v>
       </c>
       <c r="J28">
         <v>27</v>
       </c>
       <c r="K28" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2999999936437234E-3</v>
       </c>
       <c r="L28" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.7922027098840005</v>
       </c>
       <c r="M28" s="2">
@@ -8572,30 +8573,30 @@
         <v>421</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1260.4289999999964</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1260.7963999999993</v>
       </c>
       <c r="H29" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1260.5921999999991</v>
       </c>
       <c r="I29" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1260.8131999999969</v>
       </c>
       <c r="J29">
         <v>28</v>
       </c>
       <c r="K29" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.16320000000268919</v>
       </c>
       <c r="L29" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1.0621370470116391</v>
       </c>
       <c r="M29" s="2">
@@ -8636,30 +8637,30 @@
         <v>423</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1278.7770000000019</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1278.5817000000025</v>
       </c>
       <c r="H30" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1278.3772000000026</v>
       </c>
       <c r="I30" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1278.5711999999985</v>
       </c>
       <c r="J30">
         <v>29</v>
       </c>
       <c r="K30" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.39979999999923166</v>
       </c>
       <c r="L30" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>9.3898759565732709E-2</v>
       </c>
       <c r="M30" s="2">
@@ -8700,30 +8701,30 @@
         <v>204</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1283.7770000000019</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1283.9052000000011</v>
       </c>
       <c r="H31" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1283.754200000003</v>
       </c>
       <c r="I31" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1283.9052000000011</v>
       </c>
       <c r="J31">
         <v>30</v>
       </c>
       <c r="K31" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2799999998824205E-2</v>
       </c>
       <c r="L31" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.8372652827544256</v>
       </c>
       <c r="M31" s="2">
@@ -8764,30 +8765,30 @@
         <v>426</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1292.9639999999999</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1293.2188000000024</v>
       </c>
       <c r="H32" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1293.0072</v>
       </c>
       <c r="I32" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1293.2042000000001</v>
       </c>
       <c r="J32">
         <v>31</v>
       </c>
       <c r="K32" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.3200000000069849E-2</v>
       </c>
       <c r="L32" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.4490127086594997</v>
       </c>
       <c r="M32" s="2">
@@ -8828,30 +8829,30 @@
         <v>428</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1322.2099999999991</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1322.4119999999966</v>
       </c>
       <c r="H33" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1322.2062000000005</v>
       </c>
       <c r="I33" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1322.4001999999964</v>
       </c>
       <c r="J33">
         <v>32</v>
       </c>
       <c r="K33" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7999999985913746E-3</v>
       </c>
       <c r="L33" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.7820737243109224</v>
       </c>
       <c r="M33" s="2">
@@ -8892,30 +8893,30 @@
         <v>430</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1327.773000000001</v>
       </c>
       <c r="G34" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1328.0420999999988</v>
       </c>
       <c r="H34" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1327.8566999999966</v>
       </c>
       <c r="I34" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1328.0137000000032</v>
       </c>
       <c r="J34">
         <v>33</v>
       </c>
       <c r="K34" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.3699999995587859E-2</v>
       </c>
       <c r="L34" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.0050137016231808</v>
       </c>
       <c r="M34" s="2">
@@ -8956,30 +8957,30 @@
         <v>432</v>
       </c>
       <c r="F35" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1330.0780000000013</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1330.1912000000011</v>
       </c>
       <c r="H35" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1330.0611999999965</v>
       </c>
       <c r="I35" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1330.1782000000021</v>
       </c>
       <c r="J35">
         <v>34</v>
       </c>
       <c r="K35" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6800000004877802E-2</v>
       </c>
       <c r="L35" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.8253201317623597</v>
       </c>
       <c r="M35" s="2">
@@ -9020,30 +9021,30 @@
         <v>434</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1365</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1365.2574999999997</v>
       </c>
       <c r="H36" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1365.0512000000017</v>
       </c>
       <c r="I36" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1365.244200000001</v>
       </c>
       <c r="J36">
         <v>35</v>
       </c>
       <c r="K36" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5.1200000001699664E-2</v>
       </c>
       <c r="L36" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.3697554398885359</v>
       </c>
       <c r="M36" s="2">
@@ -9084,30 +9085,30 @@
         <v>436</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1373.1710000000021</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1373.2621999999974</v>
       </c>
       <c r="H37" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1373.1201999999976</v>
       </c>
       <c r="I37" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1373.254200000003</v>
       </c>
       <c r="J37">
         <v>36</v>
       </c>
       <c r="K37" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.0800000004528556E-2</v>
       </c>
       <c r="L37" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.8244376189759524</v>
       </c>
       <c r="M37" s="2">
@@ -9148,30 +9149,30 @@
         <v>438</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1381.1319999999978</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1381.2940999999992</v>
       </c>
       <c r="H38" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1381.0782000000036</v>
       </c>
       <c r="I38" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1381.2941999999966</v>
       </c>
       <c r="J38">
         <v>37</v>
       </c>
       <c r="K38" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.37999999942258E-2</v>
       </c>
       <c r="L38" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.8163951178329785</v>
       </c>
       <c r="M38" s="2">
@@ -9212,30 +9213,30 @@
         <v>440</v>
       </c>
       <c r="F39" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1403.4170000000013</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1403.6152000000002</v>
       </c>
       <c r="H39" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1403.4251999999979</v>
       </c>
       <c r="I39" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1403.6272000000026</v>
       </c>
       <c r="J39">
         <v>38</v>
       </c>
       <c r="K39" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.1999999965773895E-3</v>
       </c>
       <c r="L39" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.7218878762836902</v>
       </c>
       <c r="M39" s="2">
@@ -9276,30 +9277,30 @@
         <v>442</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1417.4170000000013</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1417.5190000000002</v>
       </c>
       <c r="H40" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1417.3831999999966</v>
       </c>
       <c r="I40" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1417.5221999999994</v>
       </c>
       <c r="J40">
         <v>39</v>
       </c>
       <c r="K40" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3800000004703179E-2</v>
       </c>
       <c r="L40" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.8457252739272221</v>
       </c>
       <c r="M40" s="2">
@@ -9340,30 +9341,30 @@
         <v>444</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1427.0270000000019</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1426.9193000000014</v>
       </c>
       <c r="H41" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1426.7137000000002</v>
       </c>
       <c r="I41" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1426.8997000000018</v>
       </c>
       <c r="J41">
         <v>40</v>
       </c>
       <c r="K41" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.31330000000161817</v>
       </c>
       <c r="L41" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.38898352995943747</v>
       </c>
       <c r="M41" s="2">
@@ -9404,30 +9405,30 @@
         <v>446</v>
       </c>
       <c r="F42" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1439.4060000000027</v>
       </c>
       <c r="G42" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1439.6233999999968</v>
       </c>
       <c r="H42" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1439.4236999999994</v>
       </c>
       <c r="I42" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1439.6166999999987</v>
       </c>
       <c r="J42">
         <v>41</v>
       </c>
       <c r="K42" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.7699999996693805E-2</v>
       </c>
       <c r="L42" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.6613004946378691</v>
       </c>
       <c r="M42" s="2">
@@ -9468,30 +9469,30 @@
         <v>448</v>
       </c>
       <c r="F43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1459.5069999999978</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1459.6238999999987</v>
       </c>
       <c r="H43" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1459.483699999997</v>
       </c>
       <c r="I43" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1459.6217000000033</v>
       </c>
       <c r="J43">
         <v>42</v>
       </c>
       <c r="K43" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3300000000745058E-2</v>
       </c>
       <c r="L43" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.8380283203296375</v>
       </c>
       <c r="M43" s="2">
@@ -9532,30 +9533,30 @@
         <v>450</v>
       </c>
       <c r="F44" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1476.4060000000027</v>
       </c>
       <c r="G44" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1476.6143000000011</v>
       </c>
       <c r="H44" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1476.4331999999995</v>
       </c>
       <c r="I44" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1476.6261999999988</v>
       </c>
       <c r="J44">
         <v>43</v>
       </c>
       <c r="K44" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.719999999681022E-2</v>
       </c>
       <c r="L44" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.5901401468766889</v>
       </c>
       <c r="M44" s="2">
@@ -9596,30 +9597,30 @@
         <v>452</v>
       </c>
       <c r="F45" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1483.5579999999973</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1483.7761000000028</v>
       </c>
       <c r="H45" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1483.5742000000027</v>
       </c>
       <c r="I45" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1483.7811999999976</v>
       </c>
       <c r="J45">
         <v>44</v>
       </c>
       <c r="K45" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.6200000005483162E-2</v>
       </c>
       <c r="L45" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.6715919792922329</v>
       </c>
       <c r="M45" s="2">
@@ -9660,30 +9661,30 @@
         <v>454</v>
       </c>
       <c r="F46" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1501.1789999999964</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1501.2862000000023</v>
       </c>
       <c r="H46" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1501.1566999999995</v>
       </c>
       <c r="I46" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1501.2886999999973</v>
       </c>
       <c r="J46">
         <v>45</v>
       </c>
       <c r="K46" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2299999996903352E-2</v>
       </c>
       <c r="L46" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.8364663686348552</v>
       </c>
       <c r="M46" s="2">
@@ -9724,30 +9725,30 @@
         <v>456</v>
       </c>
       <c r="F47" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1511.8859999999986</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1512.0475999999981</v>
       </c>
       <c r="H47" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1511.8376999999964</v>
       </c>
       <c r="I47" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1512.0457000000024</v>
       </c>
       <c r="J47">
         <v>46</v>
       </c>
       <c r="K47" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.830000000220025E-2</v>
       </c>
       <c r="L47" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.8301670342143672</v>
       </c>
       <c r="M47" s="2">
@@ -9788,30 +9789,30 @@
         <v>458</v>
       </c>
       <c r="F48" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1523.0190000000002</v>
       </c>
       <c r="G48" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1522.8926999999967</v>
       </c>
       <c r="H48" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1522.6961999999985</v>
       </c>
       <c r="I48" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1522.892200000002</v>
       </c>
       <c r="J48">
         <v>47</v>
       </c>
       <c r="K48" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32280000000173459</v>
       </c>
       <c r="L48" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.33901640089717083</v>
       </c>
       <c r="M48" s="2">
@@ -9852,30 +9853,30 @@
         <v>460</v>
       </c>
       <c r="F49" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1543.0149999999994</v>
       </c>
       <c r="G49" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1543.1463999999978</v>
       </c>
       <c r="H49" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1543.0051999999996</v>
       </c>
       <c r="I49" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1543.145199999999</v>
       </c>
       <c r="J49">
         <v>48</v>
       </c>
       <c r="K49" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.7999999998137355E-3</v>
       </c>
       <c r="L49" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.8049462923164361</v>
       </c>
       <c r="M49" s="2">
@@ -9916,30 +9917,30 @@
         <v>464</v>
       </c>
       <c r="F50" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1563.9570000000022</v>
       </c>
       <c r="G50" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1564.0866999999998</v>
       </c>
       <c r="H50" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1563.8871999999974</v>
       </c>
       <c r="I50" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1564.0872000000018</v>
       </c>
       <c r="J50">
         <v>49</v>
       </c>
       <c r="K50" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.9800000004761387E-2</v>
       </c>
       <c r="L50" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.7525161726970868</v>
       </c>
       <c r="M50" s="2">
@@ -9980,30 +9981,30 @@
         <v>466</v>
       </c>
       <c r="F51" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1593.1010000000024</v>
       </c>
       <c r="G51" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1593.2548000000024</v>
       </c>
       <c r="H51" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1593.1057000000001</v>
       </c>
       <c r="I51" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1593.2416999999987</v>
       </c>
       <c r="J51">
         <v>50</v>
       </c>
       <c r="K51" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.6999999976833351E-3</v>
       </c>
       <c r="L51" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.7413804099718839</v>
       </c>
       <c r="M51" s="2">
@@ -10044,30 +10045,30 @@
         <v>468</v>
       </c>
       <c r="F52" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1597.7300000000032</v>
       </c>
       <c r="G52" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1597.8444999999992</v>
       </c>
       <c r="H52" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1597.8597000000009</v>
       </c>
       <c r="I52" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1597.8796999999977</v>
       </c>
       <c r="J52">
         <v>51</v>
       </c>
       <c r="K52" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.12969999999768334</v>
       </c>
       <c r="L52" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1.4437175402920994</v>
       </c>
       <c r="M52" s="2">
@@ -10108,30 +10109,30 @@
         <v>470</v>
       </c>
       <c r="F53" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1620.877999999997</v>
       </c>
       <c r="G53" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1621.0889000000025</v>
       </c>
       <c r="H53" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1620.8646999999983</v>
       </c>
       <c r="I53" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1621.0846999999994</v>
       </c>
       <c r="J53">
         <v>52</v>
       </c>
       <c r="K53" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.329999999870779E-2</v>
       </c>
       <c r="L53" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.8159922589788722</v>
       </c>
       <c r="M53" s="2">
@@ -10172,30 +10173,30 @@
         <v>472</v>
       </c>
       <c r="F54" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1648.0460000000021</v>
       </c>
       <c r="G54" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1648.1782000000021</v>
       </c>
       <c r="H54" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1648.0316999999995</v>
       </c>
       <c r="I54" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1648.1806999999972</v>
       </c>
       <c r="J54">
         <v>53</v>
       </c>
       <c r="K54" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4300000002549496E-2</v>
       </c>
       <c r="L54" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.8188334986968417</v>
       </c>
       <c r="M54" s="2">
@@ -10236,30 +10237,30 @@
         <v>474</v>
       </c>
       <c r="F55" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1653.1789999999964</v>
       </c>
       <c r="G55" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1653.3297999999995</v>
       </c>
       <c r="H55" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1653.1217000000033</v>
       </c>
       <c r="I55" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1653.3277000000016</v>
       </c>
       <c r="J55">
         <v>54</v>
       </c>
       <c r="K55" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.7299999993119854E-2</v>
       </c>
       <c r="L55" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.8054169335372996</v>
       </c>
       <c r="M55" s="2">
@@ -10300,30 +10301,30 @@
         <v>476</v>
       </c>
       <c r="F56" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1681.6909999999989</v>
       </c>
       <c r="G56" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1681.9159</v>
       </c>
       <c r="H56" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1681.684699999998</v>
       </c>
       <c r="I56" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1681.9087</v>
       </c>
       <c r="J56">
         <v>55</v>
       </c>
       <c r="K56" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.300000000919681E-3</v>
       </c>
       <c r="L56" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.7922027099122415</v>
       </c>
       <c r="M56" s="2">
@@ -10364,30 +10365,30 @@
         <v>478</v>
       </c>
       <c r="F57" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1687.2419999999984</v>
       </c>
       <c r="G57" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1687.3856999999989</v>
       </c>
       <c r="H57" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1687.2557000000015</v>
       </c>
       <c r="I57" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1687.3776999999973</v>
       </c>
       <c r="J57">
         <v>56</v>
       </c>
       <c r="K57" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.3700000003154855E-2</v>
       </c>
       <c r="L57" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.688148987295206</v>
       </c>
       <c r="M57" s="2">
@@ -10428,30 +10429,30 @@
         <v>480</v>
       </c>
       <c r="F58" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1691.7419999999984</v>
       </c>
       <c r="G58" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1691.9164999999994</v>
       </c>
       <c r="H58" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1691.731200000002</v>
       </c>
       <c r="I58" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1691.9161999999997</v>
       </c>
       <c r="J58">
         <v>57</v>
       </c>
       <c r="K58" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0799999996379483E-2</v>
       </c>
       <c r="L58" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.8082764627255479</v>
       </c>
       <c r="M58" s="2">
@@ -10492,30 +10493,30 @@
         <v>482</v>
       </c>
       <c r="F59" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1726.1209999999992</v>
       </c>
       <c r="G59" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1726.222099999999</v>
       </c>
       <c r="H59" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1726.0671999999977</v>
       </c>
       <c r="I59" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1726.2261999999973</v>
       </c>
       <c r="J59">
         <v>58</v>
       </c>
       <c r="K59" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3800000001501758E-2</v>
       </c>
       <c r="L59" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.8163951178119362</v>
       </c>
       <c r="M59" s="2">
@@ -10556,30 +10557,30 @@
         <v>484</v>
       </c>
       <c r="F60" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1733.5740000000005</v>
       </c>
       <c r="G60" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1733.940300000002</v>
       </c>
       <c r="H60" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1733.7422000000006</v>
       </c>
       <c r="I60" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1733.9242000000013</v>
       </c>
       <c r="J60">
         <v>59</v>
       </c>
       <c r="K60" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.16820000000006985</v>
       </c>
       <c r="L60" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1.0096198081561725</v>
       </c>
       <c r="M60" s="2">
@@ -10620,30 +10621,30 @@
         <v>486</v>
       </c>
       <c r="F61" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1740.375</v>
       </c>
       <c r="G61" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1740.5304000000033</v>
       </c>
       <c r="H61" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1740.3836999999985</v>
       </c>
       <c r="I61" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1740.5346999999965</v>
       </c>
       <c r="J61">
         <v>60</v>
       </c>
       <c r="K61" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.6999999984982423E-3</v>
       </c>
       <c r="L61" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.7189762148367542</v>
       </c>
       <c r="M61" s="2">
@@ -10684,30 +10685,30 @@
         <v>488</v>
       </c>
       <c r="F62" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1777.1710000000021</v>
       </c>
       <c r="G62" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1777.4069999999992</v>
       </c>
       <c r="H62" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1777.1722000000009</v>
       </c>
       <c r="I62" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1777.3991999999998</v>
       </c>
       <c r="J62">
         <v>61</v>
       </c>
       <c r="K62" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.1999999987892807E-3</v>
       </c>
       <c r="L62" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.7592921128859649</v>
       </c>
       <c r="M62" s="2">
@@ -10748,30 +10749,30 @@
         <v>490</v>
       </c>
       <c r="F63" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1780.5310000000027</v>
       </c>
       <c r="G63" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1780.6719000000012</v>
       </c>
       <c r="H63" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1780.517200000002</v>
       </c>
       <c r="I63" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1780.658199999998</v>
       </c>
       <c r="J63">
         <v>62</v>
       </c>
       <c r="K63" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3800000000628643E-2</v>
       </c>
       <c r="L63" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.8174304402817039</v>
       </c>
       <c r="M63" s="2">
@@ -10812,30 +10813,30 @@
         <v>492</v>
       </c>
       <c r="F64" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1787.8550000000032</v>
       </c>
       <c r="G64" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1788.0339999999997</v>
       </c>
       <c r="H64" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1787.8341999999975</v>
       </c>
       <c r="I64" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1788.0311999999976</v>
       </c>
       <c r="J64">
         <v>63</v>
       </c>
       <c r="K64" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0800000005692709E-2</v>
       </c>
       <c r="L64" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.8338546780735081</v>
       </c>
       <c r="M64" s="2">
@@ -10876,30 +10877,30 @@
         <v>494</v>
       </c>
       <c r="F65" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1814.7030000000013</v>
       </c>
       <c r="G65" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1814.9384999999966</v>
       </c>
       <c r="H65" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1814.747199999998</v>
       </c>
       <c r="I65" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1814.9512000000032</v>
       </c>
       <c r="J65">
         <v>64</v>
       </c>
       <c r="K65" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.4199999996635597E-2</v>
       </c>
       <c r="L65" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.4393967602696689</v>
       </c>
       <c r="M65" s="2">
@@ -10959,11 +10960,11 @@
         <v>65</v>
       </c>
       <c r="K66" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.6799999996437691E-2</v>
       </c>
       <c r="L66" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2.833177751908222</v>
       </c>
       <c r="M66" s="2">
